--- a/CEE2333TermProject/excel_check.xlsx
+++ b/CEE2333TermProject/excel_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrs196_pitt_edu/Documents/7_SupSenior Fall/CEE 2333/Matlab/CEE2333HW6b/CEE2333TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4ED78FA-5D1A-4030-91C4-72404D905103}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48D94AA-0BE2-42B9-B34F-0A403DE4C086}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="3840" windowWidth="21600" windowHeight="11295" xr2:uid="{5E9F0EF5-0C21-4768-9B7E-F9FB9B3FDCA8}"/>
   </bookViews>
@@ -298,7 +298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C473B7D5-BE2F-40DA-BE88-097F8A5685BF}" type="CELLRANGE">
+                    <a:fld id="{FCC4EE30-B424-4C1B-A849-C873D447C5EB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -332,7 +332,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9368708F-BA58-42DF-90A8-4465BD1C00F7}" type="CELLRANGE">
+                    <a:fld id="{89EE9562-3331-4C7A-8FB1-76AF2A49B967}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -366,7 +366,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50162A3E-DB5A-4EF2-894C-E70D46C2EAFB}" type="CELLRANGE">
+                    <a:fld id="{5E2E81DC-D3BA-44A1-8597-8DC3D1A3018A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -400,7 +400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{768B4FB4-296C-4B55-97A9-67D94E35E239}" type="CELLRANGE">
+                    <a:fld id="{08AD6F3D-EF16-414C-B23C-6909924CF664}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -434,7 +434,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBFBEF75-6B8F-469A-BF5E-F9E7F0A8C7DD}" type="CELLRANGE">
+                    <a:fld id="{554E75AB-C229-4CF2-B491-605990635145}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -468,7 +468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A74CF48-1D08-4F34-B562-82CA2DEA1DA2}" type="CELLRANGE">
+                    <a:fld id="{B1693AA7-D2F3-439D-8519-9F468D09EF3A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -502,7 +502,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D4CD15D-81CD-4630-AE9B-15906AECB738}" type="CELLRANGE">
+                    <a:fld id="{454D6A08-B84B-4753-9703-A6FEB5100574}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -536,7 +536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6B7884B-A244-41DC-ABDD-BFCA60AF20E8}" type="CELLRANGE">
+                    <a:fld id="{63BF51FA-AC70-458D-BFED-67C11B3AB935}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -570,7 +570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A7A9AD9-7F60-4CA5-9255-16F528C96295}" type="CELLRANGE">
+                    <a:fld id="{DA3096F0-9B9A-47DF-A56E-63C842856A4F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -604,7 +604,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED7FB5B7-1010-4E08-AADF-B155C3BAA165}" type="CELLRANGE">
+                    <a:fld id="{6311DDBF-5B2D-489C-BD89-D037EE4329D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -638,7 +638,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D4DCBE6-C324-431C-B6F7-17DBC0756BE3}" type="CELLRANGE">
+                    <a:fld id="{4E437F30-1ABF-4ABA-9BA2-F01146AE6BD1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -672,7 +672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EE59DF1-7438-4DD6-B7C7-A229E7DFD806}" type="CELLRANGE">
+                    <a:fld id="{3A65CF13-0829-4995-BA28-4A056CF50810}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -706,7 +706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BD851FC-44B9-47D1-8452-2B62E8868175}" type="CELLRANGE">
+                    <a:fld id="{FB9B8DC5-4848-4043-9F11-23F578BED31C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -740,7 +740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6133D823-9D99-4DC6-89C3-8F33378C4D50}" type="CELLRANGE">
+                    <a:fld id="{1394C349-5D70-4837-AAF9-36B33201FB7D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -774,7 +774,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{630511A4-4C0D-441B-9219-C9C3CD1341C3}" type="CELLRANGE">
+                    <a:fld id="{0ABD33C5-F298-4622-A01C-29F21F4DCD66}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -808,7 +808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{283D3CE8-A6E1-46E4-91BA-B3E0650B2647}" type="CELLRANGE">
+                    <a:fld id="{745D3FB3-6501-4103-AE75-D2372BCA6599}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -842,7 +842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9FFA0CA-9020-44F4-8BB8-165B0B04424F}" type="CELLRANGE">
+                    <a:fld id="{B9204EC9-8BDD-4C13-A085-E265A02588F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -876,7 +876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2BD0EFB-B216-4F7C-8DE3-F92507075009}" type="CELLRANGE">
+                    <a:fld id="{C036511C-485B-48D4-A27D-60F7F48F477C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -910,7 +910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA395E77-C45C-48D2-9FC2-DCD3A37F6223}" type="CELLRANGE">
+                    <a:fld id="{C3689C60-12F0-4DC3-9208-1FE4F54D6F11}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -944,7 +944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C79AD295-B7D5-4F52-9946-A15C26C13F9B}" type="CELLRANGE">
+                    <a:fld id="{BBCA72B0-D2CA-4466-82C5-587BDFA5B4FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1263,7 +1263,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06BC320C-9159-4A65-B613-C326C1F9C806}" type="CELLRANGE">
+                    <a:fld id="{3B8104E8-F2BE-42E9-A065-CBC4EAA3CCFA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1297,7 +1297,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79B418BA-7FBD-4AD8-B607-DEE68C390892}" type="CELLRANGE">
+                    <a:fld id="{F5428182-C909-4B94-958C-6D0E97644C69}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1331,7 +1331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AB8300A-4FA6-49C2-A902-3DA4FC2F8346}" type="CELLRANGE">
+                    <a:fld id="{0289CC41-FDA8-4A89-93E6-CEFCED5CA6D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1365,7 +1365,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D696A4C0-1ED3-4E62-9E09-A7AE23964711}" type="CELLRANGE">
+                    <a:fld id="{A07D42A3-B6FC-40CA-B5D3-FD17A4996FC5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1399,7 +1399,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EEFF4D3-31A3-4D13-96FA-D2001CEB5903}" type="CELLRANGE">
+                    <a:fld id="{642F2181-6B4A-4977-A30D-9E4884EA420A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1433,7 +1433,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F8BDE02-D19F-408B-97B9-C46C293969FC}" type="CELLRANGE">
+                    <a:fld id="{18A0BD47-8BE5-4A6B-AD04-54A6058836DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1467,7 +1467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E983E4B1-7885-4498-A895-B52579A70277}" type="CELLRANGE">
+                    <a:fld id="{8EA8A56C-1715-4252-9AC9-499CBAE7AE04}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1501,7 +1501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70780AD7-14D2-4761-BFDC-1A8357B7ABA3}" type="CELLRANGE">
+                    <a:fld id="{AA970CA5-4639-4847-B4D5-5E93F2BD0ED4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1535,7 +1535,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{861D8726-54BB-40FA-A6B6-38E9BEF2D3B8}" type="CELLRANGE">
+                    <a:fld id="{FD28DDE4-9207-4E87-9730-BBFED37FAC5B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1569,7 +1569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A11F9D9-C9A7-4572-9D1D-57E50FEEBCDE}" type="CELLRANGE">
+                    <a:fld id="{D0CF57E0-C4D0-4338-BB49-302D276C2F3E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1603,7 +1603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5F7C908-DA50-4811-9F5D-B3A1E9BD50E1}" type="CELLRANGE">
+                    <a:fld id="{DC191502-8E5D-46F0-9704-C36B0F72DC51}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1637,7 +1637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55C62B39-2D51-4D2E-B8E5-96A8C4A47D79}" type="CELLRANGE">
+                    <a:fld id="{4F67C476-1359-4D31-95F1-D34291118E33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1671,7 +1671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EFCBC37-EC92-451B-8EC3-E8D74D24A96D}" type="CELLRANGE">
+                    <a:fld id="{AF073EC5-FA56-4E2C-9C9B-CD1E19F121AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1705,7 +1705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FE82701-0FB5-4E6B-9428-10263EFF3901}" type="CELLRANGE">
+                    <a:fld id="{D747770F-3BC3-494C-AD0B-A7FF6D731006}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1739,7 +1739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A4F5924-87FD-4E98-A158-1D2640199C9D}" type="CELLRANGE">
+                    <a:fld id="{9B7FC442-6D40-412D-8B64-F4530BA5C19F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1773,7 +1773,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA68B1F2-0AC5-4CFF-8273-3511EBA1807A}" type="CELLRANGE">
+                    <a:fld id="{D33990A2-50F6-4ECF-9371-25FEC5A3496F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1807,7 +1807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8CF8F62-E3E0-41D8-B39F-E318E495C810}" type="CELLRANGE">
+                    <a:fld id="{24E71FFA-9429-40B3-A9E9-3EBB89A2A54A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1841,7 +1841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A63D070E-BF53-4083-B4D2-00DA612397C5}" type="CELLRANGE">
+                    <a:fld id="{95CF0C4C-1405-43F9-AD4D-A02947237E33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1875,7 +1875,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99C52DC2-F95F-43C1-98F5-65B1E9944C3A}" type="CELLRANGE">
+                    <a:fld id="{506203EC-ECFD-4AE7-A67A-574B1674D27C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1909,7 +1909,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64AAFDA9-D49C-47A4-BDA4-93869485EE62}" type="CELLRANGE">
+                    <a:fld id="{56DA060E-E08C-428A-831B-CED5B6E3E3C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2126,22 +2126,22 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>7</c:v>
+                    <c:v>13</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8</c:v>
+                    <c:v>14</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9</c:v>
+                    <c:v>15</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>10</c:v>
+                    <c:v>16</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>11</c:v>
+                    <c:v>17</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>12</c:v>
+                    <c:v>18</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>27</c:v>
@@ -2228,7 +2228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9AAEB7B-D4C7-41E9-9FF3-DBEB886695DC}" type="CELLRANGE">
+                    <a:fld id="{AFDE324F-E879-4A11-870D-D1E274C67FC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2262,7 +2262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EBDF25F-C87B-460F-A27F-D262FB69D52C}" type="CELLRANGE">
+                    <a:fld id="{B5A726F1-2D97-4E24-A019-75D3B2E383D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2296,7 +2296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A084652-BB29-4B3F-8504-532C2F4D1148}" type="CELLRANGE">
+                    <a:fld id="{4672E453-486D-40BF-BF6F-9A274F73B396}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2330,7 +2330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E435EE80-CAE1-47A8-B3F7-3C61EB37C977}" type="CELLRANGE">
+                    <a:fld id="{4230DB5A-14D4-4D91-9815-35D0128C2A73}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2364,7 +2364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A09BB58-CD1E-46EA-ABB2-47DF83640B87}" type="CELLRANGE">
+                    <a:fld id="{98644732-65B9-4A54-B57F-57DD532017D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2398,7 +2398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01322D3F-1801-49DA-A0CC-F684CC28BB22}" type="CELLRANGE">
+                    <a:fld id="{736EDD45-3D00-4FB5-B7D4-5D77869CCC20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2432,7 +2432,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AFFA1A7-E9BC-4731-ACFB-5F6E0F52D34E}" type="CELLRANGE">
+                    <a:fld id="{6FC202BA-9B89-4B9C-87A7-5CDD415E4F1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2466,7 +2466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{535B0247-8D9E-4D2D-955B-D1C1FDB01637}" type="CELLRANGE">
+                    <a:fld id="{C93B1865-3680-4278-A804-15D1E5A71BB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2500,7 +2500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62DA68BD-D5D7-4F9A-B499-5C821DC2FBB5}" type="CELLRANGE">
+                    <a:fld id="{BBA68F9A-688C-46ED-AF54-792D520E1BB6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2534,7 +2534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CDE2CB4-1966-46F3-A893-22F063EAAC1A}" type="CELLRANGE">
+                    <a:fld id="{3E9E4A20-5763-4E1C-B505-066CE5A41E57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2568,7 +2568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA94D771-0F89-4C9E-84CC-1DEDD8C472EA}" type="CELLRANGE">
+                    <a:fld id="{B2560AF6-0921-47EB-989D-4506C1870952}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2602,7 +2602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E097DE0-265A-43A8-9DC1-BEF11E2EDF84}" type="CELLRANGE">
+                    <a:fld id="{B6BF3B83-B800-46EF-9EC4-B8F84B424C8B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2636,7 +2636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08E758B0-9E03-4964-A551-AE4085F70726}" type="CELLRANGE">
+                    <a:fld id="{498D33F3-F9E7-4E0A-A50C-308EEAB3D04F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2670,7 +2670,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5850F7DA-BF62-4400-9509-D060DB558532}" type="CELLRANGE">
+                    <a:fld id="{528C0D45-9942-4541-BD4F-A1DCAB5573BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2704,7 +2704,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C64B3C8-B222-488C-9294-60DB30EAABE6}" type="CELLRANGE">
+                    <a:fld id="{283CED1D-0DA9-4168-8823-3639A64D4F8C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2738,7 +2738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B9EF142-78F0-466E-8F8A-20235DBA5F19}" type="CELLRANGE">
+                    <a:fld id="{0B494362-8EBD-4690-BC78-42A2C72D1C63}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2772,7 +2772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B2980DE-84C5-4F88-B835-E04A6647DB5B}" type="CELLRANGE">
+                    <a:fld id="{7E8205CC-3DA1-4635-873B-B3227899D47C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2806,7 +2806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3FFB7D2D-7EAC-46D9-A2F9-1DFA49F2F8F7}" type="CELLRANGE">
+                    <a:fld id="{A48126FF-1096-4AA2-8838-8CF693359D50}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2840,7 +2840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02A80886-DE37-4A6F-A1D8-4250C4096C83}" type="CELLRANGE">
+                    <a:fld id="{83F7459A-607F-415C-8366-C05D7A35CAFA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2874,7 +2874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{457BD5C8-50F2-49B6-B3D7-81B1EF44F5DF}" type="CELLRANGE">
+                    <a:fld id="{B3C13F7E-393B-4ECC-860F-978A569541EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3091,22 +3091,22 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>13</c:v>
+                    <c:v>19</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14</c:v>
+                    <c:v>20</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>15</c:v>
+                    <c:v>21</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>16</c:v>
+                    <c:v>22</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>17</c:v>
+                    <c:v>23</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>18</c:v>
+                    <c:v>24</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>47</c:v>
@@ -4845,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413C7FC3-0C83-4C30-A1A0-0013B4B44AF7}">
   <dimension ref="A1:Z122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5815,7 +5815,7 @@
         <v>1.3596747752497687</v>
       </c>
       <c r="J23" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K23" s="5">
         <f t="shared" ref="K23:K42" si="8">($I3-L$2*$D$15)*COS($H3)</f>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="8"/>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J25" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="8"/>
@@ -5862,7 +5862,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J26" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="8"/>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J27" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="8"/>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J28" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="8"/>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="43" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J43" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" ref="K43:K62" si="10">($I3-M$2*$D$15)*COS($H3)</f>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="44" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J44" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" si="10"/>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="45" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J45" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="10"/>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="46" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J46" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="10"/>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="47" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J47" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="10"/>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="48" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J48" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="10"/>

--- a/CEE2333TermProject/excel_check.xlsx
+++ b/CEE2333TermProject/excel_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrs196_pitt_edu/Documents/7_SupSenior Fall/CEE 2333/Matlab/CEE2333HW6b/CEE2333TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48D94AA-0BE2-42B9-B34F-0A403DE4C086}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6791B799-72B0-4629-8E4D-1E8FAE3C34DF}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="3840" windowWidth="21600" windowHeight="11295" xr2:uid="{5E9F0EF5-0C21-4768-9B7E-F9FB9B3FDCA8}"/>
+    <workbookView xWindow="1620" yWindow="3735" windowWidth="21600" windowHeight="11295" xr2:uid="{5E9F0EF5-0C21-4768-9B7E-F9FB9B3FDCA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Inputs</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>p1</t>
+  </si>
+  <si>
+    <t>ang</t>
   </si>
 </sst>
 </file>
@@ -227,37 +230,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -298,7 +271,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCC4EE30-B424-4C1B-A849-C873D447C5EB}" type="CELLRANGE">
+                    <a:fld id="{D543E89A-1DA2-4B63-BC2D-11C92B812297}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -332,7 +305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89EE9562-3331-4C7A-8FB1-76AF2A49B967}" type="CELLRANGE">
+                    <a:fld id="{B7E7825A-A3DC-4BB1-9A11-8B594EB263F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -366,7 +339,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E2E81DC-D3BA-44A1-8597-8DC3D1A3018A}" type="CELLRANGE">
+                    <a:fld id="{68D6A479-90FE-42C6-9984-96D6A05EE396}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -400,7 +373,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08AD6F3D-EF16-414C-B23C-6909924CF664}" type="CELLRANGE">
+                    <a:fld id="{A65836AE-C62B-4E7C-94EF-125C6B26AA6C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -434,7 +407,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{554E75AB-C229-4CF2-B491-605990635145}" type="CELLRANGE">
+                    <a:fld id="{25EFDB13-677B-44A4-9821-1FE6A11EB907}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -468,7 +441,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1693AA7-D2F3-439D-8519-9F468D09EF3A}" type="CELLRANGE">
+                    <a:fld id="{1BE4237F-1975-4947-BE20-DD2DD494DC2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -502,7 +475,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{454D6A08-B84B-4753-9703-A6FEB5100574}" type="CELLRANGE">
+                    <a:fld id="{474F0DF5-0ED7-4B7B-9C35-E57D579E9E9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -536,7 +509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63BF51FA-AC70-458D-BFED-67C11B3AB935}" type="CELLRANGE">
+                    <a:fld id="{B09AA091-EB89-43A0-BF26-9B3E8A6DC50D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -570,7 +543,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA3096F0-9B9A-47DF-A56E-63C842856A4F}" type="CELLRANGE">
+                    <a:fld id="{F2839B03-7C8C-4675-AED2-E0B59A29380D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -604,7 +577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6311DDBF-5B2D-489C-BD89-D037EE4329D9}" type="CELLRANGE">
+                    <a:fld id="{AC040DE0-08C7-4351-92CD-FE209BBBAC7C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -638,7 +611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E437F30-1ABF-4ABA-9BA2-F01146AE6BD1}" type="CELLRANGE">
+                    <a:fld id="{11EEB343-F2C7-4EA5-B357-74F913CEAE14}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -672,7 +645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A65CF13-0829-4995-BA28-4A056CF50810}" type="CELLRANGE">
+                    <a:fld id="{F236215C-3A38-4DA7-9C2A-5A291522E3C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -706,7 +679,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB9B8DC5-4848-4043-9F11-23F578BED31C}" type="CELLRANGE">
+                    <a:fld id="{C6BF6A03-0052-4DBD-ACE6-98AA6DDACC6D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -740,7 +713,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1394C349-5D70-4837-AAF9-36B33201FB7D}" type="CELLRANGE">
+                    <a:fld id="{B4DABD6F-DD19-4D3E-8D37-D66E97233D35}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -774,7 +747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0ABD33C5-F298-4622-A01C-29F21F4DCD66}" type="CELLRANGE">
+                    <a:fld id="{DD60A6D8-F31A-4B03-958D-66BBABED2E45}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -808,7 +781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{745D3FB3-6501-4103-AE75-D2372BCA6599}" type="CELLRANGE">
+                    <a:fld id="{619F3EB5-E780-4A9D-B6AF-D28E7388A444}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -842,7 +815,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9204EC9-8BDD-4C13-A085-E265A02588F9}" type="CELLRANGE">
+                    <a:fld id="{9F6EEDED-FF58-4AA8-88B1-7BD80E2BD412}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -876,7 +849,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C036511C-485B-48D4-A27D-60F7F48F477C}" type="CELLRANGE">
+                    <a:fld id="{265C7E09-820C-4D5A-A885-25F61F323933}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -910,7 +883,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3689C60-12F0-4DC3-9208-1FE4F54D6F11}" type="CELLRANGE">
+                    <a:fld id="{D727ED0A-15C8-48D9-ABF0-1BA823AA3785}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -944,7 +917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBCA72B0-D2CA-4466-82C5-587BDFA5B4FE}" type="CELLRANGE">
+                    <a:fld id="{D0B70FDB-B04E-46ED-ADE9-7982EB90BE87}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1263,7 +1236,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B8104E8-F2BE-42E9-A065-CBC4EAA3CCFA}" type="CELLRANGE">
+                    <a:fld id="{43D0B2E9-FD48-497D-B6BE-78F9463F57CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1297,7 +1270,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5428182-C909-4B94-958C-6D0E97644C69}" type="CELLRANGE">
+                    <a:fld id="{1D0EE2AC-F5D8-4414-9B05-7B061EF9720D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1331,7 +1304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0289CC41-FDA8-4A89-93E6-CEFCED5CA6D7}" type="CELLRANGE">
+                    <a:fld id="{0B18374E-5A6E-45C8-8DAE-540AB544680D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1365,7 +1338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A07D42A3-B6FC-40CA-B5D3-FD17A4996FC5}" type="CELLRANGE">
+                    <a:fld id="{28DE5174-C93C-4854-B46F-BC3625E07CEF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1399,7 +1372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{642F2181-6B4A-4977-A30D-9E4884EA420A}" type="CELLRANGE">
+                    <a:fld id="{296EF791-8C6C-4708-B522-79183101D3DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1433,7 +1406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18A0BD47-8BE5-4A6B-AD04-54A6058836DE}" type="CELLRANGE">
+                    <a:fld id="{09AC7F01-C716-432B-ABE1-58C629D48679}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1467,7 +1440,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EA8A56C-1715-4252-9AC9-499CBAE7AE04}" type="CELLRANGE">
+                    <a:fld id="{BD511091-CCD3-41EB-9DCB-59D0DD7207BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1501,7 +1474,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA970CA5-4639-4847-B4D5-5E93F2BD0ED4}" type="CELLRANGE">
+                    <a:fld id="{DDB462E5-FD40-459E-B65B-D3D5B969F135}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1535,7 +1508,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD28DDE4-9207-4E87-9730-BBFED37FAC5B}" type="CELLRANGE">
+                    <a:fld id="{D762409A-259F-4572-8330-B1680F85CB25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1569,7 +1542,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0CF57E0-C4D0-4338-BB49-302D276C2F3E}" type="CELLRANGE">
+                    <a:fld id="{311D98FF-BBF2-48DC-B3D5-45108BA8CB1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1603,7 +1576,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC191502-8E5D-46F0-9704-C36B0F72DC51}" type="CELLRANGE">
+                    <a:fld id="{1F76ECAA-C656-47C2-921E-2E331EB0F087}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1637,7 +1610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F67C476-1359-4D31-95F1-D34291118E33}" type="CELLRANGE">
+                    <a:fld id="{3303A9A8-C88C-41D3-9838-B7BBE2D4C298}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1671,7 +1644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF073EC5-FA56-4E2C-9C9B-CD1E19F121AB}" type="CELLRANGE">
+                    <a:fld id="{44C5B818-C7D3-4901-B971-9A834C8A52D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1705,7 +1678,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D747770F-3BC3-494C-AD0B-A7FF6D731006}" type="CELLRANGE">
+                    <a:fld id="{AEDA166F-3667-4209-B3CF-BE2CCEDD36FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1739,7 +1712,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B7FC442-6D40-412D-8B64-F4530BA5C19F}" type="CELLRANGE">
+                    <a:fld id="{6580CD59-776E-4D38-B958-D38FD2D8E65E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1773,7 +1746,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D33990A2-50F6-4ECF-9371-25FEC5A3496F}" type="CELLRANGE">
+                    <a:fld id="{0D2E0032-4740-4B72-8B29-43DE96F2FA94}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1807,7 +1780,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24E71FFA-9429-40B3-A9E9-3EBB89A2A54A}" type="CELLRANGE">
+                    <a:fld id="{E47C1A0F-2EF5-4351-BE1D-6389D7453B6D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1841,7 +1814,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95CF0C4C-1405-43F9-AD4D-A02947237E33}" type="CELLRANGE">
+                    <a:fld id="{81980AA5-F207-487D-B713-9DDD746063D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1875,7 +1848,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{506203EC-ECFD-4AE7-A67A-574B1674D27C}" type="CELLRANGE">
+                    <a:fld id="{F57170E4-B0A0-4AEE-BC64-D5A77D221CE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1909,7 +1882,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56DA060E-E08C-428A-831B-CED5B6E3E3C4}" type="CELLRANGE">
+                    <a:fld id="{6E23F692-123E-4DAD-9335-64278D8FA823}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2228,7 +2201,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFDE324F-E879-4A11-870D-D1E274C67FC7}" type="CELLRANGE">
+                    <a:fld id="{4945CEF8-73ED-4074-A9A0-F47EDD789D57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2262,7 +2235,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5A726F1-2D97-4E24-A019-75D3B2E383D2}" type="CELLRANGE">
+                    <a:fld id="{08A56CBE-781A-4D55-9A26-FAFD176E2C16}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2296,7 +2269,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4672E453-486D-40BF-BF6F-9A274F73B396}" type="CELLRANGE">
+                    <a:fld id="{5DF4D2DE-86B1-4F23-888C-26A69E07EC24}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2330,7 +2303,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4230DB5A-14D4-4D91-9815-35D0128C2A73}" type="CELLRANGE">
+                    <a:fld id="{1E2E410A-7233-4D3C-B799-00546FF3F90C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2364,7 +2337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98644732-65B9-4A54-B57F-57DD532017D5}" type="CELLRANGE">
+                    <a:fld id="{1154BD36-5700-496F-A05E-33C39209377B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2398,7 +2371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{736EDD45-3D00-4FB5-B7D4-5D77869CCC20}" type="CELLRANGE">
+                    <a:fld id="{922C77CA-E664-4823-A82B-A269BF576659}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2432,7 +2405,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FC202BA-9B89-4B9C-87A7-5CDD415E4F1D}" type="CELLRANGE">
+                    <a:fld id="{C276BF6B-6BB7-4F24-B91D-62BD85E1AD91}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2466,7 +2439,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C93B1865-3680-4278-A804-15D1E5A71BB9}" type="CELLRANGE">
+                    <a:fld id="{57B18C96-E434-4610-98A3-153E0A36670D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2500,7 +2473,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBA68F9A-688C-46ED-AF54-792D520E1BB6}" type="CELLRANGE">
+                    <a:fld id="{5C652387-C3C6-4AE6-A2C4-93A9EA606D10}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2534,7 +2507,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E9E4A20-5763-4E1C-B505-066CE5A41E57}" type="CELLRANGE">
+                    <a:fld id="{560FD7B3-1E3C-4046-86A2-6DD5EA82D11E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2568,7 +2541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2560AF6-0921-47EB-989D-4506C1870952}" type="CELLRANGE">
+                    <a:fld id="{EE8D8EFA-8275-4953-AB0D-0868FB039FD1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2602,7 +2575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6BF3B83-B800-46EF-9EC4-B8F84B424C8B}" type="CELLRANGE">
+                    <a:fld id="{28830914-4115-48FF-AA05-FA05403814F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2636,7 +2609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{498D33F3-F9E7-4E0A-A50C-308EEAB3D04F}" type="CELLRANGE">
+                    <a:fld id="{EAC926F5-CA3C-4F97-966C-5D4C20AB104E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2670,7 +2643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{528C0D45-9942-4541-BD4F-A1DCAB5573BF}" type="CELLRANGE">
+                    <a:fld id="{FAA73931-8901-4217-B88F-7D682AA86790}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2704,7 +2677,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{283CED1D-0DA9-4168-8823-3639A64D4F8C}" type="CELLRANGE">
+                    <a:fld id="{CDD21F53-401C-4EA5-9866-918858232A1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2738,7 +2711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B494362-8EBD-4690-BC78-42A2C72D1C63}" type="CELLRANGE">
+                    <a:fld id="{E7727506-35B3-435A-BD43-6DEF4D7F357B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2772,7 +2745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E8205CC-3DA1-4635-873B-B3227899D47C}" type="CELLRANGE">
+                    <a:fld id="{005482F5-9789-45B1-87CE-A783F4EC5715}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2806,7 +2779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A48126FF-1096-4AA2-8838-8CF693359D50}" type="CELLRANGE">
+                    <a:fld id="{8B948C46-E294-4C17-8912-7656BF4FBC57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2840,7 +2813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83F7459A-607F-415C-8366-C05D7A35CAFA}" type="CELLRANGE">
+                    <a:fld id="{37D526C8-317E-4B6D-B074-8859039720BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2874,7 +2847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3C13F7E-393B-4ECC-860F-978A569541EC}" type="CELLRANGE">
+                    <a:fld id="{6B7B508A-9AC4-4F7A-8C4D-211E2841DE50}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3762,6 +3735,146 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$56:$P$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.296100594190539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.296100594190539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$56:$Q$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.54327719506772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.54327719506772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC74-475B-8CB7-9BD4253DA89D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$59:$P$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-2.2961005941905386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2961005941905386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$59:$Q$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.54327719506772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.54327719506772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC74-475B-8CB7-9BD4253DA89D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3839,6 +3952,8 @@
         <c:axId val="734855200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="-6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4510,15 +4625,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>410415</xdr:colOff>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>65554</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>127467</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>70037</xdr:rowOff>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4845,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413C7FC3-0C83-4C30-A1A0-0013B4B44AF7}">
   <dimension ref="A1:Z122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L8"/>
+    <sheetView tabSelected="1" topLeftCell="K33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6159,7 +6274,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J49" s="1">
         <v>47</v>
       </c>
@@ -6172,7 +6287,7 @@
         <v>3.6140147619215837</v>
       </c>
     </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J50" s="1">
         <v>48</v>
       </c>
@@ -6185,7 +6300,7 @@
         <v>3.0742645786248</v>
       </c>
     </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J51" s="1">
         <v>49</v>
       </c>
@@ -6198,7 +6313,7 @@
         <v>2.2335839587113981</v>
       </c>
     </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J52" s="1">
         <v>50</v>
       </c>
@@ -6211,7 +6326,7 @@
         <v>1.1742645786248005</v>
       </c>
     </row>
-    <row r="53" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J53" s="1">
         <v>51</v>
       </c>
@@ -6224,7 +6339,7 @@
         <v>4.655564128652756E-16</v>
       </c>
     </row>
-    <row r="54" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J54" s="1">
         <v>52</v>
       </c>
@@ -6236,8 +6351,22 @@
         <f t="shared" si="11"/>
         <v>-1.1742645786247996</v>
       </c>
-    </row>
-    <row r="55" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="N54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" s="1">
+        <v>45</v>
+      </c>
+      <c r="P54" s="1">
+        <f>PI()/2 - RADIANS(O54)/2</f>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="Q54" s="1">
+        <f>PI()/2 + RADIANS(O54)/2</f>
+        <v>1.9634954084936207</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J55" s="1">
         <v>53</v>
       </c>
@@ -6250,7 +6379,7 @@
         <v>-2.2335839587113973</v>
       </c>
     </row>
-    <row r="56" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J56" s="1">
         <v>54</v>
       </c>
@@ -6262,8 +6391,19 @@
         <f t="shared" si="11"/>
         <v>-3.0742645786248</v>
       </c>
-    </row>
-    <row r="57" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="O56" s="1">
+        <v>6</v>
+      </c>
+      <c r="P56" s="1">
+        <f>O56*COS($P$54)</f>
+        <v>2.296100594190539</v>
+      </c>
+      <c r="Q56" s="1">
+        <f>O56*SIN($P$54)</f>
+        <v>5.54327719506772</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J57" s="1">
         <v>55</v>
       </c>
@@ -6275,8 +6415,19 @@
         <f t="shared" si="11"/>
         <v>-3.6140147619215832</v>
       </c>
-    </row>
-    <row r="58" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="O57" s="1">
+        <v>-6</v>
+      </c>
+      <c r="P57" s="1">
+        <f>O57*COS($P$54)</f>
+        <v>-2.296100594190539</v>
+      </c>
+      <c r="Q57" s="1">
+        <f>O57*SIN($P$54)</f>
+        <v>-5.54327719506772</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J58" s="1">
         <v>56</v>
       </c>
@@ -6289,7 +6440,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="59" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J59" s="1">
         <v>57</v>
       </c>
@@ -6301,8 +6452,19 @@
         <f t="shared" si="11"/>
         <v>-3.6140147619215837</v>
       </c>
-    </row>
-    <row r="60" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="O59" s="1">
+        <v>6</v>
+      </c>
+      <c r="P59" s="1">
+        <f>O59*COS($Q$54)</f>
+        <v>-2.2961005941905386</v>
+      </c>
+      <c r="Q59" s="1">
+        <f>O59*SIN($Q$54)</f>
+        <v>5.54327719506772</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J60" s="1">
         <v>58</v>
       </c>
@@ -6314,8 +6476,19 @@
         <f t="shared" si="11"/>
         <v>-3.0742645786248004</v>
       </c>
-    </row>
-    <row r="61" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="O60" s="1">
+        <v>-6</v>
+      </c>
+      <c r="P60" s="1">
+        <f>O60*COS($Q$54)</f>
+        <v>2.2961005941905386</v>
+      </c>
+      <c r="Q60" s="1">
+        <f>O60*SIN($Q$54)</f>
+        <v>-5.54327719506772</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J61" s="1">
         <v>59</v>
       </c>
@@ -6328,7 +6501,7 @@
         <v>-2.2335839587113986</v>
       </c>
     </row>
-    <row r="62" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J62" s="1">
         <v>60</v>
       </c>
@@ -6341,7 +6514,7 @@
         <v>-1.1742645786248009</v>
       </c>
     </row>
-    <row r="63" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J63" s="1">
         <v>61</v>
       </c>
@@ -6354,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J64" s="1">
         <v>62</v>
       </c>

--- a/CEE2333TermProject/excel_check.xlsx
+++ b/CEE2333TermProject/excel_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrs196_pitt_edu/Documents/7_SupSenior Fall/CEE 2333/Matlab/CEE2333HW6b/CEE2333TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6791B799-72B0-4629-8E4D-1E8FAE3C34DF}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{327AEF34-D5B8-41DB-B9DF-967CAB052244}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="3735" windowWidth="21600" windowHeight="11295" xr2:uid="{5E9F0EF5-0C21-4768-9B7E-F9FB9B3FDCA8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Inputs</t>
   </si>
@@ -149,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,11 +172,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,6 +215,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -271,7 +298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D543E89A-1DA2-4B63-BC2D-11C92B812297}" type="CELLRANGE">
+                    <a:fld id="{11B95692-EFA1-42EA-A348-72A042100E58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -305,7 +332,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7E7825A-A3DC-4BB1-9A11-8B594EB263F3}" type="CELLRANGE">
+                    <a:fld id="{BC909FB5-AFE7-4BEB-87BE-CD0B693F2D26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -339,7 +366,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68D6A479-90FE-42C6-9984-96D6A05EE396}" type="CELLRANGE">
+                    <a:fld id="{592A5FE2-A5F2-4244-805D-61F028080E8C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -373,7 +400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A65836AE-C62B-4E7C-94EF-125C6B26AA6C}" type="CELLRANGE">
+                    <a:fld id="{61B6963B-8FB3-4BAE-A40F-82C17D8E75B4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -407,7 +434,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25EFDB13-677B-44A4-9821-1FE6A11EB907}" type="CELLRANGE">
+                    <a:fld id="{C9A59A58-1E90-43B0-A454-50A6CCC46916}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -441,7 +468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BE4237F-1975-4947-BE20-DD2DD494DC2B}" type="CELLRANGE">
+                    <a:fld id="{B1BF3901-3413-477E-BBF4-54758267BBF1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -475,7 +502,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{474F0DF5-0ED7-4B7B-9C35-E57D579E9E9F}" type="CELLRANGE">
+                    <a:fld id="{1FB60F4F-C3C9-4A54-A885-7A92184F927C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -509,7 +536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B09AA091-EB89-43A0-BF26-9B3E8A6DC50D}" type="CELLRANGE">
+                    <a:fld id="{D6422B5D-5D34-4BA8-9CFE-CE63838462DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -543,7 +570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2839B03-7C8C-4675-AED2-E0B59A29380D}" type="CELLRANGE">
+                    <a:fld id="{F037E25A-8AD9-4405-9E12-91716F09EFB3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -577,7 +604,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC040DE0-08C7-4351-92CD-FE209BBBAC7C}" type="CELLRANGE">
+                    <a:fld id="{C265BB16-D3BC-4B47-B9CC-DE0EF816CC43}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -611,7 +638,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11EEB343-F2C7-4EA5-B357-74F913CEAE14}" type="CELLRANGE">
+                    <a:fld id="{A026658E-63B7-42CA-B227-6807B0838563}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -645,7 +672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F236215C-3A38-4DA7-9C2A-5A291522E3C5}" type="CELLRANGE">
+                    <a:fld id="{E362FEB8-2AFA-4468-A401-4A26276685F1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -679,7 +706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6BF6A03-0052-4DBD-ACE6-98AA6DDACC6D}" type="CELLRANGE">
+                    <a:fld id="{9A5B3066-D296-4CF8-8906-EE1FBC1A0D96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -713,7 +740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4DABD6F-DD19-4D3E-8D37-D66E97233D35}" type="CELLRANGE">
+                    <a:fld id="{EB6A9625-FE75-4D2E-8907-4C2AEB495FE5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -747,7 +774,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD60A6D8-F31A-4B03-958D-66BBABED2E45}" type="CELLRANGE">
+                    <a:fld id="{7C54B3B9-27FA-4492-8DE9-F2F0B9A441B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -781,7 +808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{619F3EB5-E780-4A9D-B6AF-D28E7388A444}" type="CELLRANGE">
+                    <a:fld id="{9DF27E76-113F-45B7-8818-08164A3F632E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -815,7 +842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F6EEDED-FF58-4AA8-88B1-7BD80E2BD412}" type="CELLRANGE">
+                    <a:fld id="{A7B85C36-7AA7-4341-831C-E89262707E82}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -849,7 +876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{265C7E09-820C-4D5A-A885-25F61F323933}" type="CELLRANGE">
+                    <a:fld id="{1F488D86-D09D-4B88-8618-C94ED4C6E1B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -883,7 +910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D727ED0A-15C8-48D9-ABF0-1BA823AA3785}" type="CELLRANGE">
+                    <a:fld id="{12FD8B37-1DBE-4ECD-8278-362F9B81E63A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -917,7 +944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0B70FDB-B04E-46ED-ADE9-7982EB90BE87}" type="CELLRANGE">
+                    <a:fld id="{D47213B7-2A21-4F61-96B4-1934FE0C61CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1236,7 +1263,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43D0B2E9-FD48-497D-B6BE-78F9463F57CC}" type="CELLRANGE">
+                    <a:fld id="{708218B2-130C-455C-BF18-0B3157EC7C17}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1270,7 +1297,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D0EE2AC-F5D8-4414-9B05-7B061EF9720D}" type="CELLRANGE">
+                    <a:fld id="{7E34D0F7-BA2F-4CEC-B3F3-FD33A25EAE84}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1304,7 +1331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B18374E-5A6E-45C8-8DAE-540AB544680D}" type="CELLRANGE">
+                    <a:fld id="{B4D6CBFF-7352-4268-9F1B-CEBD3AD43E0A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1338,7 +1365,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28DE5174-C93C-4854-B46F-BC3625E07CEF}" type="CELLRANGE">
+                    <a:fld id="{D3521059-EBD3-4093-8180-37115950878E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1372,7 +1399,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{296EF791-8C6C-4708-B522-79183101D3DF}" type="CELLRANGE">
+                    <a:fld id="{60716EE7-0C16-4BCB-91B7-5AC1211C6A37}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1406,7 +1433,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09AC7F01-C716-432B-ABE1-58C629D48679}" type="CELLRANGE">
+                    <a:fld id="{0FE5F073-F14C-4A69-8CD9-4E854FE1CBD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1440,7 +1467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD511091-CCD3-41EB-9DCB-59D0DD7207BA}" type="CELLRANGE">
+                    <a:fld id="{90626437-607C-463F-9139-ABA495DC95B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1474,7 +1501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDB462E5-FD40-459E-B65B-D3D5B969F135}" type="CELLRANGE">
+                    <a:fld id="{E40933DA-09BC-4E3B-A491-35E36019C7F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1508,7 +1535,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D762409A-259F-4572-8330-B1680F85CB25}" type="CELLRANGE">
+                    <a:fld id="{54E5A7A1-E36F-4AD3-9142-A4E65BB05981}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1542,7 +1569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{311D98FF-BBF2-48DC-B3D5-45108BA8CB1A}" type="CELLRANGE">
+                    <a:fld id="{ADB5046A-7BEA-41ED-8E99-344EDD9CC502}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1576,7 +1603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F76ECAA-C656-47C2-921E-2E331EB0F087}" type="CELLRANGE">
+                    <a:fld id="{014848EE-EC4C-4BEB-B297-1E0BB4638958}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1610,7 +1637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3303A9A8-C88C-41D3-9838-B7BBE2D4C298}" type="CELLRANGE">
+                    <a:fld id="{476E8205-4F36-4045-B90A-D6DCC0BCBED7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1644,7 +1671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44C5B818-C7D3-4901-B971-9A834C8A52D0}" type="CELLRANGE">
+                    <a:fld id="{C525E331-5833-4857-9989-CED8D73E2113}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1678,7 +1705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEDA166F-3667-4209-B3CF-BE2CCEDD36FB}" type="CELLRANGE">
+                    <a:fld id="{B101B933-A1FD-41FE-A68C-C936AD1E7E56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1712,7 +1739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6580CD59-776E-4D38-B958-D38FD2D8E65E}" type="CELLRANGE">
+                    <a:fld id="{98159BDE-66BE-42A8-B78D-E3C348DC320D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1746,7 +1773,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D2E0032-4740-4B72-8B29-43DE96F2FA94}" type="CELLRANGE">
+                    <a:fld id="{47A6C280-20F0-4909-A3A0-586F8C74E9F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1780,7 +1807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E47C1A0F-2EF5-4351-BE1D-6389D7453B6D}" type="CELLRANGE">
+                    <a:fld id="{974A1F0D-E628-47A3-81F8-ACF454E172CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1814,7 +1841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81980AA5-F207-487D-B713-9DDD746063D5}" type="CELLRANGE">
+                    <a:fld id="{367393DD-69F3-42F6-B902-D35FBA358106}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1848,7 +1875,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F57170E4-B0A0-4AEE-BC64-D5A77D221CE9}" type="CELLRANGE">
+                    <a:fld id="{76E49888-B1E2-45CE-9D31-F94B3AE3E708}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1882,7 +1909,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E23F692-123E-4DAD-9335-64278D8FA823}" type="CELLRANGE">
+                    <a:fld id="{06F1A0F0-DCC2-4AAF-A7F7-54B871F52E10}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2099,22 +2126,22 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>13</c:v>
+                    <c:v>21</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14</c:v>
+                    <c:v>22</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>15</c:v>
+                    <c:v>23</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>16</c:v>
+                    <c:v>24</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>17</c:v>
+                    <c:v>25</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>18</c:v>
+                    <c:v>26</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>27</c:v>
@@ -2201,7 +2228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4945CEF8-73ED-4074-A9A0-F47EDD789D57}" type="CELLRANGE">
+                    <a:fld id="{586567DE-76C9-4CDB-AE5D-BEF83C227B52}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2235,7 +2262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08A56CBE-781A-4D55-9A26-FAFD176E2C16}" type="CELLRANGE">
+                    <a:fld id="{CF5D4873-F5EF-48D2-89AD-F306EF5D082F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2269,7 +2296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DF4D2DE-86B1-4F23-888C-26A69E07EC24}" type="CELLRANGE">
+                    <a:fld id="{7D405E86-749D-4004-B866-05B11BE8C456}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2303,7 +2330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E2E410A-7233-4D3C-B799-00546FF3F90C}" type="CELLRANGE">
+                    <a:fld id="{53F91F66-D94B-4D18-9BBD-CB5710888389}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2337,7 +2364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1154BD36-5700-496F-A05E-33C39209377B}" type="CELLRANGE">
+                    <a:fld id="{C734115C-9F36-41F3-A8AD-4FF1AB6051B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2371,7 +2398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{922C77CA-E664-4823-A82B-A269BF576659}" type="CELLRANGE">
+                    <a:fld id="{AB0182EC-663C-4DB9-91A9-6A623CF9C3F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2405,7 +2432,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C276BF6B-6BB7-4F24-B91D-62BD85E1AD91}" type="CELLRANGE">
+                    <a:fld id="{E04689DC-6DE5-4C3A-B286-EEFACD534F92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2439,7 +2466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57B18C96-E434-4610-98A3-153E0A36670D}" type="CELLRANGE">
+                    <a:fld id="{E29B6484-1537-4DB8-B12B-1D12C01E1483}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2473,7 +2500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C652387-C3C6-4AE6-A2C4-93A9EA606D10}" type="CELLRANGE">
+                    <a:fld id="{2655C0D3-F8D3-4F1D-8FED-A59E13E94EA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2507,7 +2534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{560FD7B3-1E3C-4046-86A2-6DD5EA82D11E}" type="CELLRANGE">
+                    <a:fld id="{2D03EDEF-0054-4DDD-9761-6A5A5A3562C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2541,7 +2568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE8D8EFA-8275-4953-AB0D-0868FB039FD1}" type="CELLRANGE">
+                    <a:fld id="{574C5034-1DAF-444F-B5C5-9D9831683008}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2575,7 +2602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28830914-4115-48FF-AA05-FA05403814F0}" type="CELLRANGE">
+                    <a:fld id="{500EA3E1-0761-4ADF-B6A5-D9AEE93DC982}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2609,7 +2636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAC926F5-CA3C-4F97-966C-5D4C20AB104E}" type="CELLRANGE">
+                    <a:fld id="{88A45794-19E2-430A-AE28-D3109EC90DEA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2643,7 +2670,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FAA73931-8901-4217-B88F-7D682AA86790}" type="CELLRANGE">
+                    <a:fld id="{4D618315-7CDA-4B4B-A0C9-54E65E8CEA49}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2677,7 +2704,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDD21F53-401C-4EA5-9866-918858232A1D}" type="CELLRANGE">
+                    <a:fld id="{8E82335F-B8AA-4FED-9B7A-B79572356AB8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2711,7 +2738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7727506-35B3-435A-BD43-6DEF4D7F357B}" type="CELLRANGE">
+                    <a:fld id="{4F3D3A0A-9C6D-467C-B0DF-1D218016725A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2745,7 +2772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{005482F5-9789-45B1-87CE-A783F4EC5715}" type="CELLRANGE">
+                    <a:fld id="{4800143A-EF45-40C2-8D17-BD44ECA6197B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2779,7 +2806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B948C46-E294-4C17-8912-7656BF4FBC57}" type="CELLRANGE">
+                    <a:fld id="{E4CD2E9F-16C7-43D0-BCE9-A05FC6C9CFB2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2813,7 +2840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37D526C8-317E-4B6D-B074-8859039720BA}" type="CELLRANGE">
+                    <a:fld id="{4ABB8C9A-3937-408E-A6F1-93FB96B4A4D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2847,7 +2874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B7B508A-9AC4-4F7A-8C4D-211E2841DE50}" type="CELLRANGE">
+                    <a:fld id="{FB34D106-0707-4A4C-BD29-CEAB80A48D11}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3064,22 +3091,22 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>19</c:v>
+                    <c:v>41</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>20</c:v>
+                    <c:v>42</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>21</c:v>
+                    <c:v>43</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>22</c:v>
+                    <c:v>44</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>23</c:v>
+                    <c:v>45</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>24</c:v>
+                    <c:v>46</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>47</c:v>
@@ -3158,6 +3185,731 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{83A5AD27-EF4E-4FC7-9B0E-9E98C4AA62A3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7973BCAE-6369-45AF-937F-C38CF9E1BF2C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{229F8EBE-44B6-4A99-BCEE-B39BC2C62D9C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{622EAEA2-3C78-4955-A182-69C229D835C7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B42E19E0-1912-48E4-B70D-916C80D2894E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EA17807E-9EE5-4529-A2A7-0CFB0F5D91CE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{126BC687-BD9C-4F89-80E9-7E291C4C68FB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9ACFC9EA-95B9-4F60-8E52-7BA30C469B06}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{12F5B6E8-CEC7-4DED-A8A0-03876258FB95}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7A2E41BC-21B8-4E0A-9E44-5CC1AFD3CBCF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EDF64660-A6EC-4BFF-A946-1A622A37596D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E3A9B0B9-A4AE-4790-B354-F49705349D7F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AD3EE6B6-AF91-45C5-9748-55F1188D40F0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7E72BAB7-DDCE-491F-9BC7-726B413E9CFD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D647528C-9565-4928-86D7-85607C466F3E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BA0F7458-FEA5-4280-9305-2991A9323B13}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E191C1F0-F25B-40AA-B556-5A6B50999D55}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E33C77FE-D96A-454D-B44D-A32A83C1F913}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CE7984AB-9F8F-421E-9576-289071D3F837}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{19D0B603-8629-445B-82A4-F80E26B88E20}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$K$63:$K$82</c:f>
@@ -3298,6 +4050,74 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$J$63:$J$82</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>61</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>62</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>65</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>67</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>68</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>70</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>71</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>72</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>73</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>74</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>75</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>78</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>79</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>80</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D009-4D2B-953D-345269A734C9}"/>
             </c:ext>
@@ -3330,6 +4150,731 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{09118DD5-A958-4A03-A916-0399892CB74A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1AFAF811-5A9A-40B8-822D-0E02EEE7B91E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C097AF36-1BF5-475F-B5AC-859E31E4F259}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CF5D696C-02FD-4F1E-8DC8-136997DFF544}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9E15CCAD-0CDB-4307-91BA-49E14419DC77}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2114FDA4-F0AB-4F45-9832-5C3DFEB2E342}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{90D3940E-6B48-4D1E-8BC1-9225A0E7EDDD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B9D357B5-C224-4227-857B-68D70AC48A90}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{01BFF4C5-56EA-4BFE-A7C0-6F5529C9D482}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F9E841E4-0EE9-4B96-82F7-6A267D6B3345}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BD6B5D2C-8EC5-4478-B28C-C9EFB3593083}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E694C4B0-CAB2-4429-9489-5C72E82A462A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1730E873-75B1-4FA5-BBB4-12BCDFE48472}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{463941F9-FA61-44E8-A51A-2E41812CC77A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{686C080A-3C58-4A44-AA06-29B67AE1E0C3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{78249B98-08B1-4FE2-8438-40B68A60B08B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E6BB88BC-D3F6-40A3-A1C9-7133AAF4C69C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{04EC3DE8-4770-4FD6-97DA-EF4032237CC5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1A24BC26-8E10-4F43-B062-F582900B846C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8F01B857-F959-45B5-BEF8-640FE5EACD6C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$K$83:$K$102</c:f>
@@ -3470,6 +5015,74 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$J$83:$J$102</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>82</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>83</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>85</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>86</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>95</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D009-4D2B-953D-345269A734C9}"/>
             </c:ext>
@@ -3502,6 +5115,731 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F27503E7-5452-49A8-8FBD-3DEC886887E7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{50BA68F0-BF7E-4BA2-A849-C47521BE927D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1A78FB43-96A0-4EA2-AF5F-8F7DCBAB8498}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{92D97CCB-D345-42BE-85BE-156E02C9411D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{416537D4-14F0-470D-8C6E-2CDFF81DC9C4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CD76BC27-D3C0-4AFD-8534-55EE52631462}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FB2AA2FB-0993-4E43-A35A-11AE9F606232}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D1AE964D-310F-4AA2-A4C3-676599C72B6D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{005329BF-7E88-44AA-94CB-B99F82CB8A35}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{49BDDF36-78BB-4EA4-B512-051FFB216899}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000033-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6FD0B3AE-F431-42DE-9E4F-D1BD8C188F6D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E57A974B-BB4D-4AD4-AC51-720B2EF9CA5D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BD5A8F5A-7000-462F-9DD9-A0F283690AC6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A5507B7E-379C-4A7C-A1FC-1BA895649434}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000037-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5CDF50C8-2A15-42EC-B94B-88A4262688EE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B3386088-BCF7-4692-ACA4-4D19C1DFA997}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F12913E5-F0A6-4785-817F-771BDFBDD53A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2778B3DE-71B8-4024-9EFD-4888925877FC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B58BA1FD-9431-4653-A96E-B91519D486D4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C09BD435-C88E-43FC-9C48-AC657C313E74}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-D555-4534-A8C1-8F8EE1A04563}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$K$103:$K$122</c:f>
@@ -3642,6 +5980,74 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$J$103:$J$122</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>105</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>108</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>110</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>112</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>118</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>119</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>120</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D009-4D2B-953D-345269A734C9}"/>
             </c:ext>
@@ -4064,7 +6470,2705 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2D059921-8334-4B16-99D8-33B86420A5BB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FF777D47-C7B5-4E1E-A721-39361537B8E6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{704F82FF-D2F0-4007-AB6E-0A421FEE9F1F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DF29A69B-D45E-4648-8CDB-AF780F4D3FE3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{52741D33-243B-4311-B94C-BFCFF7B450F8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BCC20F78-06C7-45EE-91E5-7BBE1A1C8C2B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$3:$AC$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7552825814757673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0450849718747373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9389262614623659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5450849718747373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.06287113727155E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$3:$AD$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.545084971874737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9389262614623659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0450849718747373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7552825814757673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$J$3:$J$22</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BC866C99-6796-4FE0-9862-3F5B8955A7C9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E1F30A9F-B773-4E7A-BE92-2472DF336D20}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{65E8275A-7DA1-4854-A16A-53C4B2EF4650}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C51BD76D-9178-4882-A3FE-B53671F1D866}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0C02504B-7672-466E-910E-B8DFC1CC1B92}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E0C77BA3-F500-47AA-8530-9A911893D8BF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$9:$AC$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1846486716986755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5596747752497691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5862551100868818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3596747752497689</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.695326600798964E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$9:$AD$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3596747752497687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5862551100868818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5596747752497691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1846486716986755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$AB$9:$AB$14</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9298AFF7-3A58-4729-8F40-3E31FA92AC94}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6D9FD413-DA66-4E46-AFEC-AE8923D30338}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A917F6F6-4F8C-4C0A-AC87-ABA70F24B595}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0A7DAC6B-003B-4803-BDC0-3EE0F6A1C451}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8290D72D-A14B-4ACE-9F36-8980A8F845EF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{735BDC01-2D07-48E0-BCC4-D6850DC5EDCC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$15:$AC$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6140147619215832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0742645786248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2335839587113977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1742645786248003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.327782064326378E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$15:$AD$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1742645786248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2335839587113977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0742645786248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6140147619215832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$AB$15:$AB$20</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>18</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003E-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1AFFBC28-37E9-4757-9905-697DDBCBEDC2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003F-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F9D10070-C752-4267-A9BF-C8230E495ADA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000040-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0469DD3C-5240-4237-9C89-9FC82615BC9E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000041-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{71D31B45-33C6-4C17-9428-39EA976B9CF6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000042-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6CB6359B-D54B-4E7C-99F0-D2FC94EF5F91}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000043-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{29D9D701-3E8E-4BC5-B203-4C45BD7BDDC0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000044-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$21:$AC$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0433808521444914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5888543819998322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.880912807335914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98885438199983189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.960237527853792E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$21:$AD$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98885438199983167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.880912807335914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5888543819998322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0433808521444914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$AB$21:$AB$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>24</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000053-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DE63A46F-77C8-4A8E-8221-74815CF76795}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000054-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EAEDD1B8-A2F1-4DB5-B4D5-DB16416BD061}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000055-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9EFD5085-20DF-4D28-A7E0-7C6DAE3A1E2E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000056-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D50257C5-8C76-488D-B8B2-C06C936DABD9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000057-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ECE578E9-328C-4E70-B479-CA36ADD727A3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000058-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BC08A291-ED1C-488D-8FFF-E78D786945BF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000059-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$27:$AC$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4727469423673991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1034441853748636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5282416559604302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8034441853748634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.592692991381206E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$27:$AD$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80344418537486328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5282416559604302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1034441853748636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4727469423673991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$AB$27:$AB$32</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>30</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000068-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{07A7E84C-AA88-4F89-99DD-8ED9E67FC7F6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000069-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F8C70894-DFEB-4A96-9DD8-73B50F16483D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000006A-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{83B96F06-1248-4484-80AE-7673100209F9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000006B-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{06E702B5-7DAD-48EB-A4D4-E53755FD1F04}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000006C-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BF9282E1-1A07-411D-A5EB-0113EF8C144A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000006D-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8291C4D6-BF96-4730-874A-C4D76515DC0F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000006E-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$33:$AC$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9021130325903071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6180339887498949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1755705045849463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6180339887498949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.22514845490862E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$33:$AD$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61803398874989479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1755705045849463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6180339887498949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9021130325903071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$AB$33:$AB$38</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>36</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007D-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7552825814757673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1846486716986755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.545084971874737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3596747752497687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007E-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$56:$P$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.296100594190539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.296100594190539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$56:$Q$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.54327719506772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.54327719506772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007F-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$59:$P$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-2.2961005941905386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2961005941905386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$59:$Q$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.54327719506772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.54327719506772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000080-5EF3-400C-A4D0-0E9DF2A5F905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="734858112"/>
+        <c:axId val="734855200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="734858112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734855200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="734855200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="-6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734858112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4620,6 +9724,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4627,13 +10247,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>202746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4653,6 +10273,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>258535</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>80283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D6A3A0-6AE1-4CB2-980B-585AA7283555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4958,10 +10616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413C7FC3-0C83-4C30-A1A0-0013B4B44AF7}">
-  <dimension ref="A1:Z122"/>
+  <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" topLeftCell="AB7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,7 +10628,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5019,8 +10677,14 @@
       <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="K2" s="1">
         <v>0</v>
       </c>
@@ -5057,8 +10721,14 @@
       <c r="Z2" s="1">
         <v>5</v>
       </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5091,8 +10761,20 @@
       <c r="T3" s="1">
         <v>5</v>
       </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>K3</f>
+        <v>5</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD8" si="2">($T3-AC$2*$D$15)*SIN($S3)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="8"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5103,7 +10785,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G22" si="2">G3+1</f>
+        <f t="shared" ref="G4:G22" si="3">G3+1</f>
         <v>2</v>
       </c>
       <c r="H4" s="1">
@@ -5111,7 +10793,7 @@
         <v>0.31415926535897931</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I22" si="3">IF(H4="","",I3)</f>
+        <f t="shared" ref="I4:I22" si="4">IF(H4="","",I3)</f>
         <v>5</v>
       </c>
       <c r="J4" s="1">
@@ -5126,7 +10808,7 @@
         <v>1.545084971874737</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ref="R4:R22" si="4">R3+1</f>
+        <f t="shared" ref="R4:R22" si="5">R3+1</f>
         <v>2</v>
       </c>
       <c r="S4" s="1">
@@ -5134,11 +10816,23 @@
         <v>0.31415926535897931</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" ref="T4:T22" si="5">IF(S4="","",T3)</f>
+        <f t="shared" ref="T4:T22" si="6">IF(S4="","",T3)</f>
         <v>5</v>
       </c>
+      <c r="AB4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ref="AC4:AC8" si="7">K4</f>
+        <v>4.7552825814757673</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="2"/>
+        <v>1.545084971874737</v>
+      </c>
+      <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5149,15 +10843,15 @@
         <v>2</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H22" si="6">IFERROR(IF(H4+$D$12&gt;2*PI()-$D$12,"",H4+$D$12),"")</f>
+        <f t="shared" ref="H5:H22" si="8">IFERROR(IF(H4+$D$12&gt;2*PI()-$D$12,"",H4+$D$12),"")</f>
         <v>0.62831853071795862</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J5" s="1">
@@ -5172,19 +10866,31 @@
         <v>2.9389262614623659</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" ref="S5:S22" si="7">IFERROR(IF(S4+$D$12&gt;2*PI()-$D$12,"",S4+$D$12),"")</f>
+        <f t="shared" ref="S5:S22" si="9">IFERROR(IF(S4+$D$12&gt;2*PI()-$D$12,"",S4+$D$12),"")</f>
         <v>0.62831853071795862</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AB5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" si="7"/>
+        <v>4.0450849718747373</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9389262614623659</v>
+      </c>
+      <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -5195,15 +10901,15 @@
         <v>20</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.94247779607693793</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J6" s="1">
@@ -5218,29 +10924,41 @@
         <v>4.0450849718747373</v>
       </c>
       <c r="R6" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" si="7"/>
+        <v>2.9389262614623659</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.0450849718747373</v>
+      </c>
+      <c r="AE6" s="9"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="7"/>
-        <v>0.94247779607693793</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G7" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="6"/>
-        <v>1.2566370614359172</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J7" s="1">
@@ -5255,32 +10973,44 @@
         <v>4.7552825814757673</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="7"/>
-        <v>1.2566370614359172</v>
-      </c>
-      <c r="T7" s="1">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" si="7"/>
+        <v>1.5450849718747373</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7552825814757673</v>
+      </c>
+      <c r="AE7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J8" s="1">
@@ -5295,19 +11025,31 @@
         <v>5</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="4">
         <f t="shared" si="7"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="5"/>
+        <v>3.06287113727155E-16</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="AE8" s="10"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5321,15 +11063,15 @@
         <v>5</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8849555921538759</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J9" s="1">
@@ -5344,19 +11086,31 @@
         <v>4.7552825814757682</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.8849555921538759</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AB9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="1">
+        <f>K23</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD9" s="1">
+        <f>L23</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="8"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -5370,15 +11124,15 @@
         <v>20</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1991148575128552</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J10" s="1">
@@ -5393,29 +11147,41 @@
         <v>4.0450849718747373</v>
       </c>
       <c r="R10" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="9"/>
+        <v>2.1991148575128552</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" ref="AC10:AD15" si="10">K24</f>
+        <v>4.1846486716986755</v>
+      </c>
+      <c r="AD10" s="1">
+        <f t="shared" si="10"/>
+        <v>1.3596747752497687</v>
+      </c>
+      <c r="AE10" s="9"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="8"/>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="7"/>
-        <v>2.1991148575128552</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="6"/>
-        <v>2.5132741228718345</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J11" s="1">
@@ -5430,19 +11196,31 @@
         <v>2.9389262614623664</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5132741228718345</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AB11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="10"/>
+        <v>3.5596747752497691</v>
+      </c>
+      <c r="AD11" s="1">
+        <f t="shared" si="10"/>
+        <v>2.5862551100868818</v>
+      </c>
+      <c r="AE11" s="9"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -5457,15 +11235,15 @@
         <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8274333882308138</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J12" s="1">
@@ -5480,29 +11258,41 @@
         <v>1.5450849718747375</v>
       </c>
       <c r="R12" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="9"/>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="10"/>
+        <v>2.5862551100868818</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="10"/>
+        <v>3.5596747752497691</v>
+      </c>
+      <c r="AE12" s="9"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="8"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="7"/>
-        <v>2.8274333882308138</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="6"/>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J13" s="1">
@@ -5517,19 +11307,31 @@
         <v>6.1257422745431001E-16</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AB13" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="10"/>
+        <v>1.3596747752497689</v>
+      </c>
+      <c r="AD13" s="1">
+        <f t="shared" si="10"/>
+        <v>4.1846486716986755</v>
+      </c>
+      <c r="AE13" s="9"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -5541,15 +11343,15 @@
         <v>3</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4557519189487724</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J14" s="1">
@@ -5564,19 +11366,31 @@
         <v>-1.5450849718747364</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4557519189487724</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AB14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="10"/>
+        <v>2.695326600798964E-16</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="10"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AE14" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -5588,15 +11402,15 @@
         <v>0.6</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7699111843077517</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J15" s="1">
@@ -5611,29 +11425,41 @@
         <v>-2.938926261462365</v>
       </c>
       <c r="R15" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="9"/>
+        <v>3.7699111843077517</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="1">
+        <f>K43</f>
+        <v>3.8</v>
+      </c>
+      <c r="AD15" s="1">
+        <f>L43</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="8"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="8"/>
+        <v>4.0840704496667311</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="7"/>
-        <v>3.7699111843077517</v>
-      </c>
-      <c r="T15" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G16" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="6"/>
-        <v>4.0840704496667311</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J16" s="1">
@@ -5648,19 +11474,31 @@
         <v>-4.0450849718747364</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.0840704496667311</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AB16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" ref="AC16:AD20" si="11">K44</f>
+        <v>3.6140147619215832</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="11"/>
+        <v>1.1742645786248</v>
+      </c>
+      <c r="AE16" s="9"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -5672,15 +11510,15 @@
         <v>6</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.3982297150257104</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J17" s="1">
@@ -5695,33 +11533,45 @@
         <v>-4.7552825814757673</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3982297150257104</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AB17" s="1">
+        <v>15</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" si="11"/>
+        <v>3.0742645786248</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="11"/>
+        <v>2.2335839587113977</v>
+      </c>
+      <c r="AE17" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <f>D17*D10</f>
         <v>120</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.7123889803846897</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J18" s="1">
@@ -5736,29 +11586,41 @@
         <v>-5</v>
       </c>
       <c r="R18" s="1">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="9"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC18" s="1">
+        <f t="shared" si="11"/>
+        <v>2.2335839587113977</v>
+      </c>
+      <c r="AD18" s="1">
+        <f t="shared" si="11"/>
+        <v>3.0742645786248</v>
+      </c>
+      <c r="AE18" s="9"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="8"/>
+        <v>5.026548245743669</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="7"/>
-        <v>4.7123889803846897</v>
-      </c>
-      <c r="T18" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="6"/>
-        <v>5.026548245743669</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J19" s="1">
@@ -5773,19 +11635,31 @@
         <v>-4.7552825814757682</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.026548245743669</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AB19" s="1">
+        <v>17</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" si="11"/>
+        <v>1.1742645786248003</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" si="11"/>
+        <v>3.6140147619215832</v>
+      </c>
+      <c r="AE19" s="9"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <f>K3</f>
         <v>5</v>
@@ -5795,15 +11669,15 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.3407075111026483</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J20" s="1">
@@ -5818,19 +11692,31 @@
         <v>-4.0450849718747381</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.3407075111026483</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AB20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" si="11"/>
+        <v>2.327782064326378E-16</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="AE20" s="10"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <f>K23</f>
         <v>4.4000000000000004</v>
@@ -5840,15 +11726,15 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6548667764616276</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J21" s="1">
@@ -5863,19 +11749,31 @@
         <v>-2.9389262614623668</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.6548667764616276</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AB21" s="1">
+        <v>19</v>
+      </c>
+      <c r="AC21" s="1">
+        <f>K63</f>
+        <v>3.2</v>
+      </c>
+      <c r="AD21" s="1">
+        <f>L63</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="8"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <f>K4</f>
         <v>4.7552825814757673</v>
@@ -5885,15 +11783,15 @@
         <v>1.545084971874737</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.9690260418206069</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J22" s="1">
@@ -5908,19 +11806,31 @@
         <v>-1.5450849718747381</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.9690260418206069</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AB22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC22" s="1">
+        <f t="shared" ref="AC22:AD26" si="12">K64</f>
+        <v>3.0433808521444914</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98885438199983167</v>
+      </c>
+      <c r="AE22" s="9"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <f>K24</f>
         <v>4.1846486716986755</v>
@@ -5930,18 +11840,30 @@
         <v>1.3596747752497687</v>
       </c>
       <c r="J23" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" ref="K23:K42" si="8">($I3-L$2*$D$15)*COS($H3)</f>
+        <f t="shared" ref="K23:K42" si="13">($I3-L$2*$D$15)*COS($H3)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" ref="L23:L42" si="9">($T3-L$2*$D$15)*SIN($S3)</f>
+        <f t="shared" ref="L23:L42" si="14">($T3-L$2*$D$15)*SIN($S3)</f>
         <v>0</v>
       </c>
+      <c r="AB23" s="1">
+        <v>21</v>
+      </c>
+      <c r="AC23" s="1">
+        <f t="shared" si="12"/>
+        <v>2.5888543819998322</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="12"/>
+        <v>1.880912807335914</v>
+      </c>
+      <c r="AE23" s="9"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <f>C20</f>
         <v>5</v>
@@ -5951,326 +11873,512 @@
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4.1846486716986755</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.3596747752497687</v>
       </c>
+      <c r="AB24" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" si="12"/>
+        <v>1.880912807335914</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" si="12"/>
+        <v>2.5888543819998322</v>
+      </c>
+      <c r="AE24" s="9"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J25" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3.5596747752497691</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.5862551100868818</v>
       </c>
+      <c r="AB25" s="1">
+        <v>23</v>
+      </c>
+      <c r="AC25" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98885438199983189</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" si="12"/>
+        <v>3.0433808521444914</v>
+      </c>
+      <c r="AE25" s="9"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J26" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.5862551100868818</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.5596747752497691</v>
       </c>
+      <c r="AB26" s="1">
+        <v>24</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" si="12"/>
+        <v>1.960237527853792E-16</v>
+      </c>
+      <c r="AD26" s="1">
+        <f t="shared" si="12"/>
+        <v>3.2</v>
+      </c>
+      <c r="AE26" s="10"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J27" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.3596747752497689</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.1846486716986755</v>
       </c>
+      <c r="AB27" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC27" s="1">
+        <f>K83</f>
+        <v>2.6</v>
+      </c>
+      <c r="AD27" s="1">
+        <f>L83</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="8"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J28" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.695326600798964E-16</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.4000000000000004</v>
       </c>
+      <c r="AB28" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC28" s="1">
+        <f t="shared" ref="AC28:AD32" si="15">K84</f>
+        <v>2.4727469423673991</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" si="15"/>
+        <v>0.80344418537486328</v>
+      </c>
+      <c r="AE28" s="9"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J29" s="1">
         <v>27</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1.3596747752497684</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.1846486716986764</v>
       </c>
+      <c r="AB29" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC29" s="1">
+        <f t="shared" si="15"/>
+        <v>2.1034441853748636</v>
+      </c>
+      <c r="AD29" s="1">
+        <f t="shared" si="15"/>
+        <v>1.5282416559604302</v>
+      </c>
+      <c r="AE29" s="9"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J30" s="1">
         <v>28</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-2.5862551100868814</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.5596747752497691</v>
       </c>
+      <c r="AB30" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC30" s="1">
+        <f t="shared" si="15"/>
+        <v>1.5282416559604302</v>
+      </c>
+      <c r="AD30" s="1">
+        <f t="shared" si="15"/>
+        <v>2.1034441853748636</v>
+      </c>
+      <c r="AE30" s="9"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J31" s="1">
         <v>29</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-3.5596747752497686</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.5862551100868827</v>
       </c>
+      <c r="AB31" s="1">
+        <v>29</v>
+      </c>
+      <c r="AC31" s="1">
+        <f t="shared" si="15"/>
+        <v>0.8034441853748634</v>
+      </c>
+      <c r="AD31" s="1">
+        <f t="shared" si="15"/>
+        <v>2.4727469423673991</v>
+      </c>
+      <c r="AE31" s="9"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J32" s="1">
         <v>30</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-4.1846486716986755</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.3596747752497691</v>
       </c>
+      <c r="AB32" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC32" s="1">
+        <f t="shared" si="15"/>
+        <v>1.592692991381206E-16</v>
+      </c>
+      <c r="AD32" s="1">
+        <f t="shared" si="15"/>
+        <v>2.6</v>
+      </c>
+      <c r="AE32" s="10"/>
     </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J33" s="1">
         <v>31</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-4.4000000000000004</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5.390653201597928E-16</v>
       </c>
+      <c r="AB33" s="1">
+        <v>31</v>
+      </c>
+      <c r="AC33" s="1">
+        <f>K103</f>
+        <v>2</v>
+      </c>
+      <c r="AD33" s="1">
+        <f>L103</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="8"/>
     </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J34" s="1">
         <v>32</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-4.1846486716986764</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-1.3596747752497682</v>
       </c>
+      <c r="AB34" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC34" s="1">
+        <f t="shared" ref="AC34:AD38" si="16">K104</f>
+        <v>1.9021130325903071</v>
+      </c>
+      <c r="AD34" s="1">
+        <f t="shared" si="16"/>
+        <v>0.61803398874989479</v>
+      </c>
+      <c r="AE34" s="9"/>
     </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J35" s="1">
         <v>33</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-3.5596747752497695</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-2.5862551100868814</v>
       </c>
+      <c r="AB35" s="1">
+        <v>33</v>
+      </c>
+      <c r="AC35" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6180339887498949</v>
+      </c>
+      <c r="AD35" s="1">
+        <f t="shared" si="16"/>
+        <v>1.1755705045849463</v>
+      </c>
+      <c r="AE35" s="9"/>
     </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J36" s="1">
         <v>34</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-2.5862551100868827</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-3.5596747752497686</v>
       </c>
+      <c r="AB36" s="1">
+        <v>34</v>
+      </c>
+      <c r="AC36" s="1">
+        <f t="shared" si="16"/>
+        <v>1.1755705045849463</v>
+      </c>
+      <c r="AD36" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6180339887498949</v>
+      </c>
+      <c r="AE36" s="9"/>
     </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J37" s="1">
         <v>35</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1.3596747752497693</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-4.1846486716986755</v>
       </c>
+      <c r="AB37" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC37" s="1">
+        <f t="shared" si="16"/>
+        <v>0.6180339887498949</v>
+      </c>
+      <c r="AD37" s="1">
+        <f t="shared" si="16"/>
+        <v>1.9021130325903071</v>
+      </c>
+      <c r="AE37" s="9"/>
     </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J38" s="1">
         <v>36</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-8.0859798023968931E-16</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-4.4000000000000004</v>
       </c>
+      <c r="AB38" s="1">
+        <v>36</v>
+      </c>
+      <c r="AC38" s="1">
+        <f t="shared" si="16"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="AD38" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AE38" s="10"/>
     </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J39" s="1">
         <v>37</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.359674775249768</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-4.1846486716986764</v>
       </c>
+      <c r="AE39" s="8"/>
     </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J40" s="1">
         <v>38</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.5862551100868809</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-3.5596747752497695</v>
       </c>
+      <c r="AE40" s="9"/>
     </row>
-    <row r="41" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J41" s="1">
         <v>39</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3.5596747752497686</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-2.5862551100868831</v>
       </c>
+      <c r="AE41" s="9"/>
     </row>
-    <row r="42" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J42" s="1">
         <v>40</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4.1846486716986755</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-1.3596747752497695</v>
       </c>
+      <c r="AE42" s="9"/>
     </row>
-    <row r="43" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J43" s="1">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43:K62" si="10">($I3-M$2*$D$15)*COS($H3)</f>
+        <f t="shared" ref="K43:K62" si="17">($I3-M$2*$D$15)*COS($H3)</f>
         <v>3.8</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" ref="L43:L62" si="11">($T3-M$2*$D$15)*SIN($S3)</f>
+        <f t="shared" ref="L43:L62" si="18">($T3-M$2*$D$15)*SIN($S3)</f>
         <v>0</v>
       </c>
+      <c r="AE43" s="9"/>
     </row>
-    <row r="44" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J44" s="1">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.6140147619215832</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1.1742645786248</v>
       </c>
+      <c r="AE44" s="10"/>
     </row>
-    <row r="45" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J45" s="1">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.0742645786248</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2.2335839587113977</v>
       </c>
     </row>
-    <row r="46" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J46" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.2335839587113977</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3.0742645786248</v>
       </c>
     </row>
-    <row r="47" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J47" s="1">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.1742645786248003</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3.6140147619215832</v>
       </c>
     </row>
-    <row r="48" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J48" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.327782064326378E-16</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3.8</v>
       </c>
     </row>
@@ -6279,11 +12387,11 @@
         <v>47</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-1.1742645786247998</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3.6140147619215837</v>
       </c>
     </row>
@@ -6292,11 +12400,11 @@
         <v>48</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-2.2335839587113973</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3.0742645786248</v>
       </c>
     </row>
@@ -6305,11 +12413,11 @@
         <v>49</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-3.0742645786248</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2.2335839587113981</v>
       </c>
     </row>
@@ -6318,11 +12426,11 @@
         <v>50</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-3.6140147619215832</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1.1742645786248005</v>
       </c>
     </row>
@@ -6331,11 +12439,11 @@
         <v>51</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-3.8</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4.655564128652756E-16</v>
       </c>
     </row>
@@ -6344,11 +12452,11 @@
         <v>52</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-3.6140147619215837</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-1.1742645786247996</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -6371,11 +12479,11 @@
         <v>53</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-3.0742645786248004</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-2.2335839587113973</v>
       </c>
     </row>
@@ -6384,11 +12492,11 @@
         <v>54</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-2.2335839587113981</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-3.0742645786248</v>
       </c>
       <c r="O56" s="1">
@@ -6408,11 +12516,11 @@
         <v>55</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-1.1742645786248007</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-3.6140147619215832</v>
       </c>
       <c r="O57" s="1">
@@ -6432,11 +12540,11 @@
         <v>56</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-6.9833461929791341E-16</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-3.8</v>
       </c>
     </row>
@@ -6445,11 +12553,11 @@
         <v>57</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.1742645786247994</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-3.6140147619215837</v>
       </c>
       <c r="O59" s="1">
@@ -6469,11 +12577,11 @@
         <v>58</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.2335839587113968</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-3.0742645786248004</v>
       </c>
       <c r="O60" s="1">
@@ -6493,11 +12601,11 @@
         <v>59</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.0742645786248</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-2.2335839587113986</v>
       </c>
     </row>
@@ -6506,11 +12614,11 @@
         <v>60</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.6140147619215832</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-1.1742645786248009</v>
       </c>
     </row>
@@ -6519,11 +12627,11 @@
         <v>61</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" ref="K63:K82" si="12">($I3-N$2*$D$15)*COS($H3)</f>
+        <f t="shared" ref="K63:K82" si="19">($I3-N$2*$D$15)*COS($H3)</f>
         <v>3.2</v>
       </c>
       <c r="L63" s="7">
-        <f t="shared" ref="L63:L82" si="13">($T3-N$2*$D$15)*SIN($S3)</f>
+        <f t="shared" ref="L63:L82" si="20">($T3-N$2*$D$15)*SIN($S3)</f>
         <v>0</v>
       </c>
     </row>
@@ -6532,11 +12640,11 @@
         <v>62</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.0433808521444914</v>
       </c>
       <c r="L64" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.98885438199983167</v>
       </c>
     </row>
@@ -6545,11 +12653,11 @@
         <v>63</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.5888543819998322</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.880912807335914</v>
       </c>
     </row>
@@ -6558,11 +12666,11 @@
         <v>64</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.880912807335914</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.5888543819998322</v>
       </c>
     </row>
@@ -6571,11 +12679,11 @@
         <v>65</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.98885438199983189</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>3.0433808521444914</v>
       </c>
     </row>
@@ -6584,11 +12692,11 @@
         <v>66</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.960237527853792E-16</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
     </row>
@@ -6597,11 +12705,11 @@
         <v>67</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-0.98885438199983156</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>3.0433808521444918</v>
       </c>
     </row>
@@ -6610,11 +12718,11 @@
         <v>68</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-1.8809128073359138</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.5888543819998322</v>
       </c>
     </row>
@@ -6623,11 +12731,11 @@
         <v>69</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-2.5888543819998318</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.8809128073359145</v>
       </c>
     </row>
@@ -6636,11 +12744,11 @@
         <v>70</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-3.0433808521444914</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.98885438199983211</v>
       </c>
     </row>
@@ -6649,11 +12757,11 @@
         <v>71</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-3.2</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>3.920475055707584E-16</v>
       </c>
     </row>
@@ -6662,11 +12770,11 @@
         <v>72</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-3.0433808521444918</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-0.98885438199983133</v>
       </c>
     </row>
@@ -6675,11 +12783,11 @@
         <v>73</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-2.5888543819998322</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-1.8809128073359138</v>
       </c>
     </row>
@@ -6688,11 +12796,11 @@
         <v>74</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-1.8809128073359145</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-2.5888543819998318</v>
       </c>
     </row>
@@ -6701,11 +12809,11 @@
         <v>75</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-0.98885438199983222</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-3.0433808521444914</v>
       </c>
     </row>
@@ -6714,11 +12822,11 @@
         <v>76</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-5.8807125835613761E-16</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-3.2</v>
       </c>
     </row>
@@ -6727,11 +12835,11 @@
         <v>77</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.98885438199983122</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-3.0433808521444918</v>
       </c>
     </row>
@@ -6740,11 +12848,11 @@
         <v>78</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.8809128073359134</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-2.5888543819998322</v>
       </c>
     </row>
@@ -6753,11 +12861,11 @@
         <v>79</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.5888543819998318</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-1.8809128073359149</v>
       </c>
     </row>
@@ -6766,11 +12874,11 @@
         <v>80</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3.0433808521444914</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-0.98885438199983244</v>
       </c>
     </row>
@@ -6779,11 +12887,11 @@
         <v>81</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" ref="K83:K102" si="14">($I3-O$2*$D$15)*COS($H3)</f>
+        <f t="shared" ref="K83:K102" si="21">($I3-O$2*$D$15)*COS($H3)</f>
         <v>2.6</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" ref="L83:L102" si="15">($T3-O$2*$D$15)*SIN($S3)</f>
+        <f t="shared" ref="L83:L102" si="22">($T3-O$2*$D$15)*SIN($S3)</f>
         <v>0</v>
       </c>
     </row>
@@ -6792,11 +12900,11 @@
         <v>82</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2.4727469423673991</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.80344418537486328</v>
       </c>
     </row>
@@ -6805,11 +12913,11 @@
         <v>83</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2.1034441853748636</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.5282416559604302</v>
       </c>
     </row>
@@ -6818,11 +12926,11 @@
         <v>84</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.5282416559604302</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.1034441853748636</v>
       </c>
     </row>
@@ -6831,11 +12939,11 @@
         <v>85</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.8034441853748634</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.4727469423673991</v>
       </c>
     </row>
@@ -6844,11 +12952,11 @@
         <v>86</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.592692991381206E-16</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.6</v>
       </c>
     </row>
@@ -6857,11 +12965,11 @@
         <v>87</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-0.80344418537486306</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.4727469423673996</v>
       </c>
     </row>
@@ -6870,11 +12978,11 @@
         <v>88</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-1.5282416559604299</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.1034441853748636</v>
       </c>
     </row>
@@ -6883,11 +12991,11 @@
         <v>89</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-2.1034441853748631</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.5282416559604306</v>
       </c>
     </row>
@@ -6896,11 +13004,11 @@
         <v>90</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-2.4727469423673991</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.80344418537486351</v>
       </c>
     </row>
@@ -6909,11 +13017,11 @@
         <v>91</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-2.6</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>3.185385982762412E-16</v>
       </c>
     </row>
@@ -6922,11 +13030,11 @@
         <v>92</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-2.4727469423673996</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-0.80344418537486295</v>
       </c>
     </row>
@@ -6935,11 +13043,11 @@
         <v>93</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-2.1034441853748636</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-1.5282416559604299</v>
       </c>
     </row>
@@ -6948,11 +13056,11 @@
         <v>94</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-1.5282416559604306</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-2.1034441853748631</v>
       </c>
     </row>
@@ -6961,11 +13069,11 @@
         <v>95</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-0.80344418537486373</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-2.4727469423673991</v>
       </c>
     </row>
@@ -6974,11 +13082,11 @@
         <v>96</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-4.778078974143618E-16</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-2.6</v>
       </c>
     </row>
@@ -6987,11 +13095,11 @@
         <v>97</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.80344418537486284</v>
       </c>
       <c r="L99" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-2.4727469423673996</v>
       </c>
     </row>
@@ -7000,11 +13108,11 @@
         <v>98</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.5282416559604297</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-2.1034441853748636</v>
       </c>
     </row>
@@ -7013,11 +13121,11 @@
         <v>99</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2.1034441853748631</v>
       </c>
       <c r="L101" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-1.5282416559604308</v>
       </c>
     </row>
@@ -7026,11 +13134,11 @@
         <v>100</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2.4727469423673991</v>
       </c>
       <c r="L102" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-0.80344418537486384</v>
       </c>
     </row>
@@ -7039,11 +13147,11 @@
         <v>101</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" ref="K103:K122" si="16">($I3-P$2*$D$15)*COS($H3)</f>
+        <f t="shared" ref="K103:K122" si="23">($I3-P$2*$D$15)*COS($H3)</f>
         <v>2</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" ref="L103:L122" si="17">($T3-P$2*$D$15)*SIN($S3)</f>
+        <f t="shared" ref="L103:L122" si="24">($T3-P$2*$D$15)*SIN($S3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7052,11 +13160,11 @@
         <v>102</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.9021130325903071</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0.61803398874989479</v>
       </c>
     </row>
@@ -7065,11 +13173,11 @@
         <v>103</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.6180339887498949</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1755705045849463</v>
       </c>
     </row>
@@ -7078,11 +13186,11 @@
         <v>104</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.1755705045849463</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.6180339887498949</v>
       </c>
     </row>
@@ -7091,11 +13199,11 @@
         <v>105</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.6180339887498949</v>
       </c>
       <c r="L107" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.9021130325903071</v>
       </c>
     </row>
@@ -7104,11 +13212,11 @@
         <v>106</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="L108" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
     </row>
@@ -7117,11 +13225,11 @@
         <v>107</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-0.61803398874989468</v>
       </c>
       <c r="L109" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.9021130325903073</v>
       </c>
     </row>
@@ -7130,11 +13238,11 @@
         <v>108</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-1.1755705045849461</v>
       </c>
       <c r="L110" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.6180339887498949</v>
       </c>
     </row>
@@ -7143,11 +13251,11 @@
         <v>109</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-1.6180339887498947</v>
       </c>
       <c r="L111" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1755705045849465</v>
       </c>
     </row>
@@ -7156,11 +13264,11 @@
         <v>110</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-1.9021130325903071</v>
       </c>
       <c r="L112" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0.61803398874989501</v>
       </c>
     </row>
@@ -7169,11 +13277,11 @@
         <v>111</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-2</v>
       </c>
       <c r="L113" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2.45029690981724E-16</v>
       </c>
     </row>
@@ -7182,11 +13290,11 @@
         <v>112</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-1.9021130325903073</v>
       </c>
       <c r="L114" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-0.61803398874989457</v>
       </c>
     </row>
@@ -7195,11 +13303,11 @@
         <v>113</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-1.6180339887498951</v>
       </c>
       <c r="L115" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-1.1755705045849461</v>
       </c>
     </row>
@@ -7208,11 +13316,11 @@
         <v>114</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-1.1755705045849465</v>
       </c>
       <c r="L116" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-1.6180339887498947</v>
       </c>
     </row>
@@ -7221,11 +13329,11 @@
         <v>115</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-0.61803398874989512</v>
       </c>
       <c r="L117" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-1.9021130325903071</v>
       </c>
     </row>
@@ -7234,11 +13342,11 @@
         <v>116</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-3.67544536472586E-16</v>
       </c>
       <c r="L118" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-2</v>
       </c>
     </row>
@@ -7247,11 +13355,11 @@
         <v>117</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.61803398874989446</v>
       </c>
       <c r="L119" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-1.9021130325903073</v>
       </c>
     </row>
@@ -7260,11 +13368,11 @@
         <v>118</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.1755705045849458</v>
       </c>
       <c r="L120" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-1.6180339887498951</v>
       </c>
     </row>
@@ -7273,11 +13381,11 @@
         <v>119</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.6180339887498947</v>
       </c>
       <c r="L121" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-1.1755705045849467</v>
       </c>
     </row>
@@ -7286,11 +13394,11 @@
         <v>120</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.9021130325903071</v>
       </c>
       <c r="L122" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-0.61803398874989524</v>
       </c>
     </row>

--- a/CEE2333TermProject/excel_check.xlsx
+++ b/CEE2333TermProject/excel_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrs196_pitt_edu/Documents/7_SupSenior Fall/CEE 2333/Matlab/CEE2333HW6b/CEE2333TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{327AEF34-D5B8-41DB-B9DF-967CAB052244}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC04C50B-2F52-4673-9E08-E6EC8F0749C6}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="3735" windowWidth="21600" windowHeight="11295" xr2:uid="{5E9F0EF5-0C21-4768-9B7E-F9FB9B3FDCA8}"/>
+    <workbookView xWindow="31530" yWindow="9795" windowWidth="21600" windowHeight="11295" xr2:uid="{5E9F0EF5-0C21-4768-9B7E-F9FB9B3FDCA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11B95692-EFA1-42EA-A348-72A042100E58}" type="CELLRANGE">
+                    <a:fld id="{FE374D1F-1D31-4D11-9393-28C52651BAA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -332,7 +332,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC909FB5-AFE7-4BEB-87BE-CD0B693F2D26}" type="CELLRANGE">
+                    <a:fld id="{404D0DD7-0D6C-49E6-82D5-482D0E049D61}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -366,7 +366,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{592A5FE2-A5F2-4244-805D-61F028080E8C}" type="CELLRANGE">
+                    <a:fld id="{6F5C9FB0-5218-4E8D-AA91-9FBBD747BD1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -400,7 +400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61B6963B-8FB3-4BAE-A40F-82C17D8E75B4}" type="CELLRANGE">
+                    <a:fld id="{02A4CBB0-CAA7-44AB-9479-DE6E589AEE8C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -434,7 +434,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9A59A58-1E90-43B0-A454-50A6CCC46916}" type="CELLRANGE">
+                    <a:fld id="{39D952BA-71E7-44A9-9594-0C3326B67582}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -468,7 +468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1BF3901-3413-477E-BBF4-54758267BBF1}" type="CELLRANGE">
+                    <a:fld id="{15F103A4-707B-4C38-8FDC-63FFEFE74DED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -502,7 +502,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FB60F4F-C3C9-4A54-A885-7A92184F927C}" type="CELLRANGE">
+                    <a:fld id="{ED0F6546-730E-40F8-AF8E-81B4974FFB46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -536,7 +536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6422B5D-5D34-4BA8-9CFE-CE63838462DA}" type="CELLRANGE">
+                    <a:fld id="{8195FA41-8345-4091-A221-056A1BD49904}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -570,7 +570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F037E25A-8AD9-4405-9E12-91716F09EFB3}" type="CELLRANGE">
+                    <a:fld id="{D2C2CFEA-DC55-44A7-9DD6-3F3BC9E5A050}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -604,7 +604,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C265BB16-D3BC-4B47-B9CC-DE0EF816CC43}" type="CELLRANGE">
+                    <a:fld id="{54D02922-2AA5-4F14-8677-20AEEF1954D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -638,7 +638,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A026658E-63B7-42CA-B227-6807B0838563}" type="CELLRANGE">
+                    <a:fld id="{76BB1F0B-67A7-4D70-8C7C-C45D4035A7A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -672,7 +672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E362FEB8-2AFA-4468-A401-4A26276685F1}" type="CELLRANGE">
+                    <a:fld id="{A3364AE9-7857-48C9-BED1-CD72C71E28E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -706,7 +706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A5B3066-D296-4CF8-8906-EE1FBC1A0D96}" type="CELLRANGE">
+                    <a:fld id="{FD6AE387-FBAA-42E5-8A71-75C6B5401049}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -740,7 +740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB6A9625-FE75-4D2E-8907-4C2AEB495FE5}" type="CELLRANGE">
+                    <a:fld id="{4DCDD26F-4DBC-4DF2-85E5-7C955619D4DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -774,7 +774,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C54B3B9-27FA-4492-8DE9-F2F0B9A441B9}" type="CELLRANGE">
+                    <a:fld id="{7B12C666-0E2F-4007-9ABA-E56035F431DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -808,7 +808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DF27E76-113F-45B7-8818-08164A3F632E}" type="CELLRANGE">
+                    <a:fld id="{E8945B66-451B-47A7-8EBB-FA6194289733}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -842,7 +842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7B85C36-7AA7-4341-831C-E89262707E82}" type="CELLRANGE">
+                    <a:fld id="{EDB59ABF-83F4-41E2-B71C-A1CF9A74D6AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -876,7 +876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F488D86-D09D-4B88-8618-C94ED4C6E1B3}" type="CELLRANGE">
+                    <a:fld id="{DCAD8FEF-E51D-4FDD-844A-F6F1CA035274}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -910,7 +910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12FD8B37-1DBE-4ECD-8278-362F9B81E63A}" type="CELLRANGE">
+                    <a:fld id="{2333ED2A-5F11-4C33-9102-07CE018BB8B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -944,7 +944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D47213B7-2A21-4F61-96B4-1934FE0C61CA}" type="CELLRANGE">
+                    <a:fld id="{49DD4CD1-710C-494C-A551-BBE1FA3EA950}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1263,7 +1263,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{708218B2-130C-455C-BF18-0B3157EC7C17}" type="CELLRANGE">
+                    <a:fld id="{2A3D79BB-1D22-4413-9CE5-03BCFD6B9885}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1297,7 +1297,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E34D0F7-BA2F-4CEC-B3F3-FD33A25EAE84}" type="CELLRANGE">
+                    <a:fld id="{92126266-8B8C-44A9-8273-D3DA19C41FE6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1331,7 +1331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4D6CBFF-7352-4268-9F1B-CEBD3AD43E0A}" type="CELLRANGE">
+                    <a:fld id="{1ECBCAC0-E616-4093-94D1-02B1F5488C57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1365,7 +1365,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3521059-EBD3-4093-8180-37115950878E}" type="CELLRANGE">
+                    <a:fld id="{4E0B08FE-0034-496F-9CCC-F5665790BEDE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1399,7 +1399,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60716EE7-0C16-4BCB-91B7-5AC1211C6A37}" type="CELLRANGE">
+                    <a:fld id="{1AEAF78E-CA73-4805-899F-24B6A0215242}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1433,7 +1433,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FE5F073-F14C-4A69-8CD9-4E854FE1CBD0}" type="CELLRANGE">
+                    <a:fld id="{6B60B04B-289D-45F5-AAFA-2AFD5D959D13}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1467,7 +1467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90626437-607C-463F-9139-ABA495DC95B8}" type="CELLRANGE">
+                    <a:fld id="{3E675B09-D907-4697-8A1B-67D09FA51235}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1501,7 +1501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E40933DA-09BC-4E3B-A491-35E36019C7F7}" type="CELLRANGE">
+                    <a:fld id="{953C2583-5036-4CA0-8AFD-9A6CD99D3663}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1535,7 +1535,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54E5A7A1-E36F-4AD3-9142-A4E65BB05981}" type="CELLRANGE">
+                    <a:fld id="{97CC4869-124D-4DF0-A737-97DB85D9E757}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1569,7 +1569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADB5046A-7BEA-41ED-8E99-344EDD9CC502}" type="CELLRANGE">
+                    <a:fld id="{A93A69B0-BED4-4DBB-B076-D1511FB65099}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1603,7 +1603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{014848EE-EC4C-4BEB-B297-1E0BB4638958}" type="CELLRANGE">
+                    <a:fld id="{7F923F6B-AE2F-47FC-B681-40E97ED77606}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1637,7 +1637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{476E8205-4F36-4045-B90A-D6DCC0BCBED7}" type="CELLRANGE">
+                    <a:fld id="{512C0E79-FF00-436E-B176-E8051698E436}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1671,7 +1671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C525E331-5833-4857-9989-CED8D73E2113}" type="CELLRANGE">
+                    <a:fld id="{3B991BD5-1F8C-46E2-BC67-9403331D82C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1705,7 +1705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B101B933-A1FD-41FE-A68C-C936AD1E7E56}" type="CELLRANGE">
+                    <a:fld id="{69E3A8EB-485F-4D2F-B190-D4DC39516E80}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1739,7 +1739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98159BDE-66BE-42A8-B78D-E3C348DC320D}" type="CELLRANGE">
+                    <a:fld id="{265B8C00-5056-4C03-94C4-256D0626D6EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1773,7 +1773,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47A6C280-20F0-4909-A3A0-586F8C74E9F9}" type="CELLRANGE">
+                    <a:fld id="{AF563BFC-A2E3-47DA-8DB7-CCA0FB79175B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1807,7 +1807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{974A1F0D-E628-47A3-81F8-ACF454E172CC}" type="CELLRANGE">
+                    <a:fld id="{91926B00-7925-4BE8-8861-B48E89DDD080}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1841,7 +1841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{367393DD-69F3-42F6-B902-D35FBA358106}" type="CELLRANGE">
+                    <a:fld id="{7D4E78AA-F72E-4AC1-B6DF-B8D65E7CC486}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1875,7 +1875,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76E49888-B1E2-45CE-9D31-F94B3AE3E708}" type="CELLRANGE">
+                    <a:fld id="{0C90058C-1CE3-42EB-AA1C-12E3F3E73991}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1909,7 +1909,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06F1A0F0-DCC2-4AAF-A7F7-54B871F52E10}" type="CELLRANGE">
+                    <a:fld id="{B98C8574-183C-4AAE-9E34-3B62143C37E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2228,7 +2228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{586567DE-76C9-4CDB-AE5D-BEF83C227B52}" type="CELLRANGE">
+                    <a:fld id="{12435256-676E-4BB9-BD1D-A5EDCA7C60EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2262,7 +2262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF5D4873-F5EF-48D2-89AD-F306EF5D082F}" type="CELLRANGE">
+                    <a:fld id="{DF378C40-8099-43C2-8BF0-5872C2B949C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2296,7 +2296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D405E86-749D-4004-B866-05B11BE8C456}" type="CELLRANGE">
+                    <a:fld id="{157630D0-D1AC-45E8-80FD-67AB39F28DAF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2330,7 +2330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53F91F66-D94B-4D18-9BBD-CB5710888389}" type="CELLRANGE">
+                    <a:fld id="{41284005-4D5E-494E-B076-4563D30B1003}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2364,7 +2364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C734115C-9F36-41F3-A8AD-4FF1AB6051B9}" type="CELLRANGE">
+                    <a:fld id="{B149E7FD-A446-4100-9B11-DF6E56B0D1B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2398,7 +2398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB0182EC-663C-4DB9-91A9-6A623CF9C3F7}" type="CELLRANGE">
+                    <a:fld id="{8C2C6B0A-9FD5-4862-A5F0-FDD5D7AFDC9C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2432,7 +2432,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E04689DC-6DE5-4C3A-B286-EEFACD534F92}" type="CELLRANGE">
+                    <a:fld id="{7638036F-877A-4FB1-9028-D69A23628E5A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2466,7 +2466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E29B6484-1537-4DB8-B12B-1D12C01E1483}" type="CELLRANGE">
+                    <a:fld id="{D43861D0-27BE-40EB-8220-95344A922E4F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2500,7 +2500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2655C0D3-F8D3-4F1D-8FED-A59E13E94EA0}" type="CELLRANGE">
+                    <a:fld id="{BB9EF834-76C6-4F37-8A57-5D0779889680}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2534,7 +2534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D03EDEF-0054-4DDD-9761-6A5A5A3562C1}" type="CELLRANGE">
+                    <a:fld id="{D7999287-D283-4A46-9005-E82875913DDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2568,7 +2568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{574C5034-1DAF-444F-B5C5-9D9831683008}" type="CELLRANGE">
+                    <a:fld id="{5E632671-C9F2-4961-A2B4-BA3AF0632C03}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2602,7 +2602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{500EA3E1-0761-4ADF-B6A5-D9AEE93DC982}" type="CELLRANGE">
+                    <a:fld id="{1CE88E65-E380-4135-ACDE-365290BDB8D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2636,7 +2636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88A45794-19E2-430A-AE28-D3109EC90DEA}" type="CELLRANGE">
+                    <a:fld id="{F9547ED2-5D74-44F0-8125-A8CAC30D93A0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2670,7 +2670,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D618315-7CDA-4B4B-A0C9-54E65E8CEA49}" type="CELLRANGE">
+                    <a:fld id="{53A1F3F3-3A5B-4DA5-8B54-C02E4DD3A70B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2704,7 +2704,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E82335F-B8AA-4FED-9B7A-B79572356AB8}" type="CELLRANGE">
+                    <a:fld id="{B9F5141A-420D-432E-A76C-E7F1DCA0505B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2738,7 +2738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F3D3A0A-9C6D-467C-B0DF-1D218016725A}" type="CELLRANGE">
+                    <a:fld id="{1A79A199-DD42-4811-BE2F-D44540606A61}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2772,7 +2772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4800143A-EF45-40C2-8D17-BD44ECA6197B}" type="CELLRANGE">
+                    <a:fld id="{B4561314-C9E1-4E5F-B728-5B94CD476EDC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2806,7 +2806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4CD2E9F-16C7-43D0-BCE9-A05FC6C9CFB2}" type="CELLRANGE">
+                    <a:fld id="{272D32D4-F74E-4628-B22F-D719DFB87F82}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2840,7 +2840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4ABB8C9A-3937-408E-A6F1-93FB96B4A4D7}" type="CELLRANGE">
+                    <a:fld id="{38B1133D-D741-4BA8-9FA9-61E7FE6D1388}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2874,7 +2874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB34D106-0707-4A4C-BD29-CEAB80A48D11}" type="CELLRANGE">
+                    <a:fld id="{0A3DF7C2-EDE6-49E8-A33F-ABF79651785F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3193,7 +3193,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83A5AD27-EF4E-4FC7-9B0E-9E98C4AA62A3}" type="CELLRANGE">
+                    <a:fld id="{E3A12740-B2A6-4EF2-8AB5-8E4CE0324842}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3227,7 +3227,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7973BCAE-6369-45AF-937F-C38CF9E1BF2C}" type="CELLRANGE">
+                    <a:fld id="{54EB9005-65F6-45AF-94C0-CBA8F241C0B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3261,7 +3261,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{229F8EBE-44B6-4A99-BCEE-B39BC2C62D9C}" type="CELLRANGE">
+                    <a:fld id="{89977FB1-E57C-477E-9540-3A8D8E7B7049}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3295,7 +3295,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{622EAEA2-3C78-4955-A182-69C229D835C7}" type="CELLRANGE">
+                    <a:fld id="{F4F01967-123E-48EC-BFAD-1E60D562B44F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3329,7 +3329,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B42E19E0-1912-48E4-B70D-916C80D2894E}" type="CELLRANGE">
+                    <a:fld id="{62FEDE06-C570-4EA3-A54A-4963C687CD81}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3363,7 +3363,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA17807E-9EE5-4529-A2A7-0CFB0F5D91CE}" type="CELLRANGE">
+                    <a:fld id="{79830343-2F0B-46E4-A0D5-857C98C8CC8D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3397,7 +3397,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{126BC687-BD9C-4F89-80E9-7E291C4C68FB}" type="CELLRANGE">
+                    <a:fld id="{71FF48B8-00E7-483B-AF8F-BF8502102057}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3431,7 +3431,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9ACFC9EA-95B9-4F60-8E52-7BA30C469B06}" type="CELLRANGE">
+                    <a:fld id="{CF1EC516-6AC9-434A-A1AA-B0A3EDD7AD7A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3465,7 +3465,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12F5B6E8-CEC7-4DED-A8A0-03876258FB95}" type="CELLRANGE">
+                    <a:fld id="{73616C55-A331-4386-A969-56F59DABD985}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3499,7 +3499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A2E41BC-21B8-4E0A-9E44-5CC1AFD3CBCF}" type="CELLRANGE">
+                    <a:fld id="{E3232C70-3127-47DB-A4EE-36F2DEC0F3C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3533,7 +3533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDF64660-A6EC-4BFF-A946-1A622A37596D}" type="CELLRANGE">
+                    <a:fld id="{A2F4EC7F-375C-4FCF-9C45-59AE95CE0628}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3567,7 +3567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3A9B0B9-A4AE-4790-B354-F49705349D7F}" type="CELLRANGE">
+                    <a:fld id="{47C07058-A857-4E41-8CA0-A05F9615DDEC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3601,7 +3601,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD3EE6B6-AF91-45C5-9748-55F1188D40F0}" type="CELLRANGE">
+                    <a:fld id="{397F40A3-2E9A-4902-8515-0B1780F62A2F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3635,7 +3635,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E72BAB7-DDCE-491F-9BC7-726B413E9CFD}" type="CELLRANGE">
+                    <a:fld id="{26430B77-5E30-4519-BB63-9C213180C8AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3669,7 +3669,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D647528C-9565-4928-86D7-85607C466F3E}" type="CELLRANGE">
+                    <a:fld id="{A00E02D9-E5E9-4B19-A8E6-9DFC4824D286}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3703,7 +3703,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA0F7458-FEA5-4280-9305-2991A9323B13}" type="CELLRANGE">
+                    <a:fld id="{F48D54DC-95DC-43A6-BAC8-3C850E2400F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3737,7 +3737,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E191C1F0-F25B-40AA-B556-5A6B50999D55}" type="CELLRANGE">
+                    <a:fld id="{755AE5A2-5B84-4AE1-A0DE-42C5A8EEA503}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3771,7 +3771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E33C77FE-D96A-454D-B44D-A32A83C1F913}" type="CELLRANGE">
+                    <a:fld id="{04A75022-B91D-4F12-AD1E-8AC0FFD4266C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3805,7 +3805,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE7984AB-9F8F-421E-9576-289071D3F837}" type="CELLRANGE">
+                    <a:fld id="{76F13C19-8EA7-46A1-A14E-2EC806896CF7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3839,7 +3839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19D0B603-8629-445B-82A4-F80E26B88E20}" type="CELLRANGE">
+                    <a:fld id="{F0BD636B-CD7C-414F-ADAC-D39A5AA936E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4158,7 +4158,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09118DD5-A958-4A03-A916-0399892CB74A}" type="CELLRANGE">
+                    <a:fld id="{D5DA22FF-0825-473D-8033-E07AA7032CCF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4192,7 +4192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AFAF811-5A9A-40B8-822D-0E02EEE7B91E}" type="CELLRANGE">
+                    <a:fld id="{185C7AF6-13E4-41D8-892B-A19FFA509741}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4226,7 +4226,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C097AF36-1BF5-475F-B5AC-859E31E4F259}" type="CELLRANGE">
+                    <a:fld id="{AF75B48F-6118-44CD-9BFF-4FF35142AB81}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4260,7 +4260,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF5D696C-02FD-4F1E-8DC8-136997DFF544}" type="CELLRANGE">
+                    <a:fld id="{E8C698C5-C63E-46E4-A8E4-46E583DEDDA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4294,7 +4294,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E15CCAD-0CDB-4307-91BA-49E14419DC77}" type="CELLRANGE">
+                    <a:fld id="{0A53F796-B5FB-4EA9-8CEC-995B399051F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4328,7 +4328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2114FDA4-F0AB-4F45-9832-5C3DFEB2E342}" type="CELLRANGE">
+                    <a:fld id="{6EED7DF1-FDBA-4F2D-B8A5-20D5830320EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4362,7 +4362,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90D3940E-6B48-4D1E-8BC1-9225A0E7EDDD}" type="CELLRANGE">
+                    <a:fld id="{0DBB7D96-28BB-43D2-999D-02214DE0A543}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4396,7 +4396,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9D357B5-C224-4227-857B-68D70AC48A90}" type="CELLRANGE">
+                    <a:fld id="{18F4F82D-94C6-4EF9-ABF0-D73C4D50B06C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4430,7 +4430,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01BFF4C5-56EA-4BFE-A7C0-6F5529C9D482}" type="CELLRANGE">
+                    <a:fld id="{8C5FAF5D-291F-4A03-957A-7185A1CB7370}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4464,7 +4464,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9E841E4-0EE9-4B96-82F7-6A267D6B3345}" type="CELLRANGE">
+                    <a:fld id="{100F5396-9980-474F-AD92-72B0BFEC6FE1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4498,7 +4498,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD6B5D2C-8EC5-4478-B28C-C9EFB3593083}" type="CELLRANGE">
+                    <a:fld id="{89823163-A94B-4D64-9049-43724101AC53}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4532,7 +4532,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E694C4B0-CAB2-4429-9489-5C72E82A462A}" type="CELLRANGE">
+                    <a:fld id="{CEC8328D-A43F-4217-B45E-0A87E6855E5B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4566,7 +4566,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1730E873-75B1-4FA5-BBB4-12BCDFE48472}" type="CELLRANGE">
+                    <a:fld id="{ECC1E722-4859-4A20-8732-722D42243F2E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4600,7 +4600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{463941F9-FA61-44E8-A51A-2E41812CC77A}" type="CELLRANGE">
+                    <a:fld id="{F18ADA8D-41BC-4972-A556-494C31CF44A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4634,7 +4634,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{686C080A-3C58-4A44-AA06-29B67AE1E0C3}" type="CELLRANGE">
+                    <a:fld id="{6475958A-F669-451D-9D64-C6F13C82BE13}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4668,7 +4668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78249B98-08B1-4FE2-8438-40B68A60B08B}" type="CELLRANGE">
+                    <a:fld id="{CF52F9B6-7FE4-4752-ACA5-D6447CD9DD0A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4702,7 +4702,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6BB88BC-D3F6-40A3-A1C9-7133AAF4C69C}" type="CELLRANGE">
+                    <a:fld id="{7F95EA1A-B163-47E5-9F12-6984B3DB9F87}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4736,7 +4736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04EC3DE8-4770-4FD6-97DA-EF4032237CC5}" type="CELLRANGE">
+                    <a:fld id="{8039D4E3-865E-4399-90BF-DBD918932D3B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4770,7 +4770,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A24BC26-8E10-4F43-B062-F582900B846C}" type="CELLRANGE">
+                    <a:fld id="{E48CCCAA-1D73-4956-9E6E-0544C3E40473}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4804,7 +4804,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F01B857-F959-45B5-BEF8-640FE5EACD6C}" type="CELLRANGE">
+                    <a:fld id="{C63A86B0-FF71-4129-93CD-2D6170A567A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5123,7 +5123,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F27503E7-5452-49A8-8FBD-3DEC886887E7}" type="CELLRANGE">
+                    <a:fld id="{60FE7E44-C399-45B5-90AD-C20BA6EF48DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5157,7 +5157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50BA68F0-BF7E-4BA2-A849-C47521BE927D}" type="CELLRANGE">
+                    <a:fld id="{16F06987-1181-443E-9F5B-8786D50A40C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5191,7 +5191,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A78FB43-96A0-4EA2-AF5F-8F7DCBAB8498}" type="CELLRANGE">
+                    <a:fld id="{85375A69-21D0-4149-A525-1F8CA3F14D58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5225,7 +5225,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92D97CCB-D345-42BE-85BE-156E02C9411D}" type="CELLRANGE">
+                    <a:fld id="{A95C0B20-5850-4E92-B25C-A99B6AB9DB63}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5259,7 +5259,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{416537D4-14F0-470D-8C6E-2CDFF81DC9C4}" type="CELLRANGE">
+                    <a:fld id="{5658001E-7FBE-414E-83E8-87BD1854D6C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5293,7 +5293,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD76BC27-D3C0-4AFD-8534-55EE52631462}" type="CELLRANGE">
+                    <a:fld id="{F2A6396C-CA01-4FCF-B071-D8489946E97B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5327,7 +5327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB2AA2FB-0993-4E43-A35A-11AE9F606232}" type="CELLRANGE">
+                    <a:fld id="{1356A58F-CAA6-4699-8328-58FC2FD783DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5361,7 +5361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1AE964D-310F-4AA2-A4C3-676599C72B6D}" type="CELLRANGE">
+                    <a:fld id="{A256B93E-2349-49D9-AB7A-471B4CFDDDF8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5395,7 +5395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{005329BF-7E88-44AA-94CB-B99F82CB8A35}" type="CELLRANGE">
+                    <a:fld id="{51084127-3FF7-4D5A-8CAF-B2684814032A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5429,7 +5429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49BDDF36-78BB-4EA4-B512-051FFB216899}" type="CELLRANGE">
+                    <a:fld id="{115EE205-9F3F-43A6-9E04-B3A634D0A32B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5463,7 +5463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FD0B3AE-F431-42DE-9E4F-D1BD8C188F6D}" type="CELLRANGE">
+                    <a:fld id="{42F670C2-B064-4C47-8E7F-6E5934289AA5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5497,7 +5497,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E57A974B-BB4D-4AD4-AC51-720B2EF9CA5D}" type="CELLRANGE">
+                    <a:fld id="{1F1E1B0A-02FB-4EEC-9942-5068A9D16706}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5531,7 +5531,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD5A8F5A-7000-462F-9DD9-A0F283690AC6}" type="CELLRANGE">
+                    <a:fld id="{B32BA1AD-8B5F-4998-AC26-AA0DAACF601E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5565,7 +5565,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5507B7E-379C-4A7C-A1FC-1BA895649434}" type="CELLRANGE">
+                    <a:fld id="{91591D63-F051-4F2A-8879-572B2DBA909A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5599,7 +5599,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CDF50C8-2A15-42EC-B94B-88A4262688EE}" type="CELLRANGE">
+                    <a:fld id="{5C15D0EB-6E14-4B54-86D5-7112DE2FE932}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5633,7 +5633,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3386088-BCF7-4692-ACA4-4D19C1DFA997}" type="CELLRANGE">
+                    <a:fld id="{B473E939-BDDB-484E-8B47-66114395CD3B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5667,7 +5667,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F12913E5-F0A6-4785-817F-771BDFBDD53A}" type="CELLRANGE">
+                    <a:fld id="{C2E17C59-6D66-49A6-84E4-C6E25E87D697}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5701,7 +5701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2778B3DE-71B8-4024-9EFD-4888925877FC}" type="CELLRANGE">
+                    <a:fld id="{BC4FDACB-9FB8-46DB-966F-DC009818E2A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5735,7 +5735,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B58BA1FD-9431-4653-A96E-B91519D486D4}" type="CELLRANGE">
+                    <a:fld id="{0BB5F187-FB0E-4044-B9EA-7CC24CD7BCC9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5769,7 +5769,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C09BD435-C88E-43FC-9C48-AC657C313E74}" type="CELLRANGE">
+                    <a:fld id="{D3316E1B-BD53-4FE2-8D8C-967B040AFBB7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6181,10 +6181,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.296100594190539</c:v>
+                  <c:v>1.9134171618254492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.296100594190539</c:v>
+                  <c:v>-1.9134171618254492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6196,10 +6196,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.54327719506772</c:v>
+                  <c:v>4.6193976625564339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.54327719506772</c:v>
+                  <c:v>-4.6193976625564339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6251,10 +6251,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-2.2961005941905386</c:v>
+                  <c:v>-1.9134171618254485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2961005941905386</c:v>
+                  <c:v>1.9134171618254485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6266,10 +6266,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.54327719506772</c:v>
+                  <c:v>4.6193976625564339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.54327719506772</c:v>
+                  <c:v>-4.6193976625564339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6525,7 +6525,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D059921-8334-4B16-99D8-33B86420A5BB}" type="CELLRANGE">
+                    <a:fld id="{859B7A7C-A08A-4C30-B238-3938D69F9461}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6559,7 +6559,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF777D47-C7B5-4E1E-A721-39361537B8E6}" type="CELLRANGE">
+                    <a:fld id="{1DBD78EA-FFE3-411E-BEEF-F292188AB837}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6593,7 +6593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{704F82FF-D2F0-4007-AB6E-0A421FEE9F1F}" type="CELLRANGE">
+                    <a:fld id="{91F47F02-BC75-4A1D-A74A-48B3551ACAC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6627,7 +6627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF29A69B-D45E-4648-8CDB-AF780F4D3FE3}" type="CELLRANGE">
+                    <a:fld id="{71F43322-A062-4D74-9E8B-9F904E68A948}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6661,7 +6661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52741D33-243B-4311-B94C-BFCFF7B450F8}" type="CELLRANGE">
+                    <a:fld id="{022773D8-8794-4BEF-985D-345B9C3C4875}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6695,7 +6695,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCC20F78-06C7-45EE-91E5-7BBE1A1C8C2B}" type="CELLRANGE">
+                    <a:fld id="{5F1028F2-6E45-442F-AA4F-666BBF918257}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6930,7 +6930,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC866C99-6796-4FE0-9862-3F5B8955A7C9}" type="CELLRANGE">
+                    <a:fld id="{23D68627-AB5C-4343-9CD6-9626B3DB5AA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6964,7 +6964,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1F30A9F-B773-4E7A-BE92-2472DF336D20}" type="CELLRANGE">
+                    <a:fld id="{97C0291E-7B78-47E5-99F1-635291C9940E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6998,7 +6998,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65E8275A-7DA1-4854-A16A-53C4B2EF4650}" type="CELLRANGE">
+                    <a:fld id="{2A628CB5-4A2A-46F6-B5B7-2D9767554817}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7032,7 +7032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C51BD76D-9178-4882-A3FE-B53671F1D866}" type="CELLRANGE">
+                    <a:fld id="{BCED6411-85E6-486F-A454-A68956F8E372}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7066,7 +7066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C02504B-7672-466E-910E-B8DFC1CC1B92}" type="CELLRANGE">
+                    <a:fld id="{5411142A-A16A-4C69-B395-686FC32429C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7100,7 +7100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0C77BA3-F500-47AA-8530-9A911893D8BF}" type="CELLRANGE">
+                    <a:fld id="{5C41666D-BB67-4932-A813-883B4ECE7EAF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7293,7 +7293,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9298AFF7-3A58-4729-8F40-3E31FA92AC94}" type="CELLRANGE">
+                    <a:fld id="{B8BF6DF4-B06B-4817-91BB-2A4FC9C841AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7327,7 +7327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D9FD413-DA66-4E46-AFEC-AE8923D30338}" type="CELLRANGE">
+                    <a:fld id="{B0FAAE39-3F40-487B-9667-D7983156BC0A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7361,7 +7361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A917F6F6-4F8C-4C0A-AC87-ABA70F24B595}" type="CELLRANGE">
+                    <a:fld id="{2F5E23FA-09D4-4028-AC54-D907AC67B0F1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7395,7 +7395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A7DAC6B-003B-4803-BDC0-3EE0F6A1C451}" type="CELLRANGE">
+                    <a:fld id="{1B5FBE5B-526A-4CB9-9FD9-D1A41B0218DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7429,7 +7429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8290D72D-A14B-4ACE-9F36-8980A8F845EF}" type="CELLRANGE">
+                    <a:fld id="{A08971F8-8D0D-48A8-AAE0-A1A632AE8B12}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7463,7 +7463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{735BDC01-2D07-48E0-BCC4-D6850DC5EDCC}" type="CELLRANGE">
+                    <a:fld id="{3F05CAD4-7C21-4ACB-A842-3E516120B65A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7656,7 +7656,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AFFBC28-37E9-4757-9905-697DDBCBEDC2}" type="CELLRANGE">
+                    <a:fld id="{3B146C7A-893C-4514-8EF9-32B37B9F0184}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7690,7 +7690,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9D10070-C752-4267-A9BF-C8230E495ADA}" type="CELLRANGE">
+                    <a:fld id="{2FD3BF01-54A6-4B75-9232-31FF044146E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7724,7 +7724,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0469DD3C-5240-4237-9C89-9FC82615BC9E}" type="CELLRANGE">
+                    <a:fld id="{55255F16-8D13-4C26-9662-86D6D4345467}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7758,7 +7758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71D31B45-33C6-4C17-9428-39EA976B9CF6}" type="CELLRANGE">
+                    <a:fld id="{33B8E750-AF1A-4CB6-AA30-7F4C5407DAE5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7792,7 +7792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CB6359B-D54B-4E7C-99F0-D2FC94EF5F91}" type="CELLRANGE">
+                    <a:fld id="{13212770-4813-4335-B0A4-4E51E290660D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7826,7 +7826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29D9D701-3E8E-4BC5-B203-4C45BD7BDDC0}" type="CELLRANGE">
+                    <a:fld id="{040E21AC-8326-4F73-A697-D4B077ED5859}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8019,7 +8019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE63A46F-77C8-4A8E-8221-74815CF76795}" type="CELLRANGE">
+                    <a:fld id="{BA29EBD5-526D-42F0-96B9-D0B04CDEF079}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8053,7 +8053,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAEDD1B8-A2F1-4DB5-B4D5-DB16416BD061}" type="CELLRANGE">
+                    <a:fld id="{54C19B4C-A8C4-4D5F-88B7-8583F7994220}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8087,7 +8087,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EFD5085-20DF-4D28-A7E0-7C6DAE3A1E2E}" type="CELLRANGE">
+                    <a:fld id="{88BD1E71-6EDD-40FE-90C9-6297694E979E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8121,7 +8121,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D50257C5-8C76-488D-B8B2-C06C936DABD9}" type="CELLRANGE">
+                    <a:fld id="{BA2EF9C6-6341-412A-87CF-F3995E99CAE3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8155,7 +8155,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECE578E9-328C-4E70-B479-CA36ADD727A3}" type="CELLRANGE">
+                    <a:fld id="{64381832-5DB5-470C-BA72-29E1E68780EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8189,7 +8189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC08A291-ED1C-488D-8FFF-E78D786945BF}" type="CELLRANGE">
+                    <a:fld id="{9CE9BA2F-FC9C-4808-B5B0-6681063539F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8382,7 +8382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07A7E84C-AA88-4F89-99DD-8ED9E67FC7F6}" type="CELLRANGE">
+                    <a:fld id="{B62D858C-7FAC-40ED-B897-4316F852D001}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8416,7 +8416,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8C70894-DFEB-4A96-9DD8-73B50F16483D}" type="CELLRANGE">
+                    <a:fld id="{7AFD7A26-1716-47A5-BF88-707CDC2E155B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8450,7 +8450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83B96F06-1248-4484-80AE-7673100209F9}" type="CELLRANGE">
+                    <a:fld id="{E29AAFD5-8787-4AEA-BF55-468148D2EC24}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8484,7 +8484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06E702B5-7DAD-48EB-A4D4-E53755FD1F04}" type="CELLRANGE">
+                    <a:fld id="{182BAB1A-0352-49FA-A78C-B64E577887E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8518,7 +8518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF9282E1-1A07-411D-A5EB-0113EF8C144A}" type="CELLRANGE">
+                    <a:fld id="{45D356BE-5560-46E4-B83D-5855C7720946}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8552,7 +8552,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8291C4D6-BF96-4730-874A-C4D76515DC0F}" type="CELLRANGE">
+                    <a:fld id="{4A3DE751-36DD-4305-8497-6541FFF25235}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8838,10 +8838,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.296100594190539</c:v>
+                  <c:v>1.9134171618254492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.296100594190539</c:v>
+                  <c:v>-1.9134171618254492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8853,10 +8853,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.54327719506772</c:v>
+                  <c:v>4.6193976625564339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.54327719506772</c:v>
+                  <c:v>-4.6193976625564339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8908,10 +8908,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-2.2961005941905386</c:v>
+                  <c:v>-1.9134171618254485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2961005941905386</c:v>
+                  <c:v>1.9134171618254485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8923,10 +8923,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.54327719506772</c:v>
+                  <c:v>4.6193976625564339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.54327719506772</c:v>
+                  <c:v>-4.6193976625564339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10618,8 +10618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413C7FC3-0C83-4C30-A1A0-0013B4B44AF7}">
   <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL16" sqref="AL16"/>
+    <sheetView tabSelected="1" topLeftCell="K30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11162,7 +11162,7 @@
         <v>8</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" ref="AC10:AD15" si="10">K24</f>
+        <f t="shared" ref="AC10:AD14" si="10">K24</f>
         <v>4.1846486716986755</v>
       </c>
       <c r="AD10" s="1">
@@ -12382,7 +12382,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="49" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J49" s="1">
         <v>47</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>3.6140147619215837</v>
       </c>
     </row>
-    <row r="50" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J50" s="1">
         <v>48</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>3.0742645786248</v>
       </c>
     </row>
-    <row r="51" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J51" s="1">
         <v>49</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>2.2335839587113981</v>
       </c>
     </row>
-    <row r="52" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J52" s="1">
         <v>50</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>1.1742645786248005</v>
       </c>
     </row>
-    <row r="53" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J53" s="1">
         <v>51</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>4.655564128652756E-16</v>
       </c>
     </row>
-    <row r="54" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J54" s="1">
         <v>52</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>1.9634954084936207</v>
       </c>
     </row>
-    <row r="55" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J55" s="1">
         <v>53</v>
       </c>
@@ -12486,8 +12486,20 @@
         <f t="shared" si="18"/>
         <v>-2.2335839587113973</v>
       </c>
+      <c r="U55" s="1">
+        <v>4</v>
+      </c>
+      <c r="V55" s="1">
+        <v>7</v>
+      </c>
+      <c r="W55" s="1">
+        <v>14</v>
+      </c>
+      <c r="X55" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="56" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J56" s="1">
         <v>54</v>
       </c>
@@ -12500,18 +12512,18 @@
         <v>-3.0742645786248</v>
       </c>
       <c r="O56" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P56" s="1">
         <f>O56*COS($P$54)</f>
-        <v>2.296100594190539</v>
+        <v>1.9134171618254492</v>
       </c>
       <c r="Q56" s="1">
         <f>O56*SIN($P$54)</f>
-        <v>5.54327719506772</v>
+        <v>4.6193976625564339</v>
       </c>
     </row>
-    <row r="57" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J57" s="1">
         <v>55</v>
       </c>
@@ -12524,18 +12536,18 @@
         <v>-3.6140147619215832</v>
       </c>
       <c r="O57" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="P57" s="1">
         <f>O57*COS($P$54)</f>
-        <v>-2.296100594190539</v>
+        <v>-1.9134171618254492</v>
       </c>
       <c r="Q57" s="1">
         <f>O57*SIN($P$54)</f>
-        <v>-5.54327719506772</v>
+        <v>-4.6193976625564339</v>
       </c>
     </row>
-    <row r="58" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J58" s="1">
         <v>56</v>
       </c>
@@ -12548,7 +12560,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="59" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J59" s="1">
         <v>57</v>
       </c>
@@ -12561,18 +12573,18 @@
         <v>-3.6140147619215837</v>
       </c>
       <c r="O59" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P59" s="1">
         <f>O59*COS($Q$54)</f>
-        <v>-2.2961005941905386</v>
+        <v>-1.9134171618254485</v>
       </c>
       <c r="Q59" s="1">
         <f>O59*SIN($Q$54)</f>
-        <v>5.54327719506772</v>
+        <v>4.6193976625564339</v>
       </c>
     </row>
-    <row r="60" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J60" s="1">
         <v>58</v>
       </c>
@@ -12585,18 +12597,18 @@
         <v>-3.0742645786248004</v>
       </c>
       <c r="O60" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="P60" s="1">
         <f>O60*COS($Q$54)</f>
-        <v>2.2961005941905386</v>
+        <v>1.9134171618254485</v>
       </c>
       <c r="Q60" s="1">
         <f>O60*SIN($Q$54)</f>
-        <v>-5.54327719506772</v>
+        <v>-4.6193976625564339</v>
       </c>
     </row>
-    <row r="61" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J61" s="1">
         <v>59</v>
       </c>
@@ -12609,7 +12621,7 @@
         <v>-2.2335839587113986</v>
       </c>
     </row>
-    <row r="62" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J62" s="1">
         <v>60</v>
       </c>
@@ -12622,7 +12634,7 @@
         <v>-1.1742645786248009</v>
       </c>
     </row>
-    <row r="63" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J63" s="1">
         <v>61</v>
       </c>
@@ -12635,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J64" s="1">
         <v>62</v>
       </c>

--- a/CEE2333TermProject/excel_check.xlsx
+++ b/CEE2333TermProject/excel_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrs196_pitt_edu/Documents/7_SupSenior Fall/CEE 2333/Matlab/CEE2333HW6b/CEE2333TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC04C50B-2F52-4673-9E08-E6EC8F0749C6}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FF81384-B1C2-46E0-ADEB-817723FE0CA7}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="9795" windowWidth="21600" windowHeight="11295" xr2:uid="{5E9F0EF5-0C21-4768-9B7E-F9FB9B3FDCA8}"/>
+    <workbookView xWindow="32220" yWindow="10485" windowWidth="21600" windowHeight="11295" xr2:uid="{5E9F0EF5-0C21-4768-9B7E-F9FB9B3FDCA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE374D1F-1D31-4D11-9393-28C52651BAA9}" type="CELLRANGE">
+                    <a:fld id="{AAEF3684-5831-46D4-B4D7-83CD34FD1F84}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -332,7 +332,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{404D0DD7-0D6C-49E6-82D5-482D0E049D61}" type="CELLRANGE">
+                    <a:fld id="{3B1908C2-ABAB-421E-BD84-517BF42DAA2E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -366,7 +366,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F5C9FB0-5218-4E8D-AA91-9FBBD747BD1A}" type="CELLRANGE">
+                    <a:fld id="{AEA6907D-DFC4-479A-A3CD-A07A4B7E8696}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -400,7 +400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02A4CBB0-CAA7-44AB-9479-DE6E589AEE8C}" type="CELLRANGE">
+                    <a:fld id="{95276EA8-E430-4F62-8BF5-EB94E197B41F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -434,7 +434,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39D952BA-71E7-44A9-9594-0C3326B67582}" type="CELLRANGE">
+                    <a:fld id="{A1ED9A0E-DF54-4C0F-B401-48F39A12EFD1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -468,7 +468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15F103A4-707B-4C38-8FDC-63FFEFE74DED}" type="CELLRANGE">
+                    <a:fld id="{806EF498-B6C4-4083-B1D9-47ECF61EC9A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -502,7 +502,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED0F6546-730E-40F8-AF8E-81B4974FFB46}" type="CELLRANGE">
+                    <a:fld id="{839E5678-E788-4D91-8B30-8D9C0671BAA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -536,7 +536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8195FA41-8345-4091-A221-056A1BD49904}" type="CELLRANGE">
+                    <a:fld id="{6FFD56D2-79B0-4A86-BB8B-BB7F9B4AC5F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -570,7 +570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2C2CFEA-DC55-44A7-9DD6-3F3BC9E5A050}" type="CELLRANGE">
+                    <a:fld id="{354EBA99-DF33-4611-8FA8-F239ABDD7DE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -604,7 +604,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54D02922-2AA5-4F14-8677-20AEEF1954D7}" type="CELLRANGE">
+                    <a:fld id="{E5F5AEBD-E919-4661-87DA-257B0CAE8C28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -638,7 +638,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76BB1F0B-67A7-4D70-8C7C-C45D4035A7A2}" type="CELLRANGE">
+                    <a:fld id="{A686F681-E8E7-4358-B382-D5736951CC07}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -672,7 +672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3364AE9-7857-48C9-BED1-CD72C71E28E9}" type="CELLRANGE">
+                    <a:fld id="{EB87B636-6D84-4E24-BD8E-40E0C751DB30}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -706,7 +706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD6AE387-FBAA-42E5-8A71-75C6B5401049}" type="CELLRANGE">
+                    <a:fld id="{85FB48F6-2050-4749-974D-9409DB104B37}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -740,7 +740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DCDD26F-4DBC-4DF2-85E5-7C955619D4DB}" type="CELLRANGE">
+                    <a:fld id="{51D9C20C-E6C8-4A4C-A990-A01A99CA2F2E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -774,7 +774,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B12C666-0E2F-4007-9ABA-E56035F431DA}" type="CELLRANGE">
+                    <a:fld id="{401D02E8-F88F-4D7A-8BA8-F59D1C52BA05}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -808,7 +808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8945B66-451B-47A7-8EBB-FA6194289733}" type="CELLRANGE">
+                    <a:fld id="{A97C8CD7-EC7F-4654-96C1-93A067BC549D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -842,7 +842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDB59ABF-83F4-41E2-B71C-A1CF9A74D6AE}" type="CELLRANGE">
+                    <a:fld id="{AA2FCA4A-66D0-4F6B-9BE5-B6F096D3BA49}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -876,7 +876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCAD8FEF-E51D-4FDD-844A-F6F1CA035274}" type="CELLRANGE">
+                    <a:fld id="{BED38A45-D6D2-47F6-9B8A-A9738BEEAEF7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -910,7 +910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2333ED2A-5F11-4C33-9102-07CE018BB8B0}" type="CELLRANGE">
+                    <a:fld id="{C83B776B-0D7B-4603-907D-5E3D72EC4D82}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -944,7 +944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49DD4CD1-710C-494C-A551-BBE1FA3EA950}" type="CELLRANGE">
+                    <a:fld id="{860108CE-97DA-4091-BEB1-D76AFDBA0736}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1263,7 +1263,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A3D79BB-1D22-4413-9CE5-03BCFD6B9885}" type="CELLRANGE">
+                    <a:fld id="{B3B70E6E-414C-481A-B671-5C04197B40AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1297,7 +1297,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92126266-8B8C-44A9-8273-D3DA19C41FE6}" type="CELLRANGE">
+                    <a:fld id="{7D528DD4-D270-4225-92F2-00D260F98F4D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1331,7 +1331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1ECBCAC0-E616-4093-94D1-02B1F5488C57}" type="CELLRANGE">
+                    <a:fld id="{4831F96B-3778-41D9-8648-C80D7569A037}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1365,7 +1365,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E0B08FE-0034-496F-9CCC-F5665790BEDE}" type="CELLRANGE">
+                    <a:fld id="{C21D890B-BDA6-4A60-A8DD-D801D18D7ACB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1399,7 +1399,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AEAF78E-CA73-4805-899F-24B6A0215242}" type="CELLRANGE">
+                    <a:fld id="{37AB4068-35CC-444F-890C-062409A54501}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1433,7 +1433,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B60B04B-289D-45F5-AAFA-2AFD5D959D13}" type="CELLRANGE">
+                    <a:fld id="{F656DE5F-34D0-4191-9CEC-BA738D289B48}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1467,7 +1467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E675B09-D907-4697-8A1B-67D09FA51235}" type="CELLRANGE">
+                    <a:fld id="{C167DD52-E2ED-46AE-A9B4-F5258BCBD2B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1501,7 +1501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{953C2583-5036-4CA0-8AFD-9A6CD99D3663}" type="CELLRANGE">
+                    <a:fld id="{D55A9164-0C73-403B-949F-07A838A7BE9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1535,7 +1535,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97CC4869-124D-4DF0-A737-97DB85D9E757}" type="CELLRANGE">
+                    <a:fld id="{516F2516-2750-4F56-AD0F-D2F29D2C8E53}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1569,7 +1569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A93A69B0-BED4-4DBB-B076-D1511FB65099}" type="CELLRANGE">
+                    <a:fld id="{EA0B3842-453B-43FF-8964-C14A0C4D8719}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1603,7 +1603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F923F6B-AE2F-47FC-B681-40E97ED77606}" type="CELLRANGE">
+                    <a:fld id="{397DC924-E0E0-4683-9296-17AEE6DFF21B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1637,7 +1637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{512C0E79-FF00-436E-B176-E8051698E436}" type="CELLRANGE">
+                    <a:fld id="{28C8F56E-CF03-45D9-9C5B-B414FB0EFDE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1671,7 +1671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B991BD5-1F8C-46E2-BC67-9403331D82C8}" type="CELLRANGE">
+                    <a:fld id="{62A0100E-EF16-453E-BAB0-14BA7B720BF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1705,7 +1705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69E3A8EB-485F-4D2F-B190-D4DC39516E80}" type="CELLRANGE">
+                    <a:fld id="{FFCDFE16-7264-4778-9374-B302AC98DC23}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1739,7 +1739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{265B8C00-5056-4C03-94C4-256D0626D6EE}" type="CELLRANGE">
+                    <a:fld id="{ACFC49D6-E147-4822-ACC8-1DC1EF257F03}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1773,7 +1773,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF563BFC-A2E3-47DA-8DB7-CCA0FB79175B}" type="CELLRANGE">
+                    <a:fld id="{40BEAB1D-0F4F-40ED-8FDC-55E6F4965FA7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1807,7 +1807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91926B00-7925-4BE8-8861-B48E89DDD080}" type="CELLRANGE">
+                    <a:fld id="{4E3160ED-DD1E-413D-98ED-1D1F8CF9AEDC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1841,7 +1841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D4E78AA-F72E-4AC1-B6DF-B8D65E7CC486}" type="CELLRANGE">
+                    <a:fld id="{34276ED0-2FA8-413E-B1B9-984148CF32D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1875,7 +1875,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C90058C-1CE3-42EB-AA1C-12E3F3E73991}" type="CELLRANGE">
+                    <a:fld id="{593AFFD5-1D19-4E90-9C31-B309398EF497}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1909,7 +1909,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B98C8574-183C-4AAE-9E34-3B62143C37E7}" type="CELLRANGE">
+                    <a:fld id="{A5472942-FAC8-43BF-A9DD-4E81F1EDE2DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2228,7 +2228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12435256-676E-4BB9-BD1D-A5EDCA7C60EC}" type="CELLRANGE">
+                    <a:fld id="{40DFB095-A8B1-4467-861D-322C121C3DAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2262,7 +2262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF378C40-8099-43C2-8BF0-5872C2B949C8}" type="CELLRANGE">
+                    <a:fld id="{A146FE7A-FD54-4C1F-A3BC-A3D29C4CE756}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2296,7 +2296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{157630D0-D1AC-45E8-80FD-67AB39F28DAF}" type="CELLRANGE">
+                    <a:fld id="{91CF6A06-61DB-469B-AB05-B2E2613815AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2330,7 +2330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41284005-4D5E-494E-B076-4563D30B1003}" type="CELLRANGE">
+                    <a:fld id="{56CC93BE-D894-4F38-BB9C-D5C130871D36}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2364,7 +2364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B149E7FD-A446-4100-9B11-DF6E56B0D1B9}" type="CELLRANGE">
+                    <a:fld id="{29FE6420-F99E-4F25-9466-83331EC0F64C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2398,7 +2398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C2C6B0A-9FD5-4862-A5F0-FDD5D7AFDC9C}" type="CELLRANGE">
+                    <a:fld id="{FE13C2C7-5810-4FF6-8260-1AF18CFBBC46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2432,7 +2432,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7638036F-877A-4FB1-9028-D69A23628E5A}" type="CELLRANGE">
+                    <a:fld id="{F37FF043-10E9-4C90-8C7B-9E0C5284FB1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2466,7 +2466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D43861D0-27BE-40EB-8220-95344A922E4F}" type="CELLRANGE">
+                    <a:fld id="{89A6D055-7A4D-4304-897B-65A41352F11D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2500,7 +2500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB9EF834-76C6-4F37-8A57-5D0779889680}" type="CELLRANGE">
+                    <a:fld id="{E932B0A7-1AEC-4762-B2D6-D5B234DC8001}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2534,7 +2534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7999287-D283-4A46-9005-E82875913DDD}" type="CELLRANGE">
+                    <a:fld id="{60149497-8647-40D4-9F2C-815A08A0B16B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2568,7 +2568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E632671-C9F2-4961-A2B4-BA3AF0632C03}" type="CELLRANGE">
+                    <a:fld id="{35117693-D1EB-45A1-9BF8-CF1451C5893E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2602,7 +2602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CE88E65-E380-4135-ACDE-365290BDB8D8}" type="CELLRANGE">
+                    <a:fld id="{577F95AF-C359-4102-A3AC-69EEC0AC7921}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2636,7 +2636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9547ED2-5D74-44F0-8125-A8CAC30D93A0}" type="CELLRANGE">
+                    <a:fld id="{34E539FF-76A7-48AE-BF7F-0A7628E59E55}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2670,7 +2670,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53A1F3F3-3A5B-4DA5-8B54-C02E4DD3A70B}" type="CELLRANGE">
+                    <a:fld id="{F7FD5319-C260-48DA-B7CB-F6CDFD04F201}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2704,7 +2704,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9F5141A-420D-432E-A76C-E7F1DCA0505B}" type="CELLRANGE">
+                    <a:fld id="{9FE5C1F0-70B6-48AA-8B6F-519FBD31E02D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2738,7 +2738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A79A199-DD42-4811-BE2F-D44540606A61}" type="CELLRANGE">
+                    <a:fld id="{16939321-37BC-4E53-8769-89E4EC89CEDC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2772,7 +2772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4561314-C9E1-4E5F-B728-5B94CD476EDC}" type="CELLRANGE">
+                    <a:fld id="{D9956153-3651-4F61-8A5F-7D192105752A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2806,7 +2806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{272D32D4-F74E-4628-B22F-D719DFB87F82}" type="CELLRANGE">
+                    <a:fld id="{2D6E68D8-025F-4315-990D-64076DB4737C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2840,7 +2840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38B1133D-D741-4BA8-9FA9-61E7FE6D1388}" type="CELLRANGE">
+                    <a:fld id="{0CFB04BD-4A7E-4CDD-973E-AD11F9E00557}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2874,7 +2874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A3DF7C2-EDE6-49E8-A33F-ABF79651785F}" type="CELLRANGE">
+                    <a:fld id="{A4EAA1CF-7833-4F91-BDE4-44C35C220877}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3193,7 +3193,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3A12740-B2A6-4EF2-8AB5-8E4CE0324842}" type="CELLRANGE">
+                    <a:fld id="{28083A3F-8118-4029-AB29-94B7D77E9711}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3227,7 +3227,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54EB9005-65F6-45AF-94C0-CBA8F241C0B2}" type="CELLRANGE">
+                    <a:fld id="{1C0A277A-D7C8-496C-9D78-3360ACD90C84}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3261,7 +3261,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89977FB1-E57C-477E-9540-3A8D8E7B7049}" type="CELLRANGE">
+                    <a:fld id="{DC84CC79-EC78-4EFD-9332-0B2E648EA257}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3295,7 +3295,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4F01967-123E-48EC-BFAD-1E60D562B44F}" type="CELLRANGE">
+                    <a:fld id="{F0BEDB0B-9591-4631-BAB5-8B4B35677AA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3329,7 +3329,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62FEDE06-C570-4EA3-A54A-4963C687CD81}" type="CELLRANGE">
+                    <a:fld id="{6E45D26F-15F3-4BCA-B5C4-06111B02F877}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3363,7 +3363,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79830343-2F0B-46E4-A0D5-857C98C8CC8D}" type="CELLRANGE">
+                    <a:fld id="{D14A1586-036C-4E3D-BFF8-373669B6D150}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3397,7 +3397,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71FF48B8-00E7-483B-AF8F-BF8502102057}" type="CELLRANGE">
+                    <a:fld id="{EC7DB082-50FF-4AF6-89DF-F578950A99C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3431,7 +3431,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF1EC516-6AC9-434A-A1AA-B0A3EDD7AD7A}" type="CELLRANGE">
+                    <a:fld id="{D780CA6C-7B2C-46E5-942C-A7D081A8AE64}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3465,7 +3465,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73616C55-A331-4386-A969-56F59DABD985}" type="CELLRANGE">
+                    <a:fld id="{0A88FC58-E94C-4D80-ABAA-69FE44C425E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3499,7 +3499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3232C70-3127-47DB-A4EE-36F2DEC0F3C4}" type="CELLRANGE">
+                    <a:fld id="{188C7D55-3AD5-4143-BBAC-47B3343C5AEA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3533,7 +3533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2F4EC7F-375C-4FCF-9C45-59AE95CE0628}" type="CELLRANGE">
+                    <a:fld id="{6F5D9D9E-04CE-41C3-B3AE-0579ABD8F1D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3567,7 +3567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47C07058-A857-4E41-8CA0-A05F9615DDEC}" type="CELLRANGE">
+                    <a:fld id="{0DC2A0D1-EB58-4472-A6BC-35F4486B9DFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3601,7 +3601,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{397F40A3-2E9A-4902-8515-0B1780F62A2F}" type="CELLRANGE">
+                    <a:fld id="{56B79FB7-3A86-4D2F-901C-C37452190697}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3635,7 +3635,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26430B77-5E30-4519-BB63-9C213180C8AF}" type="CELLRANGE">
+                    <a:fld id="{D0672873-8422-4B07-A051-401D225E0D33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3669,7 +3669,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A00E02D9-E5E9-4B19-A8E6-9DFC4824D286}" type="CELLRANGE">
+                    <a:fld id="{2003FAC2-0B7F-41CE-BE8A-974BE0937B89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3703,7 +3703,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F48D54DC-95DC-43A6-BAC8-3C850E2400F9}" type="CELLRANGE">
+                    <a:fld id="{0C7E8512-ACD8-44E9-8F06-FC4E5F6AE90C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3737,7 +3737,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{755AE5A2-5B84-4AE1-A0DE-42C5A8EEA503}" type="CELLRANGE">
+                    <a:fld id="{6AC5A061-5A92-4085-8F30-C7F2173C0574}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3771,7 +3771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04A75022-B91D-4F12-AD1E-8AC0FFD4266C}" type="CELLRANGE">
+                    <a:fld id="{36325B31-FF44-4A56-8AFD-FAD5780C1982}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3805,7 +3805,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76F13C19-8EA7-46A1-A14E-2EC806896CF7}" type="CELLRANGE">
+                    <a:fld id="{3C04642B-FF0B-48FB-90E8-3A1F28EC2ABA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3839,7 +3839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0BD636B-CD7C-414F-ADAC-D39A5AA936E1}" type="CELLRANGE">
+                    <a:fld id="{31E654FB-AB99-4C6D-9DA6-419299431998}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4158,7 +4158,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5DA22FF-0825-473D-8033-E07AA7032CCF}" type="CELLRANGE">
+                    <a:fld id="{B59FBF8F-0E0A-4412-A6BE-4D887DAB9E39}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4192,7 +4192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{185C7AF6-13E4-41D8-892B-A19FFA509741}" type="CELLRANGE">
+                    <a:fld id="{359C8E5F-618E-45F1-8651-3369A27DC25E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4226,7 +4226,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF75B48F-6118-44CD-9BFF-4FF35142AB81}" type="CELLRANGE">
+                    <a:fld id="{AFEF6595-A755-4D90-97AB-CBBCA981B758}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4260,7 +4260,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8C698C5-C63E-46E4-A8E4-46E583DEDDA0}" type="CELLRANGE">
+                    <a:fld id="{C71F2C19-12C7-4FE3-B937-79059D9ACFB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4294,7 +4294,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A53F796-B5FB-4EA9-8CEC-995B399051F5}" type="CELLRANGE">
+                    <a:fld id="{7A6B96C1-BEF0-4B25-ADB1-1EDE45274769}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4328,7 +4328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EED7DF1-FDBA-4F2D-B8A5-20D5830320EA}" type="CELLRANGE">
+                    <a:fld id="{A920C599-62E0-425F-8CB9-94B060EE7FE2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4362,7 +4362,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DBB7D96-28BB-43D2-999D-02214DE0A543}" type="CELLRANGE">
+                    <a:fld id="{91FD0C73-D955-436A-A273-E28A7DBCF4A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4396,7 +4396,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18F4F82D-94C6-4EF9-ABF0-D73C4D50B06C}" type="CELLRANGE">
+                    <a:fld id="{D40BE04D-207D-47B0-94AD-FAD519CE74D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4430,7 +4430,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C5FAF5D-291F-4A03-957A-7185A1CB7370}" type="CELLRANGE">
+                    <a:fld id="{3151F2E8-DFB9-4B28-82EB-252C925F14C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4464,7 +4464,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{100F5396-9980-474F-AD92-72B0BFEC6FE1}" type="CELLRANGE">
+                    <a:fld id="{C5552E59-598E-4B6B-8AD3-88BE6CE58C52}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4498,7 +4498,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89823163-A94B-4D64-9049-43724101AC53}" type="CELLRANGE">
+                    <a:fld id="{25035901-0556-4853-839F-C0D8E858D31B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4532,7 +4532,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEC8328D-A43F-4217-B45E-0A87E6855E5B}" type="CELLRANGE">
+                    <a:fld id="{33AEA960-C700-424F-88BA-EC53B73287DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4566,7 +4566,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECC1E722-4859-4A20-8732-722D42243F2E}" type="CELLRANGE">
+                    <a:fld id="{E720E899-1B7D-47DB-B819-8F059543C977}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4600,7 +4600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F18ADA8D-41BC-4972-A556-494C31CF44A1}" type="CELLRANGE">
+                    <a:fld id="{F4070F55-D538-484A-8CE2-49268CD3AEF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4634,7 +4634,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6475958A-F669-451D-9D64-C6F13C82BE13}" type="CELLRANGE">
+                    <a:fld id="{B4855ACF-C2AE-409D-83D0-F77C281FA79D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4668,7 +4668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF52F9B6-7FE4-4752-ACA5-D6447CD9DD0A}" type="CELLRANGE">
+                    <a:fld id="{A382699F-1BDA-4F12-A0B3-FB81FC5F0F78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4702,7 +4702,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F95EA1A-B163-47E5-9F12-6984B3DB9F87}" type="CELLRANGE">
+                    <a:fld id="{EF4527CB-39E7-42D2-954A-9A15E26D2C5F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4736,7 +4736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8039D4E3-865E-4399-90BF-DBD918932D3B}" type="CELLRANGE">
+                    <a:fld id="{C3E5C1FE-CA35-4BED-8E80-441F5D71D6B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4770,7 +4770,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E48CCCAA-1D73-4956-9E6E-0544C3E40473}" type="CELLRANGE">
+                    <a:fld id="{4C92861E-368B-45AB-9681-1E5C4A001A26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4804,7 +4804,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C63A86B0-FF71-4129-93CD-2D6170A567A7}" type="CELLRANGE">
+                    <a:fld id="{BE813D0E-94EE-447D-81B6-44D3129A84A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5123,7 +5123,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60FE7E44-C399-45B5-90AD-C20BA6EF48DA}" type="CELLRANGE">
+                    <a:fld id="{8005631E-CF9A-405A-B90A-CE1AB2251F1B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5157,7 +5157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16F06987-1181-443E-9F5B-8786D50A40C0}" type="CELLRANGE">
+                    <a:fld id="{36409929-7311-4CB3-9FE7-8FDA7885D436}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5191,7 +5191,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85375A69-21D0-4149-A525-1F8CA3F14D58}" type="CELLRANGE">
+                    <a:fld id="{559D3958-277F-4949-A093-EA383511258D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5225,7 +5225,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A95C0B20-5850-4E92-B25C-A99B6AB9DB63}" type="CELLRANGE">
+                    <a:fld id="{7F22F31C-2EB7-4E30-B9B1-A8EE566C855D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5259,7 +5259,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5658001E-7FBE-414E-83E8-87BD1854D6C3}" type="CELLRANGE">
+                    <a:fld id="{3754B97E-4F06-454C-B597-DFB92F6534D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5293,7 +5293,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2A6396C-CA01-4FCF-B071-D8489946E97B}" type="CELLRANGE">
+                    <a:fld id="{6241E1B0-2B36-4D62-96C0-E0D202A19549}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5327,7 +5327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1356A58F-CAA6-4699-8328-58FC2FD783DF}" type="CELLRANGE">
+                    <a:fld id="{CD22230A-C5DE-496A-B48E-7F6F80B47703}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5361,7 +5361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A256B93E-2349-49D9-AB7A-471B4CFDDDF8}" type="CELLRANGE">
+                    <a:fld id="{0D559698-0CF5-4DAC-84D7-688500679739}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5395,7 +5395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51084127-3FF7-4D5A-8CAF-B2684814032A}" type="CELLRANGE">
+                    <a:fld id="{23497CD8-EFA1-4B46-9234-E082BCC12224}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5429,7 +5429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{115EE205-9F3F-43A6-9E04-B3A634D0A32B}" type="CELLRANGE">
+                    <a:fld id="{E8B7B46E-F9ED-4C79-A900-70864443C5AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5463,7 +5463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42F670C2-B064-4C47-8E7F-6E5934289AA5}" type="CELLRANGE">
+                    <a:fld id="{BD537D32-AAEF-43D5-857E-F189EADF95CF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5497,7 +5497,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F1E1B0A-02FB-4EEC-9942-5068A9D16706}" type="CELLRANGE">
+                    <a:fld id="{3F412F21-688C-4CBB-872C-799E4E7E6D3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5531,7 +5531,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B32BA1AD-8B5F-4998-AC26-AA0DAACF601E}" type="CELLRANGE">
+                    <a:fld id="{72C36C88-FDA7-4123-889B-11429DD3D9E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5565,7 +5565,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91591D63-F051-4F2A-8879-572B2DBA909A}" type="CELLRANGE">
+                    <a:fld id="{E436DD6C-3093-4211-BD3B-D139CE395E27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5599,7 +5599,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C15D0EB-6E14-4B54-86D5-7112DE2FE932}" type="CELLRANGE">
+                    <a:fld id="{BB98C8C9-BD4A-46AB-A97F-7C55BA79979F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5633,7 +5633,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B473E939-BDDB-484E-8B47-66114395CD3B}" type="CELLRANGE">
+                    <a:fld id="{6DF959A3-B4A1-4EDC-8C4D-A6C2DD2C27C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5667,7 +5667,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2E17C59-6D66-49A6-84E4-C6E25E87D697}" type="CELLRANGE">
+                    <a:fld id="{B499C674-C297-4553-9B97-875101874250}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5701,7 +5701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC4FDACB-9FB8-46DB-966F-DC009818E2A1}" type="CELLRANGE">
+                    <a:fld id="{1910F67F-F22F-436E-929A-C90CD1893BD2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5735,7 +5735,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BB5F187-FB0E-4044-B9EA-7CC24CD7BCC9}" type="CELLRANGE">
+                    <a:fld id="{98E3A36F-5397-41A6-AD55-2513ECF4275D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5769,7 +5769,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3316E1B-BD53-4FE2-8D8C-967B040AFBB7}" type="CELLRANGE">
+                    <a:fld id="{978E7C57-25E7-46A3-8DB7-28EE5BC74889}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6093,19 +6093,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>2.9389262614623659</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>2.5862551100868818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7552825814757673</c:v>
+                  <c:v>1.5450849718747373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1846486716986755</c:v>
+                  <c:v>1.3596747752497689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>2.9389262614623659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6117,19 +6117,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.0450849718747373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.5596747752497691</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.545084971874737</c:v>
+                  <c:v>4.7552825814757673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3596747752497687</c:v>
+                  <c:v>4.1846486716986755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.0450849718747373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6525,7 +6525,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{859B7A7C-A08A-4C30-B238-3938D69F9461}" type="CELLRANGE">
+                    <a:fld id="{D5CE2D70-70F3-4860-AA1E-CE0282CDF485}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6559,7 +6559,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DBD78EA-FFE3-411E-BEEF-F292188AB837}" type="CELLRANGE">
+                    <a:fld id="{2B0002DD-C9C1-4E3E-A360-E1EF1FE1151E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6593,7 +6593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91F47F02-BC75-4A1D-A74A-48B3551ACAC8}" type="CELLRANGE">
+                    <a:fld id="{9AC6EDAC-C458-4B69-9258-6F98DD37CB91}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6627,7 +6627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71F43322-A062-4D74-9E8B-9F904E68A948}" type="CELLRANGE">
+                    <a:fld id="{9CCA57F8-CE54-4304-B877-D10F72902B6A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6661,7 +6661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{022773D8-8794-4BEF-985D-345B9C3C4875}" type="CELLRANGE">
+                    <a:fld id="{8A831427-9325-4645-BB79-431ADA84281C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6695,7 +6695,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F1028F2-6E45-442F-AA4F-666BBF918257}" type="CELLRANGE">
+                    <a:fld id="{FB46978D-6752-447D-AE5D-2D7999BA8682}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6930,7 +6930,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23D68627-AB5C-4343-9CD6-9626B3DB5AA0}" type="CELLRANGE">
+                    <a:fld id="{52916CC8-23CE-48BA-B4EA-1D8BEDDC71DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6964,7 +6964,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97C0291E-7B78-47E5-99F1-635291C9940E}" type="CELLRANGE">
+                    <a:fld id="{EA0CA11C-E1E8-402D-8306-BFD0E9EC7101}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6998,7 +6998,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A628CB5-4A2A-46F6-B5B7-2D9767554817}" type="CELLRANGE">
+                    <a:fld id="{F6F223A6-1380-461F-A3A3-DDBF70FCBC36}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7032,7 +7032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCED6411-85E6-486F-A454-A68956F8E372}" type="CELLRANGE">
+                    <a:fld id="{21B2226D-AE2C-44FF-BB7B-BF3DB848213E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7066,7 +7066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5411142A-A16A-4C69-B395-686FC32429C4}" type="CELLRANGE">
+                    <a:fld id="{48EFEB6A-4FEE-4C0D-A445-08FEB24F831A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7100,7 +7100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C41666D-BB67-4932-A813-883B4ECE7EAF}" type="CELLRANGE">
+                    <a:fld id="{A653C530-F7D0-4727-B698-D433DCA883C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7293,7 +7293,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8BF6DF4-B06B-4817-91BB-2A4FC9C841AA}" type="CELLRANGE">
+                    <a:fld id="{5A6B9D70-A71F-4F0C-BF8A-B974D7DB6DA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7327,7 +7327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0FAAE39-3F40-487B-9667-D7983156BC0A}" type="CELLRANGE">
+                    <a:fld id="{59571587-0B45-4BD2-94E4-BC2E2282582C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7361,7 +7361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F5E23FA-09D4-4028-AC54-D907AC67B0F1}" type="CELLRANGE">
+                    <a:fld id="{0D7C184A-B1EF-4EE6-B515-7610EA9107A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7395,7 +7395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B5FBE5B-526A-4CB9-9FD9-D1A41B0218DC}" type="CELLRANGE">
+                    <a:fld id="{BD86D71C-8CBE-449F-BA26-FBEF0A323BD8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7429,7 +7429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A08971F8-8D0D-48A8-AAE0-A1A632AE8B12}" type="CELLRANGE">
+                    <a:fld id="{9BA0745D-D1E6-444A-B2ED-5689967938B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7463,7 +7463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F05CAD4-7C21-4ACB-A842-3E516120B65A}" type="CELLRANGE">
+                    <a:fld id="{287E676B-3AC2-4A0A-97D2-12BB1B8543ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7656,7 +7656,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B146C7A-893C-4514-8EF9-32B37B9F0184}" type="CELLRANGE">
+                    <a:fld id="{6A613CF2-6A0E-4ED4-843D-B2B6B2BBA451}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7690,7 +7690,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FD3BF01-54A6-4B75-9232-31FF044146E7}" type="CELLRANGE">
+                    <a:fld id="{648B3FF2-52F6-4D9C-AE50-0FBE31036869}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7724,7 +7724,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55255F16-8D13-4C26-9662-86D6D4345467}" type="CELLRANGE">
+                    <a:fld id="{3F735642-D4BA-4367-861F-422A599144BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7758,7 +7758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33B8E750-AF1A-4CB6-AA30-7F4C5407DAE5}" type="CELLRANGE">
+                    <a:fld id="{C82BC9F5-87AB-44AE-BAA2-7A789B60F0F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7792,7 +7792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13212770-4813-4335-B0A4-4E51E290660D}" type="CELLRANGE">
+                    <a:fld id="{F8D2412B-B3A4-4E0E-8241-FD862790C51A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7826,7 +7826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{040E21AC-8326-4F73-A697-D4B077ED5859}" type="CELLRANGE">
+                    <a:fld id="{6F758B26-7D1F-4672-ABFE-32F9479A6209}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8019,7 +8019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA29EBD5-526D-42F0-96B9-D0B04CDEF079}" type="CELLRANGE">
+                    <a:fld id="{066680A1-BC3D-41C2-8485-F5DCF4AA68F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8053,7 +8053,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54C19B4C-A8C4-4D5F-88B7-8583F7994220}" type="CELLRANGE">
+                    <a:fld id="{D1D5312C-AA1E-4E3C-8857-C135D5776AB3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8087,7 +8087,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88BD1E71-6EDD-40FE-90C9-6297694E979E}" type="CELLRANGE">
+                    <a:fld id="{3186A38B-543A-4A94-81BE-6136624E60B4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8121,7 +8121,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA2EF9C6-6341-412A-87CF-F3995E99CAE3}" type="CELLRANGE">
+                    <a:fld id="{B683388C-CD31-4D47-9A30-527D93D2B9CE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8155,7 +8155,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64381832-5DB5-470C-BA72-29E1E68780EA}" type="CELLRANGE">
+                    <a:fld id="{D9CBC8B4-7B7E-44E2-96E5-9EFA2C607DF5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8189,7 +8189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CE9BA2F-FC9C-4808-B5B0-6681063539F7}" type="CELLRANGE">
+                    <a:fld id="{D792AE02-26C1-41D1-8FF9-06A92360CD5E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8382,7 +8382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B62D858C-7FAC-40ED-B897-4316F852D001}" type="CELLRANGE">
+                    <a:fld id="{2C5C95E0-EE78-41CA-8C00-9CE463E28A0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8416,7 +8416,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AFD7A26-1716-47A5-BF88-707CDC2E155B}" type="CELLRANGE">
+                    <a:fld id="{4DD62E22-6FB2-4B4F-8558-2D0E282DF42F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8450,7 +8450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E29AAFD5-8787-4AEA-BF55-468148D2EC24}" type="CELLRANGE">
+                    <a:fld id="{FB90FF9E-B3BC-4451-A74C-325CF8D7F229}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8484,7 +8484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{182BAB1A-0352-49FA-A78C-B64E577887E1}" type="CELLRANGE">
+                    <a:fld id="{704C75B9-989D-4630-A24C-912A0532FB01}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8518,7 +8518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45D356BE-5560-46E4-B83D-5855C7720946}" type="CELLRANGE">
+                    <a:fld id="{A2B050D6-0BA6-47A7-BB86-DC79BB8A8D93}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8552,7 +8552,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A3DE751-36DD-4305-8497-6541FFF25235}" type="CELLRANGE">
+                    <a:fld id="{7857F7B1-3B38-44A0-891D-F317C6C0EE09}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8750,19 +8750,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>2.9389262614623659</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>2.5862551100868818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7552825814757673</c:v>
+                  <c:v>1.5450849718747373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1846486716986755</c:v>
+                  <c:v>1.3596747752497689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>2.9389262614623659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8774,19 +8774,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.0450849718747373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.5596747752497691</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.545084971874737</c:v>
+                  <c:v>4.7552825814757673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3596747752497687</c:v>
+                  <c:v>4.1846486716986755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.0450849718747373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10618,8 +10618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413C7FC3-0C83-4C30-A1A0-0013B4B44AF7}">
   <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11024,6 +11024,10 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="M8" s="1">
+        <f>(K8-K7)*1000</f>
+        <v>-1545.084971874737</v>
+      </c>
       <c r="R8" s="1">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -11585,6 +11589,10 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
+      <c r="O18" s="1">
+        <f>1000*1.5451/2</f>
+        <v>772.55</v>
+      </c>
       <c r="R18" s="1">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -11660,13 +11668,17 @@
       <c r="AE19" s="9"/>
     </row>
     <row r="20" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <f>SQRT((C22-C20)^2+(D22-D20)^2)</f>
+        <v>1.5643446504023086</v>
+      </c>
       <c r="C20" s="1">
-        <f>K3</f>
-        <v>5</v>
+        <f>K6</f>
+        <v>2.9389262614623659</v>
       </c>
       <c r="D20" s="1">
-        <f>L3</f>
-        <v>0</v>
+        <f>L6</f>
+        <v>4.0450849718747373</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="3"/>
@@ -11690,6 +11702,10 @@
       <c r="L20" s="1">
         <f t="shared" si="1"/>
         <v>-4.0450849718747381</v>
+      </c>
+      <c r="O20" s="1">
+        <f>1.0255*1000</f>
+        <v>1025.5</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="5"/>
@@ -11718,12 +11734,12 @@
     </row>
     <row r="21" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <f>K23</f>
-        <v>4.4000000000000004</v>
+        <f>K26</f>
+        <v>2.5862551100868818</v>
       </c>
       <c r="D21" s="1">
-        <f>L23</f>
-        <v>0</v>
+        <f>L26</f>
+        <v>3.5596747752497691</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="3"/>
@@ -11747,6 +11763,10 @@
       <c r="L21" s="1">
         <f t="shared" si="1"/>
         <v>-2.9389262614623668</v>
+      </c>
+      <c r="O21" s="1">
+        <f>476.94+277</f>
+        <v>753.94</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="5"/>
@@ -11775,12 +11795,16 @@
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
-        <f>K4</f>
+        <f>K7</f>
+        <v>1.5450849718747373</v>
+      </c>
+      <c r="D22" s="1">
+        <f>L7</f>
         <v>4.7552825814757673</v>
       </c>
-      <c r="D22" s="1">
-        <f>L4</f>
-        <v>1.545084971874737</v>
+      <c r="E22" s="1">
+        <f>C20-C22</f>
+        <v>1.3938412895876287</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="3"/>
@@ -11804,6 +11828,14 @@
       <c r="L22" s="1">
         <f t="shared" si="1"/>
         <v>-1.5450849718747381</v>
+      </c>
+      <c r="N22" s="1">
+        <f>1398*(1.5643-1.398/2)/1.5643</f>
+        <v>773.31036246244344</v>
+      </c>
+      <c r="O22" s="1">
+        <f>99+171</f>
+        <v>270</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="5"/>
@@ -11832,12 +11864,12 @@
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
-        <f>K24</f>
+        <f>K27</f>
+        <v>1.3596747752497689</v>
+      </c>
+      <c r="D23" s="1">
+        <f>L27</f>
         <v>4.1846486716986755</v>
-      </c>
-      <c r="D23" s="1">
-        <f>L24</f>
-        <v>1.3596747752497687</v>
       </c>
       <c r="J23" s="1">
         <v>21</v>
@@ -11849,6 +11881,14 @@
       <c r="L23" s="5">
         <f t="shared" ref="L23:L42" si="14">($T3-L$2*$D$15)*SIN($S3)</f>
         <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <f>1389-N22</f>
+        <v>615.68963753755656</v>
+      </c>
+      <c r="O23" s="1">
+        <f>1000*1.0255</f>
+        <v>1025.5</v>
       </c>
       <c r="AB23" s="1">
         <v>21</v>
@@ -11866,11 +11906,11 @@
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <f>C20</f>
-        <v>5</v>
+        <v>2.9389262614623659</v>
       </c>
       <c r="D24" s="1">
         <f>D20</f>
-        <v>0</v>
+        <v>4.0450849718747373</v>
       </c>
       <c r="J24" s="1">
         <v>22</v>
@@ -11882,6 +11922,10 @@
       <c r="L24" s="5">
         <f t="shared" si="14"/>
         <v>1.3596747752497687</v>
+      </c>
+      <c r="O24" s="1">
+        <f>727+423</f>
+        <v>1150</v>
       </c>
       <c r="AB24" s="1">
         <v>22</v>
@@ -11908,6 +11952,10 @@
         <f t="shared" si="14"/>
         <v>2.5862551100868818</v>
       </c>
+      <c r="O25" s="1">
+        <f>782+782</f>
+        <v>1564</v>
+      </c>
       <c r="AB25" s="1">
         <v>23</v>
       </c>
@@ -12521,6 +12569,14 @@
       <c r="Q56" s="1">
         <f>O56*SIN($P$54)</f>
         <v>4.6193976625564339</v>
+      </c>
+      <c r="R56" s="1">
+        <f>P56-E22</f>
+        <v>0.51957587223782054</v>
+      </c>
+      <c r="S56" s="1">
+        <f>P56-E22</f>
+        <v>0.51957587223782054</v>
       </c>
     </row>
     <row r="57" spans="10:24" x14ac:dyDescent="0.25">

--- a/CEE2333TermProject/excel_check.xlsx
+++ b/CEE2333TermProject/excel_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrs196_pitt_edu/Documents/7_SupSenior Fall/CEE 2333/Matlab/CEE2333HW6b/CEE2333TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78ACD7D1-DFE8-481B-BE53-4F8353DC7BC2}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{6855B44E-A6C3-47A7-84C0-BBC74D02DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B331F463-A8FB-41E8-97F2-6C8922A787DD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6945" windowWidth="29040" windowHeight="15720" xr2:uid="{5E9F0EF5-0C21-4768-9B7E-F9FB9B3FDCA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E9F0EF5-0C21-4768-9B7E-F9FB9B3FDCA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1574,7 +1574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AA29A2E-FD01-43C4-BBA5-738C2F7123C2}" type="CELLRANGE">
+                    <a:fld id="{95062E5A-8F88-4096-8DB6-C17FAFB52C33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1608,7 +1608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A760D12B-4C73-4ABD-A498-98D79032F053}" type="CELLRANGE">
+                    <a:fld id="{B57CBD5B-6B57-408C-A359-D499355D1CF8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1642,7 +1642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D25D5C46-863F-4236-8A24-57396F6AEB67}" type="CELLRANGE">
+                    <a:fld id="{155B65C1-EACB-4186-A705-3B5583C601FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1676,7 +1676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A303E77D-B5D6-4B9D-A2FD-4AA8FA27B408}" type="CELLRANGE">
+                    <a:fld id="{806B6ECC-6FAB-4006-8E77-65301D014A3E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1710,7 +1710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A3FBA71-E74E-47EF-A429-DBE548DD1408}" type="CELLRANGE">
+                    <a:fld id="{1B9CF2D6-D7B9-42F6-B348-ADF9D79AB6E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1744,7 +1744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F35C8FBF-6FF4-4BB2-B1D6-39AFF960DC93}" type="CELLRANGE">
+                    <a:fld id="{13635653-5C8B-4FA2-8788-2D789B63C942}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1778,7 +1778,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3652881C-7F27-4325-87A9-1E8F4B1DA571}" type="CELLRANGE">
+                    <a:fld id="{833B2381-F597-4045-A525-C64E92A62FB0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1812,7 +1812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C64D5383-6E19-4968-B1FA-50AC6930EA5C}" type="CELLRANGE">
+                    <a:fld id="{0299C26D-66A8-4929-A14A-3BE8C4F8C3FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1846,7 +1846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4D9E014-5C2C-4230-B6FD-81A6413AAB4A}" type="CELLRANGE">
+                    <a:fld id="{09777B32-E2AF-44FF-A0FA-2F4B54C89058}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1880,7 +1880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{687F63E9-C0C5-4346-91A1-21D954BFAC25}" type="CELLRANGE">
+                    <a:fld id="{5BD1E5C6-F426-4BE7-8F1B-81D15CD1BC4C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1914,7 +1914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D303143-99CB-48EF-818F-89475A551EDC}" type="CELLRANGE">
+                    <a:fld id="{6466E526-3377-4CB5-AB84-8AB89A183180}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1948,7 +1948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E6306F6-B09E-4867-9000-E2E2B48556A0}" type="CELLRANGE">
+                    <a:fld id="{40B2191F-64DE-4E63-BA55-A54F384EF9B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1982,7 +1982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5999FF96-B653-4E1C-885F-92F7144125C5}" type="CELLRANGE">
+                    <a:fld id="{E01BD42E-3D76-4F3E-8F98-48BA361CCB52}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2016,7 +2016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E509BDA-C3D4-4640-8B80-5D4C871ACFC1}" type="CELLRANGE">
+                    <a:fld id="{003D48FA-5C81-40F5-8B8D-4704E94F051A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2050,7 +2050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6963CCE4-4A2E-4AB6-A3F9-92DE970EE64B}" type="CELLRANGE">
+                    <a:fld id="{5DA60A65-97D1-40A3-A524-B3416BA3F743}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2084,7 +2084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED3DA495-C11C-4409-959B-6DAF8AA76561}" type="CELLRANGE">
+                    <a:fld id="{2880968D-E137-4BEA-9CFA-DD62EB5DEBD1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2118,7 +2118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB9EF6CD-FC18-4B86-92DD-997BB5594C6B}" type="CELLRANGE">
+                    <a:fld id="{4ABD1822-5724-44DC-A54C-9D5BDC178381}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2152,7 +2152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{780ADD48-0DB8-4218-91E8-CC7F5752E745}" type="CELLRANGE">
+                    <a:fld id="{BFC8AC95-AB58-4B1C-98BC-67945CD5B270}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2186,7 +2186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5AB19F1-54E6-4E6E-9A6A-0FBC6207C80A}" type="CELLRANGE">
+                    <a:fld id="{68DD6473-AB2C-4176-8D8F-A2D7CE26CD83}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2220,7 +2220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1969B9B-EBBE-4FD2-A730-1C53D5B914B6}" type="CELLRANGE">
+                    <a:fld id="{B226F5B7-C278-4AC0-B207-C4EF57A65311}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2539,7 +2539,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AEEE7B7-7485-4857-8807-8E07F9B38C78}" type="CELLRANGE">
+                    <a:fld id="{5D4191CA-3D48-4E00-8EC1-2E4E1E47CC88}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2573,7 +2573,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{102BFD2C-85A4-4640-97E5-B18C60E69BDE}" type="CELLRANGE">
+                    <a:fld id="{538C1D5C-8D51-4673-82FE-E9E63112CEDC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2607,7 +2607,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{300C9AC4-1D4B-4F47-9C2F-09DB41632621}" type="CELLRANGE">
+                    <a:fld id="{D7CDEB26-8E7F-4B28-93DA-B2617D8FF6A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2641,7 +2641,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22E16BC9-0C7A-4C08-B870-190AF89D7F12}" type="CELLRANGE">
+                    <a:fld id="{D4C0D80F-41E5-4441-B35D-1A3972BB7E30}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2675,7 +2675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A66E22C-1AE7-4938-8647-924AD639F762}" type="CELLRANGE">
+                    <a:fld id="{EDD10876-F12C-447E-99E4-E63EA4AA2381}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2709,7 +2709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C5B0D62-272A-4ACC-9F96-1ACB5F245A84}" type="CELLRANGE">
+                    <a:fld id="{C19DBB1F-986A-41F1-A853-A1A9E7BA02AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2743,7 +2743,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9075E5E1-9822-42E6-AD03-9EAB9E5E303E}" type="CELLRANGE">
+                    <a:fld id="{052FD805-E55D-4B20-81E4-19D33B6F8A37}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2777,7 +2777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55D32266-51D7-44EA-A148-2044270B2EA2}" type="CELLRANGE">
+                    <a:fld id="{46B60BFA-A3A9-462C-BC41-DEB32633621E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2811,7 +2811,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71C8EA97-B661-4DB6-8064-57691CBDFA23}" type="CELLRANGE">
+                    <a:fld id="{39938CD8-5073-40F0-A33C-C4713F9C431D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2845,7 +2845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE2BE0EA-A279-4699-8AAC-141A702C233D}" type="CELLRANGE">
+                    <a:fld id="{F0637D78-EE24-499D-8ED3-3A23221D6BE3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2879,7 +2879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCEC4DBB-44CA-4766-9AE4-DAB3CED96C50}" type="CELLRANGE">
+                    <a:fld id="{3AEBBA61-9B33-4EBA-BAAA-97D9B21F6994}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2913,7 +2913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D21AA636-0F78-49FA-86F4-D0B386AC3FCC}" type="CELLRANGE">
+                    <a:fld id="{FA0F517F-4CC6-4741-AC96-CA6D04F5DD05}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2947,7 +2947,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30C5E53F-5ED2-4C8B-880E-8C197BF178F7}" type="CELLRANGE">
+                    <a:fld id="{520C4C77-C69F-42B9-B9AF-20BD11FDE47D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2981,7 +2981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32897C94-D855-4A34-9ECE-40331F6FB09F}" type="CELLRANGE">
+                    <a:fld id="{45308956-33EC-44A0-B8BE-6AB9B5A5A3D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3015,7 +3015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B5036D3-F2EF-4E76-B0D9-6B6D6BA3E885}" type="CELLRANGE">
+                    <a:fld id="{DC1569F6-011D-4FB5-87BA-1DBF38B127FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3049,7 +3049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{219ACA27-2436-4344-9995-456519FAB432}" type="CELLRANGE">
+                    <a:fld id="{78398883-54CB-418C-9D2C-D3EA12C45F97}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3083,7 +3083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AF93508-278B-4FCC-A04F-0E79E4EDB2FC}" type="CELLRANGE">
+                    <a:fld id="{DD354A3A-31DA-4A6D-82F2-2156344C6A03}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3117,7 +3117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9CB6DDC-229C-4FAA-8AC3-9AE9C9839140}" type="CELLRANGE">
+                    <a:fld id="{CFF5280B-9AB9-4BED-8A16-B2CEF671B434}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3151,7 +3151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D663C11F-818E-4C3F-87C4-6E7B87E7E6E0}" type="CELLRANGE">
+                    <a:fld id="{8E7A6FFF-2C60-4385-9267-E1EBFCB50D75}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3185,7 +3185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95241AB7-829C-4E2F-A431-A39A0A85985D}" type="CELLRANGE">
+                    <a:fld id="{70EC59FB-CF47-43B8-96A3-381D68FB2300}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3504,7 +3504,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE9383E5-5AFA-4A22-AC9A-C693167A10F0}" type="CELLRANGE">
+                    <a:fld id="{2271085F-7C48-4663-B386-996CB9788C79}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3538,7 +3538,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0432DE71-9F07-4D88-A528-6B9829254856}" type="CELLRANGE">
+                    <a:fld id="{C4D2B664-4761-4812-B483-4708B3730A26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3572,7 +3572,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37A96F73-75DA-415B-BD53-B8A67498DD2F}" type="CELLRANGE">
+                    <a:fld id="{BA089B09-7485-4281-B7C9-7A469E64231A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3606,7 +3606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{643538FF-0B90-45D7-BAF4-2F234E9EA99F}" type="CELLRANGE">
+                    <a:fld id="{D2582316-2F3D-4240-8475-699F3517B9E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3640,7 +3640,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C890035-835D-47E9-B545-367002428705}" type="CELLRANGE">
+                    <a:fld id="{D1056933-1558-4011-9779-93F7494C9646}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3674,7 +3674,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2399623D-B9DF-49AE-A401-86C3610355FD}" type="CELLRANGE">
+                    <a:fld id="{5EA3AC87-C024-4083-A32F-75DBEC2A5B58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3708,7 +3708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C38E2A26-570B-40C1-BA06-DCA16DBD348C}" type="CELLRANGE">
+                    <a:fld id="{707CB52B-38E4-4130-8038-D2864F80B5D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3742,7 +3742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E485F8A5-D460-4B64-B3CA-3D86FED37F64}" type="CELLRANGE">
+                    <a:fld id="{F84D692B-2D4B-4F4C-9B35-B101948A8B1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3776,7 +3776,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F698D85D-27AD-457C-9A1D-94D02F196748}" type="CELLRANGE">
+                    <a:fld id="{94D4973C-B120-467F-9D0E-29EA1E9588F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3810,7 +3810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93945C87-6CA6-4644-B689-AF043AA3792F}" type="CELLRANGE">
+                    <a:fld id="{10A32555-832B-4567-A57C-0A2410B20ABC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3844,7 +3844,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECB7865F-4A86-4E5B-8A05-7B921189EF58}" type="CELLRANGE">
+                    <a:fld id="{1050DECB-6C0F-4A68-B09C-D7678EF4F1BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3878,7 +3878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAF33C79-84F0-48FC-9AD0-4F1B21966CCB}" type="CELLRANGE">
+                    <a:fld id="{CFF9220E-6341-4768-9BD5-A13BDA0FB9F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3912,7 +3912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC79EB43-36F8-446D-A270-7C0C0F760CF9}" type="CELLRANGE">
+                    <a:fld id="{2D9BA04C-2112-4275-A111-1CD9AF26CFE5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3946,7 +3946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1197EE23-3307-47E5-A357-79A80654D588}" type="CELLRANGE">
+                    <a:fld id="{BF1F6C33-D811-45A9-B9FD-1AC3F8E5C5B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3980,7 +3980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{108070DC-D2DE-423C-A27A-24FA3B8CD18A}" type="CELLRANGE">
+                    <a:fld id="{6E718B60-1791-47EA-B2F8-17B19E39F049}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4014,7 +4014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FF5F858-FCD7-4766-9E55-949454B2EF71}" type="CELLRANGE">
+                    <a:fld id="{21DBE2F0-6E46-4344-B314-F58613FC8506}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4048,7 +4048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA4B60F7-E8AF-447D-83FE-25654FC68FA6}" type="CELLRANGE">
+                    <a:fld id="{E283BF74-CBDC-4C11-A615-8F6FAF587363}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4082,7 +4082,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F436EB0-BF8E-463C-BE76-4F2E55F3E11D}" type="CELLRANGE">
+                    <a:fld id="{50FE59EA-1871-4E0C-9D0C-F3E23D4418D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4116,7 +4116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E32EC28-38E7-4A88-B146-56C6A3B0EC3F}" type="CELLRANGE">
+                    <a:fld id="{F90DD0B5-0892-4842-BEC9-6C9788D8DDFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4150,7 +4150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6479B9F4-73E4-419A-83A7-BD745AC25844}" type="CELLRANGE">
+                    <a:fld id="{6FE47FB4-C9F7-4E97-BEB0-FD5146349D12}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4469,7 +4469,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DFBC7F4-4061-4817-AF94-1742A3759C35}" type="CELLRANGE">
+                    <a:fld id="{9E9BDE31-D799-4314-9F4D-0EB7469943F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4503,7 +4503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B988366F-2B69-422F-8E51-C0EDC60DE5B2}" type="CELLRANGE">
+                    <a:fld id="{638FD159-0981-4284-81DD-F5F226792B0D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4537,7 +4537,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C7E1CAD-0107-4C13-B58B-D36A14C1F9B9}" type="CELLRANGE">
+                    <a:fld id="{1266D815-A058-4355-966F-37E201B3EC05}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4571,7 +4571,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBD9B11F-4179-496D-9976-E59ED4C16BA4}" type="CELLRANGE">
+                    <a:fld id="{204B24F8-6033-47EA-9F98-8D918BA027EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4605,7 +4605,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05057990-8BBF-404E-9FE0-DDF680EB1265}" type="CELLRANGE">
+                    <a:fld id="{39B0CAC5-D781-42A7-968E-3E8E874116F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4639,7 +4639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFAA2204-7C40-403C-AC56-690BA378BD84}" type="CELLRANGE">
+                    <a:fld id="{5B3C7824-B97B-4239-AAE4-2F5366E5585A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4673,7 +4673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CB724C8-44AB-4C6B-B853-B26808F9BF8B}" type="CELLRANGE">
+                    <a:fld id="{94B43EC7-80D4-49A7-B589-467283DA6330}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4707,7 +4707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3041935-AC8E-4589-859A-021E37E5C8C4}" type="CELLRANGE">
+                    <a:fld id="{8337297C-ECE8-4C5D-966F-910CD77F801D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4741,7 +4741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C3080EE-43E0-4CC5-B42F-3078CEE1D019}" type="CELLRANGE">
+                    <a:fld id="{C4EA5310-6CB8-46E7-9979-15EBD91D3E76}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4775,7 +4775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62D1339D-B39B-4E8D-A999-4B3BAEE3167D}" type="CELLRANGE">
+                    <a:fld id="{DBDC34FC-E0B2-4F5E-A90D-2493C0F4049C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4809,7 +4809,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39E78A9A-7155-44C8-8612-37546349A293}" type="CELLRANGE">
+                    <a:fld id="{362FC169-4939-449C-AF9F-BE08B5B5A2F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4843,7 +4843,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{612A627F-2F99-4610-94B4-CA9889448290}" type="CELLRANGE">
+                    <a:fld id="{3572ADA0-CDAA-4CDD-B0D7-9CE636598B0D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4877,7 +4877,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB4DDB2C-B25D-4A87-AED4-E4F7671A3A90}" type="CELLRANGE">
+                    <a:fld id="{7025BB4E-8AFB-47D4-A844-14D7FAB5A79B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4911,7 +4911,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14E7728C-50CF-444C-8FFF-B04A1369AB70}" type="CELLRANGE">
+                    <a:fld id="{90030D81-1080-47E4-9D9F-7EBE7DE1EA68}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4945,7 +4945,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7996D014-66B3-4D36-AC93-11FF4D6C5F0E}" type="CELLRANGE">
+                    <a:fld id="{D584D117-B25F-4C7D-8F8D-370DCCFDD712}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4979,7 +4979,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF5862BC-4D9E-48B7-9D7D-673315E7FF17}" type="CELLRANGE">
+                    <a:fld id="{AC82B7DA-C06A-4BBB-A97C-70EA581137FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5013,7 +5013,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{286A7B6F-A225-4432-B6BE-0B4B02533618}" type="CELLRANGE">
+                    <a:fld id="{CCAEE551-FEC1-4773-BA9F-C85E7589C376}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5047,7 +5047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD557BD1-450D-4035-B20D-B5DC67DEBF70}" type="CELLRANGE">
+                    <a:fld id="{4D425E58-780B-4AE1-8B2C-7FD513D4EB2A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5081,7 +5081,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50F2ED26-9EE8-4DEA-970B-C86E0C741884}" type="CELLRANGE">
+                    <a:fld id="{C397F843-C693-4247-BB0A-10B706FB9B9E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5115,7 +5115,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5382D48-836D-494C-BF2A-4061B5F8F11D}" type="CELLRANGE">
+                    <a:fld id="{C1C039A9-7863-4CD2-AFC2-38D13960650C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5434,7 +5434,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3D85BD5-BCE8-4889-BCEF-00F077E432BA}" type="CELLRANGE">
+                    <a:fld id="{0B03FB18-BD2F-4B37-B8F0-C396E42F3573}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5468,7 +5468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CAD39CF-6FBB-4144-ADE2-C21FDA4A144E}" type="CELLRANGE">
+                    <a:fld id="{246EF5D3-4C65-4493-8A3E-6D168DDD73DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5502,7 +5502,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A0ACE03-19F0-456F-829E-96507DA2A0F9}" type="CELLRANGE">
+                    <a:fld id="{3A720B14-876D-49BC-B09E-BAEAC43021C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5536,7 +5536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E815372-5E65-45E6-B59A-E3EE046F6434}" type="CELLRANGE">
+                    <a:fld id="{8F58925F-8311-4D24-A971-65A4B93FFF42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5570,7 +5570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EC67088-6805-4E37-AF6E-032FCF50A7EE}" type="CELLRANGE">
+                    <a:fld id="{F94BA481-E1DB-48BB-AF84-2611B40CCA42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5604,7 +5604,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{814C0FBB-A062-465C-A7EF-BFE083D0E398}" type="CELLRANGE">
+                    <a:fld id="{BDBBEE37-40CD-494F-9B8C-609C46211199}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5638,7 +5638,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E58E8811-41B4-496F-8768-BBA824D0EC05}" type="CELLRANGE">
+                    <a:fld id="{9D7EB4C2-C53B-49FE-9C84-6913C77F739F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5672,7 +5672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A274E53-DB31-4B17-9110-2C47BCE4935F}" type="CELLRANGE">
+                    <a:fld id="{6AC01B7B-5042-4CAD-9BB3-DC1BE0BBDD92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5706,7 +5706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D340937-0289-4092-8DBF-9A01215C3417}" type="CELLRANGE">
+                    <a:fld id="{44566375-BFA6-42BC-8153-8731D407E548}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5740,7 +5740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D2835C9-09FC-4403-8869-57ABA0040419}" type="CELLRANGE">
+                    <a:fld id="{635B576B-1BA3-46CC-9D41-A66F13A94EBA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5774,7 +5774,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C04040F-2B9D-4AE0-B7E8-DA7ABE67AB51}" type="CELLRANGE">
+                    <a:fld id="{3245E04C-B9FE-4153-98FA-073882232ED7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5808,7 +5808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B28CD84B-CDD1-4521-B7BC-C0E3E24A1836}" type="CELLRANGE">
+                    <a:fld id="{739E5FA3-6318-4090-9196-4F83FDE59D68}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5842,7 +5842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78B8A6E0-BC74-4232-9193-BF4D0F1F5CEC}" type="CELLRANGE">
+                    <a:fld id="{CF4D64F5-3F51-41CA-B800-E20A5453BF09}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5876,7 +5876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E15A24B-30A4-4AEA-B09B-93C0E8A5DFCC}" type="CELLRANGE">
+                    <a:fld id="{0BC4FE11-0C3D-4527-9199-B6AA71C6D863}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5910,7 +5910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06880F23-BD7B-44EE-93FB-3DDCB90923AF}" type="CELLRANGE">
+                    <a:fld id="{2BA6BF00-D2C6-4DBA-B85D-FE94E2BC1880}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5944,7 +5944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7221D9F7-B17F-45A3-81B0-45FD2797BFDE}" type="CELLRANGE">
+                    <a:fld id="{F8E7A60E-C4E8-45EC-9A0F-01318B113B97}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5978,7 +5978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E96D007-A315-4133-B3BF-236FE274E3FC}" type="CELLRANGE">
+                    <a:fld id="{7F0250FD-E3BB-4267-BB5C-DCD4D1475D4E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6012,7 +6012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FCD8C86-5CEF-4362-8B5C-463E729D6C25}" type="CELLRANGE">
+                    <a:fld id="{2B3A5696-A393-42D8-AC30-A5C38154FD85}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6046,7 +6046,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEF2B1B3-49B2-47A2-91DB-68E393299482}" type="CELLRANGE">
+                    <a:fld id="{E5F7D4F9-37DD-4458-9EFA-817E89A48DDA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6080,7 +6080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E545822-F1E5-4578-9F1F-4B0F090F13BA}" type="CELLRANGE">
+                    <a:fld id="{F7311CBC-D641-4B9D-BDB6-85E713C8C4C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6399,7 +6399,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9494A450-C108-4DDA-BDC3-DF1BE92012CE}" type="CELLRANGE">
+                    <a:fld id="{2493A073-D6DE-4BC0-B461-0545EE394398}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6433,7 +6433,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47A0A77A-7AF8-44F2-AF6E-26DB51A3B996}" type="CELLRANGE">
+                    <a:fld id="{D3E505DA-5998-4E68-A34B-A44D55C597C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6467,7 +6467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E9ACCA4-731C-4954-AA70-0E41FFC15D5F}" type="CELLRANGE">
+                    <a:fld id="{328C16E2-79E4-4D99-9A47-B1DEA12C172B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6501,7 +6501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59599774-20CB-49EA-98C5-F9F2D7A8B383}" type="CELLRANGE">
+                    <a:fld id="{732243EF-A1BA-45D0-A972-86FC40C9F2CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6535,7 +6535,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D29AF593-C1F9-4053-8CE8-FC6086F904C0}" type="CELLRANGE">
+                    <a:fld id="{6DEBFCF1-434A-4D10-A4D4-72FB6F21AF23}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6569,7 +6569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C74B6D0-08EE-420B-B306-9693165B54EA}" type="CELLRANGE">
+                    <a:fld id="{2193E14E-9DE7-4392-84A9-E8A8D6C1F78A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6603,7 +6603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC42CEE4-88CA-42DA-8BE3-BF9EF7179E32}" type="CELLRANGE">
+                    <a:fld id="{EFC54F17-F919-45CA-8040-BA6C261CF1F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6637,7 +6637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23FF7B5D-145E-4A00-A6AC-C5AD1BEEC077}" type="CELLRANGE">
+                    <a:fld id="{275324B3-C69C-47EF-8A9D-B6E1A1B1C4F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6671,7 +6671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E073674A-7602-47F3-9C16-F16784DAE5AD}" type="CELLRANGE">
+                    <a:fld id="{B61AD39E-2C38-4A97-A73F-244D6D460F94}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6705,7 +6705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B9AD1AF-342B-462F-9AEC-BFB66C82D09F}" type="CELLRANGE">
+                    <a:fld id="{73BA329E-CE94-4A54-B2FF-E13B396C89CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6739,7 +6739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2FFD75D-EA2B-4684-995D-FA220CEFA803}" type="CELLRANGE">
+                    <a:fld id="{D8571899-2D8E-4A34-AEDC-40538D47485E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6773,7 +6773,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD5FDB67-E0EA-4339-97F3-DFE7F8F0A9AD}" type="CELLRANGE">
+                    <a:fld id="{D60E7004-AB6E-4F8B-A7EA-712160E5E4DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6807,7 +6807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2318C8D-40ED-4099-A7AD-4226B8DF3DA5}" type="CELLRANGE">
+                    <a:fld id="{FF15F7D4-1E61-46C8-A001-54A6B390E4D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6841,7 +6841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75D20BF8-5233-4DA1-ADDC-64CD91D215F2}" type="CELLRANGE">
+                    <a:fld id="{5EF2A583-6731-480A-9E80-FF1E31B9499F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6875,7 +6875,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7526FCE5-8BA2-4DD9-A1AD-17232BFD80CF}" type="CELLRANGE">
+                    <a:fld id="{C6A85A60-CADD-42F4-A23F-6ED11EEA6C4C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6909,7 +6909,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96122AE6-8113-44C8-B079-8F2369EDE5EA}" type="CELLRANGE">
+                    <a:fld id="{68C465AD-0BB5-48DB-9A16-805CDE63C8E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6943,7 +6943,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4970739A-3E61-42B8-88DB-FE507A911126}" type="CELLRANGE">
+                    <a:fld id="{CF711D2E-081F-4927-932F-3F0694E3AB43}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6977,7 +6977,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF4CE8C0-312D-41FE-B594-1D6D04FAFAD7}" type="CELLRANGE">
+                    <a:fld id="{611C2774-90DA-4CEA-BE53-E8523A44C498}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7011,7 +7011,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5035B83-24E3-4030-81C3-92205B323CCE}" type="CELLRANGE">
+                    <a:fld id="{955EA1DA-D5AC-4CED-8E4F-5FCA3BFEB627}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7045,7 +7045,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC516C68-16DB-4450-BCF3-BA6B98FB7F96}" type="CELLRANGE">
+                    <a:fld id="{19B3B904-5E02-4E19-B916-0A0AAE098DB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7457,10 +7457,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.9134171618254492</c:v>
+                  <c:v>2.9389262614623659</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9134171618254492</c:v>
+                  <c:v>-2.9389262614623659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7472,10 +7472,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.6193976625564339</c:v>
+                  <c:v>4.0450849718747373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.6193976625564339</c:v>
+                  <c:v>-4.0450849718747373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7527,10 +7527,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-1.9134171618254485</c:v>
+                  <c:v>-2.938926261462365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9134171618254485</c:v>
+                  <c:v>2.938926261462365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7542,10 +7542,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.6193976625564339</c:v>
+                  <c:v>4.0450849718747373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.6193976625564339</c:v>
+                  <c:v>-4.0450849718747373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7714,7 +7714,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -7799,7 +7801,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDE2DC84-03D9-48DC-A50F-80D1DBC8A281}" type="CELLRANGE">
+                    <a:fld id="{2F6E1BF5-FF5E-49BE-9355-A3C28F3B9940}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7833,7 +7835,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E8D9482-2FF3-4B32-ADC5-71D40D125C3E}" type="CELLRANGE">
+                    <a:fld id="{59AA65F4-CD82-4795-BBC7-9CD2735FB794}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7867,7 +7869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA5616B4-0504-4216-A473-D0BB6335F098}" type="CELLRANGE">
+                    <a:fld id="{6A4E6612-38E5-438A-A0F6-CDB3814A25F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7901,7 +7903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1226503-3325-4C30-99A3-916C7D08A4DE}" type="CELLRANGE">
+                    <a:fld id="{A6EF1F57-870E-4866-80B4-7574ECD88920}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7935,7 +7937,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{435632D3-525C-43A0-850F-E75FBFB7B7BC}" type="CELLRANGE">
+                    <a:fld id="{965FE9C9-62A1-447B-9718-3A3CB94135BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7969,7 +7971,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CC34FFC-39D4-44FA-BA36-694644F02B6B}" type="CELLRANGE">
+                    <a:fld id="{A1D56DFE-A59C-4316-B93B-0D135B672CD9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8204,7 +8206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BF66D95-5ACE-4F75-B36D-125FDA514B58}" type="CELLRANGE">
+                    <a:fld id="{A6F80DB1-06D2-47F2-B261-4E6FDADD638E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8238,7 +8240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B190899A-78BC-4874-94E6-3AA25A48472C}" type="CELLRANGE">
+                    <a:fld id="{B3757F40-DEC4-40C7-8D96-CB89529283A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8272,7 +8274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF8019A5-64FA-4354-935C-C2685631FB64}" type="CELLRANGE">
+                    <a:fld id="{AC288C38-DCCD-4516-A2EA-E2F3416F1D5A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8306,7 +8308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84A6A97E-AAF1-4BDC-AD6C-58A7DB07222E}" type="CELLRANGE">
+                    <a:fld id="{C767DF7F-D375-46AA-A841-F3A67A983B72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8340,7 +8342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03FC252E-CF80-45DB-B7BB-6C4AFFF889EC}" type="CELLRANGE">
+                    <a:fld id="{2FDDDE56-BDAE-4EEE-8564-ED22F6A201FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8374,7 +8376,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{386E7391-B8EF-4FC9-A627-45B444D1B93F}" type="CELLRANGE">
+                    <a:fld id="{DB9455B8-AD73-403C-8BF6-323F036E096C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8567,7 +8569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F50EADF-457B-4D68-9525-F941981011C0}" type="CELLRANGE">
+                    <a:fld id="{0DE3E7E8-76D2-4701-A95B-8F940A5F0F7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8601,7 +8603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{735B8516-16E6-4429-B1F7-C3640C82626E}" type="CELLRANGE">
+                    <a:fld id="{515C024A-206A-43CA-AA02-9D25A0DBDAE2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8635,7 +8637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB6D08E7-3405-46EB-AFAD-CF10B09E68F9}" type="CELLRANGE">
+                    <a:fld id="{52E08402-C587-4DDC-9AE2-57D78A8E9B2D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8669,7 +8671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E2E6174-EB04-4A17-9496-5C9D8B854EB5}" type="CELLRANGE">
+                    <a:fld id="{2D7F03C8-1F4D-4DDE-AB8B-799343DA178F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8703,7 +8705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{792A88EF-50FF-48DB-9015-962323B53FCE}" type="CELLRANGE">
+                    <a:fld id="{7007A733-D824-4DF9-B999-59B4E33A45FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8737,7 +8739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A5C858B-05AC-497C-A9F3-713D8EEFF05A}" type="CELLRANGE">
+                    <a:fld id="{73E48D3C-DAB2-4755-88D1-A2261D2D523B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8930,7 +8932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD9C4AA0-F706-46AA-85E6-1204F7DDE32F}" type="CELLRANGE">
+                    <a:fld id="{B65E794B-E6F2-4248-9AB1-8E2A93336598}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8964,7 +8966,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9ECBF04D-9D5B-4DB2-B710-8F53801DCDDD}" type="CELLRANGE">
+                    <a:fld id="{E55B95E2-63FD-4CA5-83D3-8ED1B481947C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8998,7 +9000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3727E062-7E22-426B-9E2A-2E8A867E18CD}" type="CELLRANGE">
+                    <a:fld id="{A259CCED-0DB3-4ABA-9700-90F707463CC5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9032,7 +9034,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F7B7F66-6823-41FF-97BE-7B30262349A9}" type="CELLRANGE">
+                    <a:fld id="{2E2D7CA5-963F-4080-A055-8162FE2D7CAE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9066,7 +9068,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4287E46-DEAC-4E21-95D0-C4C21D97037F}" type="CELLRANGE">
+                    <a:fld id="{0656D4C3-716B-4516-BA27-B5BC732A4461}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9100,7 +9102,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{546B5E7E-61F7-4139-B939-00A64AD53239}" type="CELLRANGE">
+                    <a:fld id="{3A818AB2-B2EF-4960-B695-619A8F323504}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9293,7 +9295,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2749C89F-1877-4E47-8498-59C4944537A6}" type="CELLRANGE">
+                    <a:fld id="{03DF4FF1-415F-4154-9405-2D5827A66CB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9327,7 +9329,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55D189DD-F961-4E7E-9A04-32E3FA6D3830}" type="CELLRANGE">
+                    <a:fld id="{B3C05108-67A0-4D01-9003-0DAA31240CB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9361,7 +9363,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E30AD566-5A54-4616-B233-1105F3CF865D}" type="CELLRANGE">
+                    <a:fld id="{DE43063F-52A6-4678-9FCF-69A2B45792C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9395,7 +9397,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84EF48E2-A3B2-4994-90E6-4E89401D1B28}" type="CELLRANGE">
+                    <a:fld id="{4D6A9960-3CBA-498D-8C0B-4DBEC21BBE3E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9429,7 +9431,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89927384-ED1C-4B31-A7C0-69413379C9C6}" type="CELLRANGE">
+                    <a:fld id="{8FE0BC70-78E0-46F1-AFFF-09AF12C21DCE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9463,7 +9465,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34AF4E5D-D747-4211-8AEF-0564D5BDD626}" type="CELLRANGE">
+                    <a:fld id="{1F69672B-DC0D-4212-9166-7EAC6AD72AEF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9656,7 +9658,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BBF5677-649B-4A94-A96C-E9C71295DE41}" type="CELLRANGE">
+                    <a:fld id="{4051EBB8-7D92-42B7-96AF-1B846AC2E233}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9690,7 +9692,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB6B79D7-36D9-4C82-8BF3-00950C9C6D68}" type="CELLRANGE">
+                    <a:fld id="{098D3D35-5208-4A8E-9D85-EC694731E319}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9724,7 +9726,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39E7D1AC-84C6-4523-9FCE-616B28C4A9A4}" type="CELLRANGE">
+                    <a:fld id="{0CA8AD2B-F96C-422E-80B3-997D7A585914}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9758,7 +9760,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D5F4D40-52C2-4159-9E66-DF408655486B}" type="CELLRANGE">
+                    <a:fld id="{4F4B0614-017A-4652-8AC6-5AA7D935B5C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9792,7 +9794,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7BAD099-1EB7-438F-A7EB-4BAA9BD08838}" type="CELLRANGE">
+                    <a:fld id="{1B4474A0-5BF1-4227-BB21-DD9338AF7A72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9826,7 +9828,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55983230-18BD-4809-8F1E-05A458C5CE40}" type="CELLRANGE">
+                    <a:fld id="{B97AC6DB-612D-4E1C-B5F6-7B2EA4C79342}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10112,10 +10114,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.9134171618254492</c:v>
+                  <c:v>2.9389262614623659</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9134171618254492</c:v>
+                  <c:v>-2.9389262614623659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10127,10 +10129,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.6193976625564339</c:v>
+                  <c:v>4.0450849718747373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.6193976625564339</c:v>
+                  <c:v>-4.0450849718747373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10182,10 +10184,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-1.9134171618254485</c:v>
+                  <c:v>-2.938926261462365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9134171618254485</c:v>
+                  <c:v>2.938926261462365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10197,10 +10199,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.6193976625564339</c:v>
+                  <c:v>4.0450849718747373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.6193976625564339</c:v>
+                  <c:v>-4.0450849718747373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12074,16 +12076,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12112,16 +12114,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>117022</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12486,8 +12488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413C7FC3-0C83-4C30-A1A0-0013B4B44AF7}">
   <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="G30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15103,15 +15105,15 @@
         <v>23</v>
       </c>
       <c r="U54" s="1">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="V54" s="1">
         <f>PI()/2 - RADIANS(U54)/2</f>
-        <v>1.1780972450961724</v>
+        <v>0.94247779607693793</v>
       </c>
       <c r="W54" s="1">
         <f>PI()/2 + RADIANS(U54)/2</f>
-        <v>1.9634954084936207</v>
+        <v>2.1991148575128552</v>
       </c>
     </row>
     <row r="55" spans="10:30" x14ac:dyDescent="0.25">
@@ -15184,19 +15186,19 @@
       </c>
       <c r="V56" s="1">
         <f>U56*COS($V$54)</f>
-        <v>1.9134171618254492</v>
+        <v>2.9389262614623659</v>
       </c>
       <c r="W56" s="1">
         <f>U56*SIN($V$54)</f>
-        <v>4.6193976625564339</v>
+        <v>4.0450849718747373</v>
       </c>
       <c r="X56" s="1">
         <f>V56-E22</f>
-        <v>0.51957587223782054</v>
+        <v>1.5450849718747373</v>
       </c>
       <c r="Y56" s="1">
         <f>V56-E22</f>
-        <v>0.51957587223782054</v>
+        <v>1.5450849718747373</v>
       </c>
     </row>
     <row r="57" spans="10:30" x14ac:dyDescent="0.25">
@@ -15230,11 +15232,11 @@
       </c>
       <c r="V57" s="1">
         <f>U57*COS($V$54)</f>
-        <v>-1.9134171618254492</v>
+        <v>-2.9389262614623659</v>
       </c>
       <c r="W57" s="1">
         <f>U57*SIN($V$54)</f>
-        <v>-4.6193976625564339</v>
+        <v>-4.0450849718747373</v>
       </c>
     </row>
     <row r="58" spans="10:30" x14ac:dyDescent="0.25">
@@ -15295,11 +15297,11 @@
       </c>
       <c r="V59" s="1">
         <f>U59*COS($W$54)</f>
-        <v>-1.9134171618254485</v>
+        <v>-2.938926261462365</v>
       </c>
       <c r="W59" s="1">
         <f>U59*SIN($W$54)</f>
-        <v>4.6193976625564339</v>
+        <v>4.0450849718747373</v>
       </c>
     </row>
     <row r="60" spans="10:30" x14ac:dyDescent="0.25">
@@ -15333,11 +15335,11 @@
       </c>
       <c r="V60" s="1">
         <f>U60*COS($W$54)</f>
-        <v>1.9134171618254485</v>
+        <v>2.938926261462365</v>
       </c>
       <c r="W60" s="1">
         <f>U60*SIN($W$54)</f>
-        <v>-4.6193976625564339</v>
+        <v>-4.0450849718747373</v>
       </c>
     </row>
     <row r="61" spans="10:30" x14ac:dyDescent="0.25">
